--- a/Output Summary.xlsx
+++ b/Output Summary.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2E014-78A0-4F6A-801B-AC18460764B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="18585" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heart" sheetId="5" r:id="rId1"/>
     <sheet name="Toxic" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>Scaling</t>
   </si>
@@ -121,11 +132,29 @@
   <si>
     <t>k=9</t>
   </si>
+  <si>
+    <t>k=10</t>
+  </si>
+  <si>
+    <t>k=20</t>
+  </si>
+  <si>
+    <t>k=50</t>
+  </si>
+  <si>
+    <t>k=100</t>
+  </si>
+  <si>
+    <t>k=200</t>
+  </si>
+  <si>
+    <t>k=300</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -285,19 +314,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -309,38 +348,28 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,6 +465,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,6 +517,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,10 +709,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -659,58 +722,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="18">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -720,7 +783,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="18">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -730,7 +793,7 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="18">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -740,7 +803,7 @@
       <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="18">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -750,7 +813,7 @@
       <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="18">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.82456140350877194</v>
       </c>
@@ -762,36 +825,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4">
         <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="4">
         <v>7</v>
       </c>
       <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="4">
         <v>8</v>
       </c>
       <c r="M4" s="5">
         <v>11</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="4">
         <v>8</v>
       </c>
@@ -800,10 +863,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="18">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.57894736842105265</v>
       </c>
@@ -813,7 +876,7 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="18">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.64864864864864868</v>
       </c>
@@ -823,7 +886,7 @@
       <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="18">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.72972972972972971</v>
       </c>
@@ -833,7 +896,7 @@
       <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="18">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -843,7 +906,7 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="18">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -855,36 +918,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4">
         <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4">
         <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>9</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="5">
         <v>13</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="5">
         <v>15</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="4">
         <v>4</v>
       </c>
@@ -893,10 +956,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="22">
         <f>SUM(C7,D8)/SUM(C7:D8)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -906,7 +969,7 @@
       <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="22">
         <f>SUM(F7,G8)/SUM(F7:G8)</f>
         <v>0.7</v>
       </c>
@@ -916,7 +979,7 @@
       <c r="G7" s="8">
         <v>17</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="22">
         <f>SUM(I7,J8)/SUM(I7:J8)</f>
         <v>0.875</v>
       </c>
@@ -926,7 +989,7 @@
       <c r="J7" s="8">
         <v>3</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="22">
         <f>SUM(L7,M8)/SUM(L7:M8)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -936,7 +999,7 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="22">
         <f>SUM(O7,P8)/SUM(O7:P8)</f>
         <v>0.95</v>
       </c>
@@ -948,36 +1011,36 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="9">
         <v>10</v>
       </c>
       <c r="D8" s="10">
         <v>30</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="9">
         <v>7</v>
       </c>
       <c r="G8" s="10">
         <v>33</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="9">
         <v>7</v>
       </c>
       <c r="J8" s="10">
         <v>33</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="9">
         <v>4</v>
       </c>
       <c r="M8" s="10">
         <v>36</v>
       </c>
-      <c r="N8" s="19"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="9">
         <v>2</v>
       </c>
@@ -986,10 +1049,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="18">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -999,7 +1062,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="18">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -1009,7 +1072,7 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="18">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -1019,7 +1082,7 @@
       <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="18">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1029,7 +1092,7 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="18">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1041,36 +1104,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4">
         <v>17</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="4">
         <v>14</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="4">
         <v>9</v>
       </c>
       <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="4">
         <v>9</v>
       </c>
@@ -1079,58 +1142,58 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="18">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.8</v>
       </c>
@@ -1140,7 +1203,7 @@
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="22">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.7</v>
       </c>
@@ -1150,7 +1213,7 @@
       <c r="G14" s="8">
         <v>17</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="22">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1160,7 +1223,7 @@
       <c r="J14" s="8">
         <v>3</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="22">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1170,7 +1233,7 @@
       <c r="M14" s="8">
         <v>3</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="22">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1182,36 +1245,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
       <c r="D15" s="5">
         <v>29</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="9">
         <v>7</v>
       </c>
       <c r="G15" s="10">
         <v>33</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="9">
         <v>8</v>
       </c>
       <c r="J15" s="10">
         <v>31</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="9">
         <v>4</v>
       </c>
       <c r="M15" s="10">
         <v>36</v>
       </c>
-      <c r="N15" s="19"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="9">
         <v>2</v>
       </c>
@@ -1220,10 +1283,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="18">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1233,7 +1296,7 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="18">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.65</v>
       </c>
@@ -1243,7 +1306,7 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="18">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1253,7 +1316,7 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="18">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1263,7 +1326,7 @@
       <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="18">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.9375</v>
       </c>
@@ -1275,36 +1338,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="4">
         <v>6</v>
       </c>
       <c r="G17" s="5">
         <v>34</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="4">
         <v>8</v>
       </c>
       <c r="J17" s="5">
         <v>31</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="4">
         <v>5</v>
       </c>
       <c r="M17" s="5">
         <v>35</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="4">
         <v>2</v>
       </c>
@@ -1313,10 +1376,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="22">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1326,7 +1389,7 @@
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="18">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.63414634146341464</v>
       </c>
@@ -1336,7 +1399,7 @@
       <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="18">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1346,7 +1409,7 @@
       <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="18">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -1356,7 +1419,7 @@
       <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="18">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.9375</v>
       </c>
@@ -1368,36 +1431,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9">
         <v>8</v>
       </c>
       <c r="D19" s="10">
         <v>32</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>34</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4">
         <v>8</v>
       </c>
       <c r="J19" s="5">
         <v>31</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="4">
         <v>4</v>
       </c>
       <c r="M19" s="5">
         <v>36</v>
       </c>
-      <c r="N19" s="15"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="4">
         <v>2</v>
       </c>
@@ -1406,58 +1469,58 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="17" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17" t="s">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="18">
         <f>SUM(C23,D24)/SUM(C23:D24)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -1467,7 +1530,7 @@
       <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="18">
         <f>SUM(F23,G24)/SUM(F23:G24)</f>
         <v>0.65</v>
       </c>
@@ -1477,7 +1540,7 @@
       <c r="G23" s="3">
         <v>23</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="18">
         <f>SUM(I23,J24)/SUM(I23:J24)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1487,7 +1550,7 @@
       <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="18">
         <f>SUM(L23,M24)/SUM(L23:M24)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1497,7 +1560,7 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="18">
         <f>SUM(O23,P24)/SUM(O23:P24)</f>
         <v>0.95</v>
       </c>
@@ -1509,36 +1572,36 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="4">
         <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>35</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="5">
         <v>33</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="4">
         <v>4</v>
       </c>
       <c r="M24" s="5">
         <v>36</v>
       </c>
-      <c r="N24" s="15"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="4">
         <v>2</v>
       </c>
@@ -1547,10 +1610,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="22">
         <f>SUM(C25,D26)/SUM(C25:D26)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1560,7 +1623,7 @@
       <c r="D25" s="8">
         <v>4</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="22">
         <f>SUM(F25,G26)/SUM(F25:G26)</f>
         <v>0.68354430379746833</v>
       </c>
@@ -1570,7 +1633,7 @@
       <c r="G25" s="8">
         <v>19</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="22">
         <f>SUM(I25,J26)/SUM(I25:J26)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1580,7 +1643,7 @@
       <c r="J25" s="8">
         <v>2</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="22">
         <f>SUM(L25,M26)/SUM(L25:M26)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1590,7 +1653,7 @@
       <c r="M25" s="8">
         <v>1</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="22">
         <f>SUM(O25,P26)/SUM(O25:P26)</f>
         <v>0.95</v>
       </c>
@@ -1602,36 +1665,36 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="9">
         <v>7</v>
       </c>
       <c r="D26" s="10">
         <v>33</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="9">
         <v>6</v>
       </c>
       <c r="G26" s="10">
         <v>33</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="9">
         <v>7</v>
       </c>
       <c r="J26" s="10">
         <v>33</v>
       </c>
-      <c r="K26" s="19"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="9">
         <v>4</v>
       </c>
       <c r="M26" s="10">
         <v>36</v>
       </c>
-      <c r="N26" s="19"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="9">
         <v>1</v>
       </c>
@@ -1658,58 +1721,58 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17" t="s">
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17" t="s">
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="18">
         <f>SUM(C30,D31)/SUM(C30:D31)</f>
         <v>0.83544303797468356</v>
       </c>
@@ -1719,7 +1782,7 @@
       <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="18">
         <f>SUM(F30,G31)/SUM(F30:G31)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -1729,7 +1792,7 @@
       <c r="G30" s="3">
         <v>21</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="18">
         <f>SUM(I30,J31)/SUM(I30:J31)</f>
         <v>0.875</v>
       </c>
@@ -1739,7 +1802,7 @@
       <c r="J30" s="3">
         <v>3</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="18">
         <f>SUM(L30,M31)/SUM(L30:M31)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1749,7 +1812,7 @@
       <c r="M30" s="3">
         <v>2</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="18">
         <f>SUM(O30,P31)/SUM(O30:P31)</f>
         <v>0.95</v>
       </c>
@@ -1761,36 +1824,36 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="4">
         <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>31</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
       <c r="G31" s="5">
         <v>34</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="4">
         <v>7</v>
       </c>
       <c r="J31" s="5">
         <v>33</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="4">
         <v>3</v>
       </c>
       <c r="M31" s="5">
         <v>37</v>
       </c>
-      <c r="N31" s="15"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="4">
         <v>0</v>
       </c>
@@ -1799,10 +1862,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="18">
         <f>SUM(C32,D33)/SUM(C32:D33)</f>
         <v>0.85</v>
       </c>
@@ -1812,7 +1875,7 @@
       <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="22">
         <f>SUM(F32,G33)/SUM(F32:G33)</f>
         <v>0.73750000000000004</v>
       </c>
@@ -1822,7 +1885,7 @@
       <c r="G32" s="8">
         <v>10</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="18">
         <f>SUM(I32,J33)/SUM(I32:J33)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1832,7 +1895,7 @@
       <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="18">
         <f>SUM(L32,M33)/SUM(L32:M33)</f>
         <v>0.9</v>
       </c>
@@ -1842,7 +1905,7 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="18">
         <f>SUM(O32,P33)/SUM(O32:P33)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1854,36 +1917,36 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="9">
         <v>11</v>
       </c>
       <c r="G33" s="10">
         <v>29</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="4">
         <v>8</v>
       </c>
       <c r="J33" s="5">
         <v>32</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="4">
         <v>5</v>
       </c>
       <c r="M33" s="5">
         <v>35</v>
       </c>
-      <c r="N33" s="15"/>
+      <c r="N33" s="19"/>
       <c r="O33" s="4">
         <v>1</v>
       </c>
@@ -1892,10 +1955,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="18">
         <f>SUM(C34,D35)/SUM(C34:D35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1905,7 +1968,7 @@
       <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="18">
         <f>SUM(F34,G35)/SUM(F34:G35)</f>
         <v>0.5</v>
       </c>
@@ -1915,7 +1978,7 @@
       <c r="G34" s="3">
         <v>36</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="18">
         <f>SUM(I34,J35)/SUM(I34:J35)</f>
         <v>0.79746835443037978</v>
       </c>
@@ -1925,7 +1988,7 @@
       <c r="J34" s="3">
         <v>4</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="18">
         <f>SUM(L34,M35)/SUM(L34:M35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1935,7 +1998,7 @@
       <c r="M34" s="3">
         <v>4</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="18">
         <f>SUM(O34,P35)/SUM(O34:P35)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1947,36 +2010,36 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="4">
         <v>11</v>
       </c>
       <c r="D35" s="5">
         <v>28</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="4">
         <v>4</v>
       </c>
       <c r="G35" s="5">
         <v>36</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="5">
         <v>27</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="4">
         <v>11</v>
       </c>
       <c r="M35" s="5">
         <v>29</v>
       </c>
-      <c r="N35" s="15"/>
+      <c r="N35" s="19"/>
       <c r="O35" s="4">
         <v>6</v>
       </c>
@@ -1985,10 +2048,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="18">
         <f>SUM(C36,D37)/SUM(C36:D37)</f>
         <v>0.82499999999999996</v>
       </c>
@@ -1998,7 +2061,7 @@
       <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="18">
         <f>SUM(F36,G37)/SUM(F36:G37)</f>
         <v>0.63291139240506333</v>
       </c>
@@ -2008,7 +2071,7 @@
       <c r="G36" s="3">
         <v>25</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="18">
         <f>SUM(I36,J37)/SUM(I36:J37)</f>
         <v>0.85</v>
       </c>
@@ -2018,7 +2081,7 @@
       <c r="J36" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="18">
         <f>SUM(L36,M37)/SUM(L36:M37)</f>
         <v>0.88607594936708856</v>
       </c>
@@ -2028,7 +2091,7 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="18">
         <f>SUM(O36,P37)/SUM(O36:P37)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2040,36 +2103,36 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="4">
         <v>9</v>
       </c>
       <c r="D37" s="5">
         <v>31</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="4">
         <v>4</v>
       </c>
       <c r="G37" s="5">
         <v>35</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="4">
         <v>8</v>
       </c>
       <c r="J37" s="5">
         <v>32</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="4">
         <v>6</v>
       </c>
       <c r="M37" s="5">
         <v>33</v>
       </c>
-      <c r="N37" s="15"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="4">
         <v>4</v>
       </c>
@@ -2078,10 +2141,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="18">
         <f t="shared" ref="B38" si="0">SUM(C38,D39)/SUM(C38:D39)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2091,7 +2154,7 @@
       <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="18">
         <f t="shared" ref="E38" si="1">SUM(F38,G39)/SUM(F38:G39)</f>
         <v>0.60759493670886078</v>
       </c>
@@ -2101,7 +2164,7 @@
       <c r="G38" s="3">
         <v>27</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="18">
         <f t="shared" ref="H38" si="2">SUM(I38,J39)/SUM(I38:J39)</f>
         <v>0.875</v>
       </c>
@@ -2111,7 +2174,7 @@
       <c r="J38" s="3">
         <v>3</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="18">
         <f t="shared" ref="K38" si="3">SUM(L38,M39)/SUM(L38:M39)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2121,7 +2184,7 @@
       <c r="M38" s="3">
         <v>2</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="22">
         <f t="shared" ref="N38" si="4">SUM(O38,P39)/SUM(O38:P39)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2133,36 +2196,36 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="4">
         <v>13</v>
       </c>
       <c r="D39" s="5">
         <v>27</v>
       </c>
-      <c r="E39" s="15"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="4">
         <v>4</v>
       </c>
       <c r="G39" s="5">
         <v>35</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="4">
         <v>7</v>
       </c>
       <c r="J39" s="5">
         <v>33</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="4">
         <v>4</v>
       </c>
       <c r="M39" s="5">
         <v>36</v>
       </c>
-      <c r="N39" s="19"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="9">
         <v>2</v>
       </c>
@@ -2171,10 +2234,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="18">
         <f t="shared" ref="B40" si="5">SUM(C40,D41)/SUM(C40:D41)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2184,7 +2247,7 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="18">
         <f t="shared" ref="E40" si="6">SUM(F40,G41)/SUM(F40:G41)</f>
         <v>0.67088607594936711</v>
       </c>
@@ -2194,7 +2257,7 @@
       <c r="G40" s="3">
         <v>21</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="18">
         <f t="shared" ref="H40" si="7">SUM(I40,J41)/SUM(I40:J41)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2204,7 +2267,7 @@
       <c r="J40" s="3">
         <v>3</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="22">
         <f t="shared" ref="K40" si="8">SUM(L40,M41)/SUM(L40:M41)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2214,7 +2277,7 @@
       <c r="M40" s="8">
         <v>1</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="18">
         <f t="shared" ref="N40" si="9">SUM(O40,P41)/SUM(O40:P41)</f>
         <v>0.95</v>
       </c>
@@ -2226,36 +2289,36 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="4">
         <v>12</v>
       </c>
       <c r="D41" s="5">
         <v>28</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="4">
         <v>5</v>
       </c>
       <c r="G41" s="5">
         <v>35</v>
       </c>
-      <c r="H41" s="15"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="4">
         <v>8</v>
       </c>
       <c r="J41" s="5">
         <v>32</v>
       </c>
-      <c r="K41" s="19"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="9">
         <v>4</v>
       </c>
       <c r="M41" s="10">
         <v>35</v>
       </c>
-      <c r="N41" s="15"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="4">
         <v>1</v>
       </c>
@@ -2264,10 +2327,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="18">
         <f t="shared" ref="B42" si="10">SUM(C42,D43)/SUM(C42:D43)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2277,7 +2340,7 @@
       <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="18">
         <f t="shared" ref="E42" si="11">SUM(F42,G43)/SUM(F42:G43)</f>
         <v>0.65</v>
       </c>
@@ -2287,7 +2350,7 @@
       <c r="G42" s="3">
         <v>22</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="22">
         <f t="shared" ref="H42" si="12">SUM(I42,J43)/SUM(I42:J43)</f>
         <v>0.875</v>
       </c>
@@ -2297,7 +2360,7 @@
       <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="18">
         <f t="shared" ref="K42" si="13">SUM(L42,M43)/SUM(L42:M43)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2307,7 +2370,7 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="18">
         <f t="shared" ref="N42" si="14">SUM(O42,P43)/SUM(O42:P43)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2319,36 +2382,36 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="4">
         <v>7</v>
       </c>
       <c r="D43" s="5">
         <v>33</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="4">
         <v>6</v>
       </c>
       <c r="G43" s="5">
         <v>34</v>
       </c>
-      <c r="H43" s="19"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="9">
         <v>8</v>
       </c>
       <c r="J43" s="10">
         <v>32</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="4">
         <v>5</v>
       </c>
       <c r="M43" s="5">
         <v>35</v>
       </c>
-      <c r="N43" s="15"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="4">
         <v>0</v>
       </c>
@@ -2357,10 +2420,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="18">
         <f t="shared" ref="B44" si="15">SUM(C44,D45)/SUM(C44:D45)</f>
         <v>0.85897435897435892</v>
       </c>
@@ -2370,7 +2433,7 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="18">
         <f t="shared" ref="E44" si="16">SUM(F44,G45)/SUM(F44:G45)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2380,7 +2443,7 @@
       <c r="G44" s="3">
         <v>22</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="18">
         <f t="shared" ref="H44" si="17">SUM(I44,J45)/SUM(I44:J45)</f>
         <v>0.875</v>
       </c>
@@ -2390,7 +2453,7 @@
       <c r="J44" s="3">
         <v>3</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="18">
         <f t="shared" ref="K44" si="18">SUM(L44,M45)/SUM(L44:M45)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2400,7 +2463,7 @@
       <c r="M44" s="3">
         <v>2</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="18">
         <f t="shared" ref="N44" si="19">SUM(O44,P45)/SUM(O44:P45)</f>
         <v>0.95</v>
       </c>
@@ -2412,36 +2475,36 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="4">
         <v>7</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="4">
         <v>5</v>
       </c>
       <c r="G45" s="5">
         <v>34</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="4">
         <v>7</v>
       </c>
       <c r="J45" s="5">
         <v>33</v>
       </c>
-      <c r="K45" s="15"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="4">
         <v>4</v>
       </c>
       <c r="M45" s="5">
         <v>36</v>
       </c>
-      <c r="N45" s="15"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="4">
         <v>1</v>
       </c>
@@ -2450,10 +2513,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="22">
         <f t="shared" ref="B46" si="20">SUM(C46,D47)/SUM(C46:D47)</f>
         <v>0.875</v>
       </c>
@@ -2463,7 +2526,7 @@
       <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="18">
         <f t="shared" ref="E46" si="21">SUM(F46,G47)/SUM(F46:G47)</f>
         <v>0.65</v>
       </c>
@@ -2473,7 +2536,7 @@
       <c r="G46" s="3">
         <v>22</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="18">
         <f t="shared" ref="H46" si="22">SUM(I46,J47)/SUM(I46:J47)</f>
         <v>0.85</v>
       </c>
@@ -2483,7 +2546,7 @@
       <c r="J46" s="3">
         <v>4</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="18">
         <f t="shared" ref="K46" si="23">SUM(L46,M47)/SUM(L46:M47)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2493,7 +2556,7 @@
       <c r="M46" s="3">
         <v>2</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="18">
         <f t="shared" ref="N46" si="24">SUM(O46,P47)/SUM(O46:P47)</f>
         <v>0.96153846153846156</v>
       </c>
@@ -2505,36 +2568,36 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="9">
         <v>6</v>
       </c>
       <c r="D47" s="10">
         <v>34</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="4">
         <v>6</v>
       </c>
       <c r="G47" s="5">
         <v>34</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="4">
         <v>8</v>
       </c>
       <c r="J47" s="5">
         <v>32</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="4">
         <v>3</v>
       </c>
       <c r="M47" s="5">
         <v>36</v>
       </c>
-      <c r="N47" s="15"/>
+      <c r="N47" s="19"/>
       <c r="O47" s="4">
         <v>0</v>
       </c>
@@ -2543,10 +2606,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="18">
         <f t="shared" ref="B48" si="25">SUM(C48,D49)/SUM(C48:D49)</f>
         <v>0.85</v>
       </c>
@@ -2556,7 +2619,7 @@
       <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="18">
         <f t="shared" ref="E48" si="26">SUM(F48,G49)/SUM(F48:G49)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2566,7 +2629,7 @@
       <c r="G48" s="3">
         <v>22</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="18">
         <f t="shared" ref="H48" si="27">SUM(I48,J49)/SUM(I48:J49)</f>
         <v>0.875</v>
       </c>
@@ -2576,7 +2639,7 @@
       <c r="J48" s="3">
         <v>3</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="18">
         <f t="shared" ref="K48" si="28">SUM(L48,M49)/SUM(L48:M49)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -2586,7 +2649,7 @@
       <c r="M48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="18">
         <f t="shared" ref="N48" si="29">SUM(O48,P49)/SUM(O48:P49)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2598,36 +2661,36 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="4">
         <v>7</v>
       </c>
       <c r="D49" s="5">
         <v>33</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="5">
         <v>34</v>
       </c>
-      <c r="H49" s="15"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="5">
         <v>33</v>
       </c>
-      <c r="K49" s="15"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="4">
         <v>5</v>
       </c>
       <c r="M49" s="5">
         <v>35</v>
       </c>
-      <c r="N49" s="15"/>
+      <c r="N49" s="19"/>
       <c r="O49" s="4">
         <v>1</v>
       </c>
@@ -2636,58 +2699,58 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="17" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17" t="s">
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17" t="s">
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17" t="s">
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="18">
         <f>SUM(C53,D54)/SUM(C53:D54)</f>
         <v>0.875</v>
       </c>
@@ -2697,7 +2760,7 @@
       <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="22">
         <f>SUM(F53,G54)/SUM(F53:G54)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2707,7 +2770,7 @@
       <c r="G53" s="8">
         <v>10</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="18">
         <f>SUM(I53,J54)/SUM(I53:J54)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2717,7 +2780,7 @@
       <c r="J53" s="3">
         <v>3</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="22">
         <f>SUM(L53,M54)/SUM(L53:M54)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2727,7 +2790,7 @@
       <c r="M53" s="8">
         <v>3</v>
       </c>
-      <c r="N53" s="14" t="e">
+      <c r="N53" s="18" t="e">
         <f>SUM(O53,P54)/SUM(O53:P54)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2735,44 +2798,44 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4">
         <v>8</v>
       </c>
       <c r="D54" s="5">
         <v>32</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="9">
         <v>11</v>
       </c>
       <c r="G54" s="10">
         <v>29</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="4">
         <v>9</v>
       </c>
       <c r="J54" s="5">
         <v>31</v>
       </c>
-      <c r="K54" s="19"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="9">
         <v>3</v>
       </c>
       <c r="M54" s="10">
         <v>37</v>
       </c>
-      <c r="N54" s="15"/>
+      <c r="N54" s="19"/>
       <c r="O54" s="4"/>
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="18">
         <f>SUM(C55,D56)/SUM(C55:D56)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -2782,7 +2845,7 @@
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="18">
         <f>SUM(F55,G56)/SUM(F55:G56)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2792,7 +2855,7 @@
       <c r="G55" s="3">
         <v>11</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="18">
         <f>SUM(I55,J56)/SUM(I55:J56)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2802,7 +2865,7 @@
       <c r="J55" s="3">
         <v>3</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="18">
         <f>SUM(L55,M56)/SUM(L55:M56)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2812,7 +2875,7 @@
       <c r="M55" s="3">
         <v>4</v>
       </c>
-      <c r="N55" s="14" t="e">
+      <c r="N55" s="18" t="e">
         <f>SUM(O55,P56)/SUM(O55:P56)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2820,44 +2883,44 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4">
         <v>8</v>
       </c>
       <c r="D56" s="5">
         <v>32</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="4">
         <v>10</v>
       </c>
       <c r="G56" s="5">
         <v>29</v>
       </c>
-      <c r="H56" s="15"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="4">
         <v>9</v>
       </c>
       <c r="J56" s="5">
         <v>31</v>
       </c>
-      <c r="K56" s="15"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="4">
         <v>3</v>
       </c>
       <c r="M56" s="5">
         <v>37</v>
       </c>
-      <c r="N56" s="15"/>
+      <c r="N56" s="19"/>
       <c r="O56" s="4"/>
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="22">
         <f>SUM(C57,D58)/SUM(C57:D58)</f>
         <v>0.90666666666666662</v>
       </c>
@@ -2867,7 +2930,7 @@
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="18">
         <f>SUM(F57,G58)/SUM(F57:G58)</f>
         <v>0.7466666666666667</v>
       </c>
@@ -2877,7 +2940,7 @@
       <c r="G57" s="3">
         <v>10</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="18">
         <f>SUM(I57,J58)/SUM(I57:J58)</f>
         <v>0.83783783783783783</v>
       </c>
@@ -2887,7 +2950,7 @@
       <c r="J57" s="3">
         <v>4</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="18">
         <f>SUM(L57,M58)/SUM(L57:M58)</f>
         <v>0.93333333333333335</v>
       </c>
@@ -2897,7 +2960,7 @@
       <c r="M57" s="3">
         <v>3</v>
       </c>
-      <c r="N57" s="14" t="e">
+      <c r="N57" s="18" t="e">
         <f>SUM(O57,P58)/SUM(O57:P58)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2905,44 +2968,44 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="9">
         <v>5</v>
       </c>
       <c r="D58" s="10">
         <v>33</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="4">
         <v>9</v>
       </c>
       <c r="G58" s="5">
         <v>28</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="4">
         <v>8</v>
       </c>
       <c r="J58" s="5">
         <v>30</v>
       </c>
-      <c r="K58" s="15"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="4">
         <v>2</v>
       </c>
       <c r="M58" s="5">
         <v>36</v>
       </c>
-      <c r="N58" s="15"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="4"/>
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="18">
         <f>SUM(C59,D60)/SUM(C59:D60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -2952,7 +3015,7 @@
       <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="18">
         <f>SUM(F59,G60)/SUM(F59:G60)</f>
         <v>0.73239436619718312</v>
       </c>
@@ -2962,7 +3025,7 @@
       <c r="G59" s="3">
         <v>9</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="18">
         <f>SUM(I59,J60)/SUM(I59:J60)</f>
         <v>0.87323943661971826</v>
       </c>
@@ -2972,7 +3035,7 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="18">
         <f>SUM(L59,M60)/SUM(L59:M60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -2982,7 +3045,7 @@
       <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="N59" s="14" t="e">
+      <c r="N59" s="18" t="e">
         <f>SUM(O59,P60)/SUM(O59:P60)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2990,44 +3053,44 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4">
         <v>6</v>
       </c>
       <c r="D60" s="5">
         <v>31</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="4">
         <v>10</v>
       </c>
       <c r="G60" s="5">
         <v>26</v>
       </c>
-      <c r="H60" s="15"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="4">
         <v>8</v>
       </c>
       <c r="J60" s="5">
         <v>29</v>
       </c>
-      <c r="K60" s="15"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="4">
         <v>4</v>
       </c>
       <c r="M60" s="5">
         <v>33</v>
       </c>
-      <c r="N60" s="15"/>
+      <c r="N60" s="19"/>
       <c r="O60" s="4"/>
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="18">
         <f>SUM(C61,D62)/SUM(C61:D62)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -3037,7 +3100,7 @@
       <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="18">
         <f>SUM(F61,G62)/SUM(F61:G62)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -3047,7 +3110,7 @@
       <c r="G61" s="3">
         <v>10</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="18">
         <f>SUM(I61,J62)/SUM(I61:J62)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -3057,7 +3120,7 @@
       <c r="J61" s="3">
         <v>2</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="18">
         <f>SUM(L61,M62)/SUM(L61:M62)</f>
         <v>0.92307692307692313</v>
       </c>
@@ -3067,7 +3130,7 @@
       <c r="M61" s="3">
         <v>4</v>
       </c>
-      <c r="N61" s="14" t="e">
+      <c r="N61" s="18" t="e">
         <f>SUM(O61,P62)/SUM(O61:P62)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3075,44 +3138,44 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4">
         <v>8</v>
       </c>
       <c r="D62" s="5">
         <v>32</v>
       </c>
-      <c r="E62" s="15"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="4">
         <v>11</v>
       </c>
       <c r="G62" s="5">
         <v>28</v>
       </c>
-      <c r="H62" s="15"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="4">
         <v>8</v>
       </c>
       <c r="J62" s="5">
         <v>32</v>
       </c>
-      <c r="K62" s="15"/>
+      <c r="K62" s="19"/>
       <c r="L62" s="4">
         <v>2</v>
       </c>
       <c r="M62" s="5">
         <v>37</v>
       </c>
-      <c r="N62" s="15"/>
+      <c r="N62" s="19"/>
       <c r="O62" s="4"/>
       <c r="P62" s="5"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="18">
         <f>SUM(C63,D64)/SUM(C63:D64)</f>
         <v>0.86842105263157898</v>
       </c>
@@ -3122,7 +3185,7 @@
       <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="18">
         <f>SUM(F63,G64)/SUM(F63:G64)</f>
         <v>0.72</v>
       </c>
@@ -3132,7 +3195,7 @@
       <c r="G63" s="3">
         <v>10</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="18">
         <f>SUM(I63,J64)/SUM(I63:J64)</f>
         <v>0.8783783783783784</v>
       </c>
@@ -3142,7 +3205,7 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="18">
         <f>SUM(L63,M64)/SUM(L63:M64)</f>
         <v>0.91891891891891897</v>
       </c>
@@ -3152,7 +3215,7 @@
       <c r="M63" s="3">
         <v>3</v>
       </c>
-      <c r="N63" s="14" t="e">
+      <c r="N63" s="18" t="e">
         <f>SUM(O63,P64)/SUM(O63:P64)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3160,44 +3223,44 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4">
         <v>6</v>
       </c>
       <c r="D64" s="5">
         <v>33</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="4">
         <v>11</v>
       </c>
       <c r="G64" s="5">
         <v>28</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="4">
         <v>8</v>
       </c>
       <c r="J64" s="5">
         <v>31</v>
       </c>
-      <c r="K64" s="15"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="4">
         <v>3</v>
       </c>
       <c r="M64" s="5">
         <v>36</v>
       </c>
-      <c r="N64" s="15"/>
+      <c r="N64" s="19"/>
       <c r="O64" s="4"/>
       <c r="P64" s="5"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="18">
         <f>SUM(C65,D66)/SUM(C65:D66)</f>
         <v>0.90140845070422537</v>
       </c>
@@ -3207,7 +3270,7 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="18">
         <f>SUM(F65,G66)/SUM(F65:G66)</f>
         <v>0.74647887323943662</v>
       </c>
@@ -3217,7 +3280,7 @@
       <c r="G65" s="3">
         <v>9</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="18">
         <f>SUM(I65,J66)/SUM(I65:J66)</f>
         <v>0.84722222222222221</v>
       </c>
@@ -3227,7 +3290,7 @@
       <c r="J65" s="3">
         <v>4</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="18">
         <f>SUM(L65,M66)/SUM(L65:M66)</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3237,7 +3300,7 @@
       <c r="M65" s="3">
         <v>3</v>
       </c>
-      <c r="N65" s="14" t="e">
+      <c r="N65" s="18" t="e">
         <f>SUM(O65,P66)/SUM(O65:P66)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3245,44 +3308,44 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4">
         <v>5</v>
       </c>
       <c r="D66" s="5">
         <v>32</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="4">
         <v>9</v>
       </c>
       <c r="G66" s="5">
         <v>27</v>
       </c>
-      <c r="H66" s="15"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="5">
         <v>31</v>
       </c>
-      <c r="K66" s="15"/>
+      <c r="K66" s="19"/>
       <c r="L66" s="4">
         <v>3</v>
       </c>
       <c r="M66" s="5">
         <v>35</v>
       </c>
-      <c r="N66" s="15"/>
+      <c r="N66" s="19"/>
       <c r="O66" s="4"/>
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="18">
         <f>SUM(C67,D68)/SUM(C67:D68)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3292,7 +3355,7 @@
       <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="18">
         <f>SUM(F67,G68)/SUM(F67:G68)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3302,7 +3365,7 @@
       <c r="G67" s="3">
         <v>10</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="18">
         <f>SUM(I67,J68)/SUM(I67:J68)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3312,7 +3375,7 @@
       <c r="J67" s="3">
         <v>1</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="18">
         <f>SUM(L67,M68)/SUM(L67:M68)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3322,7 +3385,7 @@
       <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="N67" s="14" t="e">
+      <c r="N67" s="18" t="e">
         <f>SUM(O67,P68)/SUM(O67:P68)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3330,44 +3393,44 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4">
         <v>7</v>
       </c>
       <c r="D68" s="5">
         <v>31</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="4">
         <v>10</v>
       </c>
       <c r="G68" s="5">
         <v>29</v>
       </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="19"/>
       <c r="I68" s="4">
         <v>7</v>
       </c>
       <c r="J68" s="5">
         <v>27</v>
       </c>
-      <c r="K68" s="15"/>
+      <c r="K68" s="19"/>
       <c r="L68" s="4">
         <v>3</v>
       </c>
       <c r="M68" s="5">
         <v>32</v>
       </c>
-      <c r="N68" s="15"/>
+      <c r="N68" s="19"/>
       <c r="O68" s="4"/>
       <c r="P68" s="5"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="18">
         <f>SUM(C69,D70)/SUM(C69:D70)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3377,7 +3440,7 @@
       <c r="D69" s="3">
         <v>4</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="18">
         <f>SUM(F69,G70)/SUM(F69:G70)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3387,7 +3450,7 @@
       <c r="G69" s="3">
         <v>10</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="18">
         <f>SUM(I69,J70)/SUM(I69:J70)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3397,7 +3460,7 @@
       <c r="J69" s="3">
         <v>1</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="18">
         <f>SUM(L69,M70)/SUM(L69:M70)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3407,7 +3470,7 @@
       <c r="M69" s="3">
         <v>2</v>
       </c>
-      <c r="N69" s="14" t="e">
+      <c r="N69" s="18" t="e">
         <f>SUM(O69,P70)/SUM(O69:P70)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3415,44 +3478,44 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="4">
         <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>31</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="4">
         <v>10</v>
       </c>
       <c r="G70" s="5">
         <v>29</v>
       </c>
-      <c r="H70" s="15"/>
+      <c r="H70" s="19"/>
       <c r="I70" s="4">
         <v>7</v>
       </c>
       <c r="J70" s="5">
         <v>27</v>
       </c>
-      <c r="K70" s="15"/>
+      <c r="K70" s="19"/>
       <c r="L70" s="4">
         <v>3</v>
       </c>
       <c r="M70" s="5">
         <v>32</v>
       </c>
-      <c r="N70" s="15"/>
+      <c r="N70" s="19"/>
       <c r="O70" s="4"/>
       <c r="P70" s="5"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="18">
         <f>SUM(C71,D72)/SUM(C71:D72)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3462,7 +3525,7 @@
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="18">
         <f>SUM(F71,G72)/SUM(F71:G72)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3472,7 +3535,7 @@
       <c r="G71" s="3">
         <v>10</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="22">
         <f>SUM(I71,J72)/SUM(I71:J72)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3482,7 +3545,7 @@
       <c r="J71" s="8">
         <v>1</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K71" s="18">
         <f>SUM(L71,M72)/SUM(L71:M72)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3492,7 +3555,7 @@
       <c r="M71" s="3">
         <v>2</v>
       </c>
-      <c r="N71" s="14" t="e">
+      <c r="N71" s="18" t="e">
         <f>SUM(O71,P72)/SUM(O71:P72)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3500,72 +3563,190 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="4">
         <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>31</v>
       </c>
-      <c r="E72" s="15"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="4">
         <v>10</v>
       </c>
       <c r="G72" s="5">
         <v>29</v>
       </c>
-      <c r="H72" s="19"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="9">
         <v>7</v>
       </c>
       <c r="J72" s="10">
         <v>27</v>
       </c>
-      <c r="K72" s="15"/>
+      <c r="K72" s="19"/>
       <c r="L72" s="4">
         <v>3</v>
       </c>
       <c r="M72" s="5">
         <v>32</v>
       </c>
-      <c r="N72" s="15"/>
+      <c r="N72" s="19"/>
       <c r="O72" s="4"/>
       <c r="P72" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A12:P12"/>
     <mergeCell ref="B13:D13"/>
@@ -3590,155 +3771,37 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3746,11 +3809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,1564 +3824,1720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20" t="e">
+      <c r="B3" s="26">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="20" t="e">
+        <v>0.94069681245366943</v>
+      </c>
+      <c r="C3" s="12">
+        <v>98</v>
+      </c>
+      <c r="D3" s="13">
+        <v>124</v>
+      </c>
+      <c r="E3" s="26">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20" t="e">
+        <v>0.78020756115641221</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1942</v>
+      </c>
+      <c r="G3" s="13">
+        <v>534</v>
+      </c>
+      <c r="H3" s="26">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="20" t="e">
+        <v>0.9280948851000741</v>
+      </c>
+      <c r="I3" s="12">
+        <v>77</v>
+      </c>
+      <c r="J3" s="13">
+        <v>145</v>
+      </c>
+      <c r="K3" s="26">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="20">
+        <v>0.94329132690882134</v>
+      </c>
+      <c r="L3" s="12">
+        <v>95</v>
+      </c>
+      <c r="M3" s="13">
+        <v>127</v>
+      </c>
+      <c r="N3" s="26">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
-        <v>0.82456140350877194</v>
-      </c>
-      <c r="O3" s="21">
-        <v>37</v>
-      </c>
-      <c r="P3" s="22">
-        <v>2</v>
+        <v>0.94440326167531508</v>
+      </c>
+      <c r="O3" s="12">
+        <v>109</v>
+      </c>
+      <c r="P3" s="13">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24">
-        <v>8</v>
-      </c>
-      <c r="P4" s="25">
-        <v>10</v>
+      <c r="B4" s="27"/>
+      <c r="C4" s="14">
+        <v>36</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2440</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="14">
+        <v>59</v>
+      </c>
+      <c r="G4" s="15">
+        <v>163</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="14">
+        <v>49</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2427</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="14">
+        <v>26</v>
+      </c>
+      <c r="M4" s="15">
+        <v>2450</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="14">
+        <v>37</v>
+      </c>
+      <c r="P4" s="15">
+        <v>2439</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="20" t="e">
+      <c r="B5" s="26">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="e">
+        <v>0.80449438202247192</v>
+      </c>
+      <c r="C5" s="12">
+        <v>181</v>
+      </c>
+      <c r="D5" s="13">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20" t="e">
+        <v>0.7191011235955056</v>
+      </c>
+      <c r="F5" s="12">
+        <v>182</v>
+      </c>
+      <c r="G5" s="13">
+        <v>40</v>
+      </c>
+      <c r="H5" s="26">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="20" t="e">
+        <v>0.77303370786516856</v>
+      </c>
+      <c r="I5" s="12">
+        <v>161</v>
+      </c>
+      <c r="J5" s="13">
+        <v>61</v>
+      </c>
+      <c r="K5" s="26">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="20">
+        <v>0.84943820224719102</v>
+      </c>
+      <c r="L5" s="12">
+        <v>185</v>
+      </c>
+      <c r="M5" s="13">
+        <v>37</v>
+      </c>
+      <c r="N5" s="26">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
-        <v>0.81081081081081086</v>
-      </c>
-      <c r="O5" s="21">
-        <v>15</v>
-      </c>
-      <c r="P5" s="22">
-        <v>3</v>
+        <v>0.83595505617977528</v>
+      </c>
+      <c r="O5" s="12">
+        <v>186</v>
+      </c>
+      <c r="P5" s="13">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24">
-        <v>4</v>
-      </c>
-      <c r="P6" s="25">
-        <v>15</v>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14">
+        <v>46</v>
+      </c>
+      <c r="D6" s="15">
+        <v>177</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="14">
+        <v>85</v>
+      </c>
+      <c r="G6" s="15">
+        <v>138</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="14">
+        <v>40</v>
+      </c>
+      <c r="J6" s="15">
+        <v>183</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="14">
+        <v>30</v>
+      </c>
+      <c r="M6" s="15">
+        <v>193</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="14">
+        <v>37</v>
+      </c>
+      <c r="P6" s="15">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20" t="e">
+      <c r="B7" s="26">
         <f>SUM(C7,D8)/SUM(C7:D8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="e">
+        <v>0.97475257523732584</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2358</v>
+      </c>
+      <c r="D7" s="13">
+        <v>118</v>
+      </c>
+      <c r="E7" s="26">
         <f>SUM(F7,G8)/SUM(F7:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20" t="e">
+        <v>0.75398909311250251</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1827</v>
+      </c>
+      <c r="G7" s="13">
+        <v>649</v>
+      </c>
+      <c r="H7" s="26">
         <f>SUM(I7,J8)/SUM(I7:J8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="20" t="e">
+        <v>0.91920824075944252</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2121</v>
+      </c>
+      <c r="J7" s="13">
+        <v>355</v>
+      </c>
+      <c r="K7" s="26">
         <f>SUM(L7,M8)/SUM(L7:M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="20">
+        <v>0.98121591597657043</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2383</v>
+      </c>
+      <c r="M7" s="13">
+        <v>93</v>
+      </c>
+      <c r="N7" s="26">
         <f>SUM(O7,P8)/SUM(O7:P8)</f>
-        <v>0.95</v>
-      </c>
-      <c r="O7" s="21">
-        <v>38</v>
-      </c>
-      <c r="P7" s="22">
-        <v>2</v>
+        <v>0.99353665926075541</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2444</v>
+      </c>
+      <c r="P7" s="13">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24">
-        <v>2</v>
-      </c>
-      <c r="P8" s="25">
-        <v>38</v>
+      <c r="B8" s="27"/>
+      <c r="C8" s="14">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2468</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="14">
+        <v>569</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1906</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="14">
+        <v>45</v>
+      </c>
+      <c r="J8" s="15">
+        <v>2430</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>2475</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>2475</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20" t="e">
+      <c r="B9" s="26">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="e">
+        <v>0.94069681245366943</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2440</v>
+      </c>
+      <c r="D9" s="13">
+        <v>36</v>
+      </c>
+      <c r="E9" s="26">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20" t="e">
+        <v>0.78020756115641221</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1942</v>
+      </c>
+      <c r="G9" s="13">
+        <v>534</v>
+      </c>
+      <c r="H9" s="26">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20" t="e">
+        <v>0.9280948851000741</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2427</v>
+      </c>
+      <c r="J9" s="13">
+        <v>49</v>
+      </c>
+      <c r="K9" s="26">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="20">
+        <v>0.94329132690882134</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2450</v>
+      </c>
+      <c r="M9" s="13">
+        <v>26</v>
+      </c>
+      <c r="N9" s="26" t="e">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
-        <v>0.81355932203389836</v>
-      </c>
-      <c r="O9" s="21">
-        <v>38</v>
-      </c>
-      <c r="P9" s="22">
-        <v>2</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24">
-        <v>9</v>
-      </c>
-      <c r="P10" s="25">
-        <v>10</v>
-      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="14">
+        <v>124</v>
+      </c>
+      <c r="D10" s="15">
+        <v>98</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="14">
+        <v>59</v>
+      </c>
+      <c r="G10" s="15">
+        <v>163</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="14">
+        <v>145</v>
+      </c>
+      <c r="J10" s="15">
+        <v>77</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="14">
+        <v>127</v>
+      </c>
+      <c r="M10" s="15">
+        <v>95</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29" t="s">
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="e">
+      <c r="B14" s="26">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="20" t="e">
+        <v>0.97515653403352853</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2355</v>
+      </c>
+      <c r="D14" s="13">
+        <v>121</v>
+      </c>
+      <c r="E14" s="26">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="20" t="e">
+        <v>0.76126035144415272</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1822</v>
+      </c>
+      <c r="G14" s="13">
+        <v>654</v>
+      </c>
+      <c r="H14" s="26">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20" t="e">
+        <v>0.93334679862654013</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2168</v>
+      </c>
+      <c r="J14" s="13">
+        <v>308</v>
+      </c>
+      <c r="K14" s="26">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="20" t="e">
+        <v>0.98182185417087453</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2386</v>
+      </c>
+      <c r="M14" s="13">
+        <v>90</v>
+      </c>
+      <c r="N14" s="26">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
+        <v>0.99474853564936372</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2450</v>
+      </c>
+      <c r="P14" s="13">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2473</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="14">
+        <v>528</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1947</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="14">
+        <v>22</v>
+      </c>
+      <c r="J15" s="15">
+        <v>2453</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2475</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15">
+        <v>2475</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="20" t="e">
+        <v>35</v>
+      </c>
+      <c r="B16" s="26">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="20" t="e">
+        <v>0.70167642900424154</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2111</v>
+      </c>
+      <c r="D16" s="13">
+        <v>365</v>
+      </c>
+      <c r="E16" s="26">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="20" t="e">
+        <v>0.68026661280549383</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2091</v>
+      </c>
+      <c r="G16" s="13">
+        <v>385</v>
+      </c>
+      <c r="H16" s="26">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="20" t="e">
+        <v>0.69117350030296909</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2218</v>
+      </c>
+      <c r="J16" s="13">
+        <v>258</v>
+      </c>
+      <c r="K16" s="26">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="20" t="e">
+        <v>0.70248434659664716</v>
+      </c>
+      <c r="L16" s="12">
+        <v>2175</v>
+      </c>
+      <c r="M16" s="13">
+        <v>301</v>
+      </c>
+      <c r="N16" s="26">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
+        <v>0.70288830539284997</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2173</v>
+      </c>
+      <c r="P16" s="13">
+        <v>303</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="14">
+        <v>1112</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1363</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="14">
+        <v>1198</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1277</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="14">
+        <v>1271</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1204</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="14">
+        <v>1172</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1303</v>
+      </c>
+      <c r="N17" s="27"/>
+      <c r="O17" s="14">
+        <v>1168</v>
+      </c>
+      <c r="P17" s="15">
+        <v>1307</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="20" t="e">
+        <v>36</v>
+      </c>
+      <c r="B18" s="26">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20" t="e">
+        <v>0.7604524338517471</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2047</v>
+      </c>
+      <c r="D18" s="13">
+        <v>429</v>
+      </c>
+      <c r="E18" s="26">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="20" t="e">
+        <v>0.69238537669157751</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1986</v>
+      </c>
+      <c r="G18" s="13">
+        <v>490</v>
+      </c>
+      <c r="H18" s="26">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="20" t="e">
+        <v>0.71056352252070287</v>
+      </c>
+      <c r="I18" s="12">
+        <v>2194</v>
+      </c>
+      <c r="J18" s="13">
+        <v>282</v>
+      </c>
+      <c r="K18" s="26">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="20" t="e">
+        <v>0.7402544940416077</v>
+      </c>
+      <c r="L18" s="12">
+        <v>2226</v>
+      </c>
+      <c r="M18" s="13">
+        <v>250</v>
+      </c>
+      <c r="N18" s="26">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
+        <v>0.74288022621692584</v>
+      </c>
+      <c r="O18" s="12">
+        <v>2249</v>
+      </c>
+      <c r="P18" s="13">
+        <v>227</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="14">
+        <v>757</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1718</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="14">
+        <v>1033</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1442</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="14">
+        <v>1151</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1324</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="14">
+        <v>1036</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1439</v>
+      </c>
+      <c r="N19" s="27"/>
+      <c r="O19" s="14">
+        <v>1046</v>
+      </c>
+      <c r="P19" s="15">
+        <v>1429</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="20" t="e">
+        <v>37</v>
+      </c>
+      <c r="B20" s="26">
         <f t="shared" ref="B20" si="0">SUM(C20,D21)/SUM(C20:D21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20" t="e">
+        <v>0.88567966067461124</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1992</v>
+      </c>
+      <c r="D20" s="13">
+        <v>484</v>
+      </c>
+      <c r="E20" s="26">
         <f t="shared" ref="E20" si="1">SUM(F20,G21)/SUM(F20:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="e">
+        <v>0.70773581094728333</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2083</v>
+      </c>
+      <c r="G20" s="13">
+        <v>393</v>
+      </c>
+      <c r="H20" s="26">
         <f t="shared" ref="H20" si="2">SUM(I20,J21)/SUM(I20:J21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="20" t="e">
+        <v>0.78670975560492828</v>
+      </c>
+      <c r="I20" s="12">
+        <v>2236</v>
+      </c>
+      <c r="J20" s="13">
+        <v>240</v>
+      </c>
+      <c r="K20" s="26">
         <f t="shared" ref="K20" si="3">SUM(L20,M21)/SUM(L20:M21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="20" t="e">
+        <v>0.88729549585942236</v>
+      </c>
+      <c r="L20" s="12">
+        <v>2301</v>
+      </c>
+      <c r="M20" s="13">
+        <v>175</v>
+      </c>
+      <c r="N20" s="26">
         <f t="shared" ref="N20" si="4">SUM(O20,P21)/SUM(O20:P21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
+        <v>0.90224197131892547</v>
+      </c>
+      <c r="O20" s="12">
+        <v>2313</v>
+      </c>
+      <c r="P20" s="13">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="14">
+        <v>82</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2393</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="14">
+        <v>1054</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1421</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="14">
+        <v>816</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1659</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="14">
+        <v>383</v>
+      </c>
+      <c r="M21" s="15">
+        <v>2092</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="14">
+        <v>321</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2154</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="20" t="e">
+        <v>38</v>
+      </c>
+      <c r="B22" s="26">
         <f t="shared" ref="B22" si="5">SUM(C22,D23)/SUM(C22:D23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="20" t="e">
+        <v>0.94001211876388613</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2193</v>
+      </c>
+      <c r="D22" s="13">
+        <v>283</v>
+      </c>
+      <c r="E22" s="26">
         <f t="shared" ref="E22" si="6">SUM(F22,G23)/SUM(F22:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20" t="e">
+        <v>0.73156937992324778</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2076</v>
+      </c>
+      <c r="G22" s="13">
+        <v>400</v>
+      </c>
+      <c r="H22" s="26">
         <f t="shared" ref="H22" si="7">SUM(I22,J23)/SUM(I22:J23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="20" t="e">
+        <v>0.86265400929105229</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2071</v>
+      </c>
+      <c r="J22" s="13">
+        <v>405</v>
+      </c>
+      <c r="K22" s="26">
         <f t="shared" ref="K22" si="8">SUM(L22,M23)/SUM(L22:M23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="20" t="e">
+        <v>0.9654615229246617</v>
+      </c>
+      <c r="L22" s="12">
+        <v>2346</v>
+      </c>
+      <c r="M22" s="13">
+        <v>130</v>
+      </c>
+      <c r="N22" s="26" t="e">
         <f t="shared" ref="N22" si="9">SUM(O22,P23)/SUM(O22:P23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="14">
+        <v>14</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2461</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="14">
+        <v>929</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1546</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="14">
+        <v>275</v>
+      </c>
+      <c r="J23" s="15">
+        <v>2200</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="14">
+        <v>41</v>
+      </c>
+      <c r="M23" s="15">
+        <v>2434</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20" t="e">
+        <v>39</v>
+      </c>
+      <c r="B24" s="26">
         <f t="shared" ref="B24" si="10">SUM(C24,D25)/SUM(C24:D25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="20" t="e">
+        <v>0.96384568773985058</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2305</v>
+      </c>
+      <c r="D24" s="13">
+        <v>171</v>
+      </c>
+      <c r="E24" s="26">
         <f t="shared" ref="E24" si="11">SUM(F24,G25)/SUM(F24:G25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="20" t="e">
+        <v>0.73399313270046451</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1991</v>
+      </c>
+      <c r="G24" s="13">
+        <v>485</v>
+      </c>
+      <c r="H24" s="26">
         <f t="shared" ref="H24" si="12">SUM(I24,J25)/SUM(I24:J25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="20" t="e">
+        <v>0.88305392849929309</v>
+      </c>
+      <c r="I24" s="12">
+        <v>2052</v>
+      </c>
+      <c r="J24" s="13">
+        <v>424</v>
+      </c>
+      <c r="K24" s="26">
         <f t="shared" ref="K24" si="13">SUM(L24,M25)/SUM(L24:M25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="20" t="e">
+        <v>0.97394465764492022</v>
+      </c>
+      <c r="L24" s="12">
+        <v>2374</v>
+      </c>
+      <c r="M24" s="13">
+        <v>102</v>
+      </c>
+      <c r="N24" s="26" t="e">
         <f t="shared" ref="N24" si="14">SUM(O24,P25)/SUM(O24:P25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="14">
+        <v>8</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2467</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="14">
+        <v>832</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1643</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="14">
+        <v>155</v>
+      </c>
+      <c r="J25" s="15">
+        <v>2320</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="14">
+        <v>27</v>
+      </c>
+      <c r="M25" s="15">
+        <v>2448</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="20" t="e">
+        <v>40</v>
+      </c>
+      <c r="B26" s="26">
         <f t="shared" ref="B26" si="15">SUM(C26,D27)/SUM(C26:D27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20" t="e">
+        <v>0.96849121389618253</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2325</v>
+      </c>
+      <c r="D26" s="13">
+        <v>151</v>
+      </c>
+      <c r="E26" s="26">
         <f t="shared" ref="E26" si="16">SUM(F26,G27)/SUM(F26:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="20" t="e">
+        <v>0.75035346394667746</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1860</v>
+      </c>
+      <c r="G26" s="13">
+        <v>616</v>
+      </c>
+      <c r="H26" s="26">
         <f t="shared" ref="H26" si="17">SUM(I26,J27)/SUM(I26:J27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20" t="e">
+        <v>0.90708947687335895</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2109</v>
+      </c>
+      <c r="J26" s="13">
+        <v>367</v>
+      </c>
+      <c r="K26" s="26">
         <f t="shared" ref="K26" si="18">SUM(L26,M27)/SUM(L26:M27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="20" t="e">
+        <v>0.98141789537467183</v>
+      </c>
+      <c r="L26" s="12">
+        <v>2386</v>
+      </c>
+      <c r="M26" s="13">
+        <v>90</v>
+      </c>
+      <c r="N26" s="26" t="e">
         <f t="shared" ref="N26" si="19">SUM(O26,P27)/SUM(O26:P27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="14">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2470</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="14">
+        <v>620</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1855</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="14">
+        <v>93</v>
+      </c>
+      <c r="J27" s="15">
+        <v>2382</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="14">
+        <v>2</v>
+      </c>
+      <c r="M27" s="15">
+        <v>2473</v>
+      </c>
+      <c r="N27" s="27"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="20" t="e">
-        <f t="shared" ref="B28" si="20">SUM(C28,D29)/SUM(C28:D29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20" t="e">
-        <f t="shared" ref="E28" si="21">SUM(F28,G29)/SUM(F28:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20" t="e">
-        <f t="shared" ref="H28" si="22">SUM(I28,J29)/SUM(I28:J29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20" t="e">
-        <f t="shared" ref="K28" si="23">SUM(L28,M29)/SUM(L28:M29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="20" t="e">
-        <f t="shared" ref="N28" si="24">SUM(O28,P29)/SUM(O28:P29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="25"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="20" t="e">
-        <f t="shared" ref="B30" si="25">SUM(C30,D31)/SUM(C30:D31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="20" t="e">
-        <f t="shared" ref="E30" si="26">SUM(F30,G31)/SUM(F30:G31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20" t="e">
-        <f t="shared" ref="H30" si="27">SUM(I30,J31)/SUM(I30:J31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="20" t="e">
-        <f t="shared" ref="K30" si="28">SUM(L30,M31)/SUM(L30:M31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="20" t="e">
-        <f t="shared" ref="N30" si="29">SUM(O30,P31)/SUM(O30:P31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="25"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-    </row>
-    <row r="33" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A33" s="26" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+    </row>
+    <row r="29" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A29" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="26" t="e">
+        <f>SUM(C31,D32)/SUM(C31:D32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="26" t="e">
+        <f>SUM(F31,G32)/SUM(F31:G32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="26" t="e">
+        <f>SUM(I31,J32)/SUM(I31:J32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="26" t="e">
+        <f>SUM(L31,M32)/SUM(L31:M32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="26" t="e">
+        <f>SUM(O31,P32)/SUM(O31:P32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="12"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="26" t="e">
+        <f>SUM(C33,D34)/SUM(C33:D34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="26" t="e">
+        <f>SUM(F33,G34)/SUM(F33:G34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="26" t="e">
+        <f>SUM(I33,J34)/SUM(I33:J34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="26" t="e">
+        <f>SUM(L33,M34)/SUM(L33:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="26" t="e">
+        <f>SUM(O33,P34)/SUM(O33:P34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="20" t="e">
+        <v>6</v>
+      </c>
+      <c r="B35" s="26" t="e">
         <f>SUM(C35,D36)/SUM(C35:D36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="20" t="e">
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="26" t="e">
         <f>SUM(F35,G36)/SUM(F35:G36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20" t="e">
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="26" t="e">
         <f>SUM(I35,J36)/SUM(I35:J36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="20" t="e">
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="26" t="e">
         <f>SUM(L35,M36)/SUM(L35:M36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="20" t="e">
+      <c r="L35" s="12"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="26" t="e">
         <f>SUM(O35,P36)/SUM(O35:P36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" s="21"/>
-      <c r="P35" s="22"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="20" t="e">
+        <v>7</v>
+      </c>
+      <c r="B37" s="26" t="e">
         <f>SUM(C37,D38)/SUM(C37:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="20" t="e">
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="26" t="e">
         <f>SUM(F37,G38)/SUM(F37:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="20" t="e">
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="26" t="e">
         <f>SUM(I37,J38)/SUM(I37:J38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="20" t="e">
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="26" t="e">
         <f>SUM(L37,M38)/SUM(L37:M38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="20" t="e">
+      <c r="L37" s="12"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="26" t="e">
         <f>SUM(O37,P38)/SUM(O37:P38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="22"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="20" t="e">
+      <c r="A39" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="26" t="e">
         <f>SUM(C39,D40)/SUM(C39:D40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="20" t="e">
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="26" t="e">
         <f>SUM(F39,G40)/SUM(F39:G40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20" t="e">
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="26" t="e">
         <f>SUM(I39,J40)/SUM(I39:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="20" t="e">
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="26" t="e">
         <f>SUM(L39,M40)/SUM(L39:M40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="21"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="20" t="e">
+      <c r="L39" s="12"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="26" t="e">
         <f>SUM(O39,P40)/SUM(O39:P40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="22"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="25"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="20" t="e">
+      <c r="A41" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="26" t="e">
         <f>SUM(C41,D42)/SUM(C41:D42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="20" t="e">
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="26" t="e">
         <f>SUM(F41,G42)/SUM(F41:G42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="20" t="e">
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="26" t="e">
         <f>SUM(I41,J42)/SUM(I41:J42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="20" t="e">
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="26" t="e">
         <f>SUM(L41,M42)/SUM(L41:M42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="20" t="e">
+      <c r="L41" s="12"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="26" t="e">
         <f>SUM(O41,P42)/SUM(O41:P42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="22"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="20" t="e">
+      <c r="A43" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="26" t="e">
         <f>SUM(C43,D44)/SUM(C43:D44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="20" t="e">
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="26" t="e">
         <f>SUM(F43,G44)/SUM(F43:G44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="20" t="e">
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="26" t="e">
         <f>SUM(I43,J44)/SUM(I43:J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="20" t="e">
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="26" t="e">
         <f>SUM(L43,M44)/SUM(L43:M44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="20" t="e">
+      <c r="L43" s="12"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="26" t="e">
         <f>SUM(O43,P44)/SUM(O43:P44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="21"/>
-      <c r="P43" s="22"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="20" t="e">
+      <c r="A45" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="26" t="e">
         <f>SUM(C45,D46)/SUM(C45:D46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="20" t="e">
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="26" t="e">
         <f>SUM(F45,G46)/SUM(F45:G46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="20" t="e">
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="26" t="e">
         <f>SUM(I45,J46)/SUM(I45:J46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="20" t="e">
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="26" t="e">
         <f>SUM(L45,M46)/SUM(L45:M46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="20" t="e">
+      <c r="L45" s="12"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="26" t="e">
         <f>SUM(O45,P46)/SUM(O45:P46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="20" t="e">
+        <v>10</v>
+      </c>
+      <c r="B47" s="26" t="e">
         <f>SUM(C47,D48)/SUM(C47:D48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="20" t="e">
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="26" t="e">
         <f>SUM(F47,G48)/SUM(F47:G48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="20" t="e">
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="26" t="e">
         <f>SUM(I47,J48)/SUM(I47:J48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="20" t="e">
+      <c r="I47" s="12"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="26" t="e">
         <f>SUM(L47,M48)/SUM(L47:M48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="20" t="e">
+      <c r="L47" s="12"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="26" t="e">
         <f>SUM(O47,P48)/SUM(O47:P48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="22"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="15"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="20" t="e">
+        <v>11</v>
+      </c>
+      <c r="B49" s="26" t="e">
         <f>SUM(C49,D50)/SUM(C49:D50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="20" t="e">
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="26" t="e">
         <f>SUM(F49,G50)/SUM(F49:G50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20" t="e">
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="26" t="e">
         <f>SUM(I49,J50)/SUM(I49:J50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="20" t="e">
+      <c r="I49" s="12"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="26" t="e">
         <f>SUM(L49,M50)/SUM(L49:M50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="21"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="20" t="e">
+      <c r="L49" s="12"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="26" t="e">
         <f>SUM(O49,P50)/SUM(O49:P50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="25"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="20" t="e">
-        <f>SUM(C51,D52)/SUM(C51:D52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="20" t="e">
-        <f>SUM(F51,G52)/SUM(F51:G52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="20" t="e">
-        <f>SUM(I51,J52)/SUM(I51:J52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="20" t="e">
-        <f>SUM(L51,M52)/SUM(L51:M52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L51" s="21"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="20" t="e">
-        <f>SUM(O51,P52)/SUM(O51:P52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" s="21"/>
-      <c r="P51" s="22"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="25"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="20" t="e">
-        <f>SUM(C53,D54)/SUM(C53:D54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="20" t="e">
-        <f>SUM(F53,G54)/SUM(F53:G54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="20" t="e">
-        <f>SUM(I53,J54)/SUM(I53:J54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="21"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="20" t="e">
-        <f>SUM(L53,M54)/SUM(L53:M54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="20" t="e">
-        <f>SUM(O53,P54)/SUM(O53:P54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="22"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="25"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
+  <mergeCells count="144">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="K9:K10"/>
@@ -5332,23 +5551,125 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K47:K48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output Summary.xlsx
+++ b/Output Summary.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2E014-78A0-4F6A-801B-AC18460764B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="18585" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="18585" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Heart" sheetId="5" r:id="rId1"/>
     <sheet name="Toxic" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -279,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,16 +329,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,10 +347,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,16 +368,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,7 +392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,23 +467,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -517,23 +502,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,58 +690,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="20">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -783,7 +751,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="20">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -793,7 +761,7 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="20">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -803,7 +771,7 @@
       <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="20">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -813,7 +781,7 @@
       <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="20">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.82456140350877194</v>
       </c>
@@ -825,36 +793,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4">
         <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="4">
         <v>7</v>
       </c>
       <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4" s="19"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="4">
         <v>8</v>
       </c>
       <c r="M4" s="5">
         <v>11</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="4">
         <v>8</v>
       </c>
@@ -863,10 +831,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.57894736842105265</v>
       </c>
@@ -876,7 +844,7 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.64864864864864868</v>
       </c>
@@ -886,7 +854,7 @@
       <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="20">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.72972972972972971</v>
       </c>
@@ -896,7 +864,7 @@
       <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="20">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -906,7 +874,7 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="20">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -918,36 +886,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4">
         <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="4">
         <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>9</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="5">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="5">
         <v>15</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="4">
         <v>4</v>
       </c>
@@ -956,7 +924,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="22">
@@ -1011,7 +979,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="23"/>
       <c r="C8" s="9">
         <v>10</v>
@@ -1049,10 +1017,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="20">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -1062,7 +1030,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="20">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -1072,7 +1040,7 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="20">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -1082,7 +1050,7 @@
       <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="20">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1092,7 +1060,7 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="20">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1104,36 +1072,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4">
         <v>17</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="4">
         <v>14</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="19"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="4">
         <v>9</v>
       </c>
       <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="4">
         <v>9</v>
       </c>
@@ -1142,58 +1110,58 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.8</v>
       </c>
@@ -1245,8 +1213,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
@@ -1283,10 +1251,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1296,7 +1264,7 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="20">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.65</v>
       </c>
@@ -1306,7 +1274,7 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="20">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1316,7 +1284,7 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="20">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1326,7 +1294,7 @@
       <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="20">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.9375</v>
       </c>
@@ -1338,36 +1306,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="4">
         <v>6</v>
       </c>
       <c r="G17" s="5">
         <v>34</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="4">
         <v>8</v>
       </c>
       <c r="J17" s="5">
         <v>31</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="4">
         <v>5</v>
       </c>
       <c r="M17" s="5">
         <v>35</v>
       </c>
-      <c r="N17" s="19"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="4">
         <v>2</v>
       </c>
@@ -1376,7 +1344,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="22">
@@ -1389,7 +1357,7 @@
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="20">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.63414634146341464</v>
       </c>
@@ -1399,7 +1367,7 @@
       <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="20">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1409,7 +1377,7 @@
       <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="20">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -1419,7 +1387,7 @@
       <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="20">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.9375</v>
       </c>
@@ -1431,7 +1399,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="9">
         <v>8</v>
@@ -1439,28 +1407,28 @@
       <c r="D19" s="10">
         <v>32</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>34</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="4">
         <v>8</v>
       </c>
       <c r="J19" s="5">
         <v>31</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="4">
         <v>4</v>
       </c>
       <c r="M19" s="5">
         <v>36</v>
       </c>
-      <c r="N19" s="19"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="4">
         <v>2</v>
       </c>
@@ -1469,58 +1437,58 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21" t="s">
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21" t="s">
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="20">
         <f>SUM(C23,D24)/SUM(C23:D24)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -1530,7 +1498,7 @@
       <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="20">
         <f>SUM(F23,G24)/SUM(F23:G24)</f>
         <v>0.65</v>
       </c>
@@ -1540,7 +1508,7 @@
       <c r="G23" s="3">
         <v>23</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="20">
         <f>SUM(I23,J24)/SUM(I23:J24)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1550,7 +1518,7 @@
       <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="20">
         <f>SUM(L23,M24)/SUM(L23:M24)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1560,7 +1528,7 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="20">
         <f>SUM(O23,P24)/SUM(O23:P24)</f>
         <v>0.95</v>
       </c>
@@ -1572,36 +1540,36 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="4">
         <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>33</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>35</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="5">
         <v>33</v>
       </c>
-      <c r="K24" s="19"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="4">
         <v>4</v>
       </c>
       <c r="M24" s="5">
         <v>36</v>
       </c>
-      <c r="N24" s="19"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="4">
         <v>2</v>
       </c>
@@ -1610,7 +1578,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="22">
@@ -1665,7 +1633,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="23"/>
       <c r="C26" s="9">
         <v>7</v>
@@ -1721,58 +1689,58 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21" t="s">
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="20">
         <f>SUM(C30,D31)/SUM(C30:D31)</f>
         <v>0.83544303797468356</v>
       </c>
@@ -1782,7 +1750,7 @@
       <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="20">
         <f>SUM(F30,G31)/SUM(F30:G31)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -1792,7 +1760,7 @@
       <c r="G30" s="3">
         <v>21</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="20">
         <f>SUM(I30,J31)/SUM(I30:J31)</f>
         <v>0.875</v>
       </c>
@@ -1802,7 +1770,7 @@
       <c r="J30" s="3">
         <v>3</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="20">
         <f>SUM(L30,M31)/SUM(L30:M31)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1812,7 +1780,7 @@
       <c r="M30" s="3">
         <v>2</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="20">
         <f>SUM(O30,P31)/SUM(O30:P31)</f>
         <v>0.95</v>
       </c>
@@ -1824,36 +1792,36 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="4">
         <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>31</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
       <c r="G31" s="5">
         <v>34</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="4">
         <v>7</v>
       </c>
       <c r="J31" s="5">
         <v>33</v>
       </c>
-      <c r="K31" s="19"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="4">
         <v>3</v>
       </c>
       <c r="M31" s="5">
         <v>37</v>
       </c>
-      <c r="N31" s="19"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="4">
         <v>0</v>
       </c>
@@ -1862,10 +1830,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="20">
         <f>SUM(C32,D33)/SUM(C32:D33)</f>
         <v>0.85</v>
       </c>
@@ -1885,7 +1853,7 @@
       <c r="G32" s="8">
         <v>10</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="20">
         <f>SUM(I32,J33)/SUM(I32:J33)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1895,7 +1863,7 @@
       <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="20">
         <f>SUM(L32,M33)/SUM(L32:M33)</f>
         <v>0.9</v>
       </c>
@@ -1905,7 +1873,7 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="20">
         <f>SUM(O32,P33)/SUM(O32:P33)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1917,8 +1885,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
@@ -1932,21 +1900,21 @@
       <c r="G33" s="10">
         <v>29</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="4">
         <v>8</v>
       </c>
       <c r="J33" s="5">
         <v>32</v>
       </c>
-      <c r="K33" s="19"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="4">
         <v>5</v>
       </c>
       <c r="M33" s="5">
         <v>35</v>
       </c>
-      <c r="N33" s="19"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="4">
         <v>1</v>
       </c>
@@ -1955,10 +1923,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="20">
         <f>SUM(C34,D35)/SUM(C34:D35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1968,7 +1936,7 @@
       <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="20">
         <f>SUM(F34,G35)/SUM(F34:G35)</f>
         <v>0.5</v>
       </c>
@@ -1978,7 +1946,7 @@
       <c r="G34" s="3">
         <v>36</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="20">
         <f>SUM(I34,J35)/SUM(I34:J35)</f>
         <v>0.79746835443037978</v>
       </c>
@@ -1988,7 +1956,7 @@
       <c r="J34" s="3">
         <v>4</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="20">
         <f>SUM(L34,M35)/SUM(L34:M35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1998,7 +1966,7 @@
       <c r="M34" s="3">
         <v>4</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="20">
         <f>SUM(O34,P35)/SUM(O34:P35)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2010,36 +1978,36 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="4">
         <v>11</v>
       </c>
       <c r="D35" s="5">
         <v>28</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="4">
         <v>4</v>
       </c>
       <c r="G35" s="5">
         <v>36</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="5">
         <v>27</v>
       </c>
-      <c r="K35" s="19"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="4">
         <v>11</v>
       </c>
       <c r="M35" s="5">
         <v>29</v>
       </c>
-      <c r="N35" s="19"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="4">
         <v>6</v>
       </c>
@@ -2048,10 +2016,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="20">
         <f>SUM(C36,D37)/SUM(C36:D37)</f>
         <v>0.82499999999999996</v>
       </c>
@@ -2061,7 +2029,7 @@
       <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="20">
         <f>SUM(F36,G37)/SUM(F36:G37)</f>
         <v>0.63291139240506333</v>
       </c>
@@ -2071,7 +2039,7 @@
       <c r="G36" s="3">
         <v>25</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="20">
         <f>SUM(I36,J37)/SUM(I36:J37)</f>
         <v>0.85</v>
       </c>
@@ -2081,7 +2049,7 @@
       <c r="J36" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="20">
         <f>SUM(L36,M37)/SUM(L36:M37)</f>
         <v>0.88607594936708856</v>
       </c>
@@ -2091,7 +2059,7 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="20">
         <f>SUM(O36,P37)/SUM(O36:P37)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2103,36 +2071,36 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="4">
         <v>9</v>
       </c>
       <c r="D37" s="5">
         <v>31</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="4">
         <v>4</v>
       </c>
       <c r="G37" s="5">
         <v>35</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="4">
         <v>8</v>
       </c>
       <c r="J37" s="5">
         <v>32</v>
       </c>
-      <c r="K37" s="19"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="4">
         <v>6</v>
       </c>
       <c r="M37" s="5">
         <v>33</v>
       </c>
-      <c r="N37" s="19"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="4">
         <v>4</v>
       </c>
@@ -2141,10 +2109,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="20">
         <f t="shared" ref="B38" si="0">SUM(C38,D39)/SUM(C38:D39)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2154,7 +2122,7 @@
       <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="20">
         <f t="shared" ref="E38" si="1">SUM(F38,G39)/SUM(F38:G39)</f>
         <v>0.60759493670886078</v>
       </c>
@@ -2164,7 +2132,7 @@
       <c r="G38" s="3">
         <v>27</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="20">
         <f t="shared" ref="H38" si="2">SUM(I38,J39)/SUM(I38:J39)</f>
         <v>0.875</v>
       </c>
@@ -2174,7 +2142,7 @@
       <c r="J38" s="3">
         <v>3</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="20">
         <f t="shared" ref="K38" si="3">SUM(L38,M39)/SUM(L38:M39)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2196,29 +2164,29 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="4">
         <v>13</v>
       </c>
       <c r="D39" s="5">
         <v>27</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="4">
         <v>4</v>
       </c>
       <c r="G39" s="5">
         <v>35</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="4">
         <v>7</v>
       </c>
       <c r="J39" s="5">
         <v>33</v>
       </c>
-      <c r="K39" s="19"/>
+      <c r="K39" s="21"/>
       <c r="L39" s="4">
         <v>4</v>
       </c>
@@ -2234,10 +2202,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="20">
         <f t="shared" ref="B40" si="5">SUM(C40,D41)/SUM(C40:D41)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2247,7 +2215,7 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="20">
         <f t="shared" ref="E40" si="6">SUM(F40,G41)/SUM(F40:G41)</f>
         <v>0.67088607594936711</v>
       </c>
@@ -2257,7 +2225,7 @@
       <c r="G40" s="3">
         <v>21</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="20">
         <f t="shared" ref="H40" si="7">SUM(I40,J41)/SUM(I40:J41)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2277,7 +2245,7 @@
       <c r="M40" s="8">
         <v>1</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="20">
         <f t="shared" ref="N40" si="9">SUM(O40,P41)/SUM(O40:P41)</f>
         <v>0.95</v>
       </c>
@@ -2289,22 +2257,22 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="4">
         <v>12</v>
       </c>
       <c r="D41" s="5">
         <v>28</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="4">
         <v>5</v>
       </c>
       <c r="G41" s="5">
         <v>35</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="21"/>
       <c r="I41" s="4">
         <v>8</v>
       </c>
@@ -2318,7 +2286,7 @@
       <c r="M41" s="10">
         <v>35</v>
       </c>
-      <c r="N41" s="19"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="4">
         <v>1</v>
       </c>
@@ -2327,10 +2295,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="20">
         <f t="shared" ref="B42" si="10">SUM(C42,D43)/SUM(C42:D43)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2340,7 +2308,7 @@
       <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="20">
         <f t="shared" ref="E42" si="11">SUM(F42,G43)/SUM(F42:G43)</f>
         <v>0.65</v>
       </c>
@@ -2360,7 +2328,7 @@
       <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="20">
         <f t="shared" ref="K42" si="13">SUM(L42,M43)/SUM(L42:M43)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2370,7 +2338,7 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="20">
         <f t="shared" ref="N42" si="14">SUM(O42,P43)/SUM(O42:P43)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2382,15 +2350,15 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="4">
         <v>7</v>
       </c>
       <c r="D43" s="5">
         <v>33</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="4">
         <v>6</v>
       </c>
@@ -2404,14 +2372,14 @@
       <c r="J43" s="10">
         <v>32</v>
       </c>
-      <c r="K43" s="19"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="4">
         <v>5</v>
       </c>
       <c r="M43" s="5">
         <v>35</v>
       </c>
-      <c r="N43" s="19"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="4">
         <v>0</v>
       </c>
@@ -2420,10 +2388,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="20">
         <f t="shared" ref="B44" si="15">SUM(C44,D45)/SUM(C44:D45)</f>
         <v>0.85897435897435892</v>
       </c>
@@ -2433,7 +2401,7 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="20">
         <f t="shared" ref="E44" si="16">SUM(F44,G45)/SUM(F44:G45)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2443,7 +2411,7 @@
       <c r="G44" s="3">
         <v>22</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="20">
         <f t="shared" ref="H44" si="17">SUM(I44,J45)/SUM(I44:J45)</f>
         <v>0.875</v>
       </c>
@@ -2453,7 +2421,7 @@
       <c r="J44" s="3">
         <v>3</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="20">
         <f t="shared" ref="K44" si="18">SUM(L44,M45)/SUM(L44:M45)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2463,7 +2431,7 @@
       <c r="M44" s="3">
         <v>2</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="20">
         <f t="shared" ref="N44" si="19">SUM(O44,P45)/SUM(O44:P45)</f>
         <v>0.95</v>
       </c>
@@ -2475,36 +2443,36 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="4">
         <v>7</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="4">
         <v>5</v>
       </c>
       <c r="G45" s="5">
         <v>34</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="21"/>
       <c r="I45" s="4">
         <v>7</v>
       </c>
       <c r="J45" s="5">
         <v>33</v>
       </c>
-      <c r="K45" s="19"/>
+      <c r="K45" s="21"/>
       <c r="L45" s="4">
         <v>4</v>
       </c>
       <c r="M45" s="5">
         <v>36</v>
       </c>
-      <c r="N45" s="19"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="4">
         <v>1</v>
       </c>
@@ -2513,7 +2481,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="22">
@@ -2526,7 +2494,7 @@
       <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="20">
         <f t="shared" ref="E46" si="21">SUM(F46,G47)/SUM(F46:G47)</f>
         <v>0.65</v>
       </c>
@@ -2536,7 +2504,7 @@
       <c r="G46" s="3">
         <v>22</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="20">
         <f t="shared" ref="H46" si="22">SUM(I46,J47)/SUM(I46:J47)</f>
         <v>0.85</v>
       </c>
@@ -2546,7 +2514,7 @@
       <c r="J46" s="3">
         <v>4</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="20">
         <f t="shared" ref="K46" si="23">SUM(L46,M47)/SUM(L46:M47)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2556,7 +2524,7 @@
       <c r="M46" s="3">
         <v>2</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="20">
         <f t="shared" ref="N46" si="24">SUM(O46,P47)/SUM(O46:P47)</f>
         <v>0.96153846153846156</v>
       </c>
@@ -2568,7 +2536,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="23"/>
       <c r="C47" s="9">
         <v>6</v>
@@ -2576,28 +2544,28 @@
       <c r="D47" s="10">
         <v>34</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="4">
         <v>6</v>
       </c>
       <c r="G47" s="5">
         <v>34</v>
       </c>
-      <c r="H47" s="19"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="4">
         <v>8</v>
       </c>
       <c r="J47" s="5">
         <v>32</v>
       </c>
-      <c r="K47" s="19"/>
+      <c r="K47" s="21"/>
       <c r="L47" s="4">
         <v>3</v>
       </c>
       <c r="M47" s="5">
         <v>36</v>
       </c>
-      <c r="N47" s="19"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="4">
         <v>0</v>
       </c>
@@ -2606,10 +2574,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="20">
         <f t="shared" ref="B48" si="25">SUM(C48,D49)/SUM(C48:D49)</f>
         <v>0.85</v>
       </c>
@@ -2619,7 +2587,7 @@
       <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="20">
         <f t="shared" ref="E48" si="26">SUM(F48,G49)/SUM(F48:G49)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2629,7 +2597,7 @@
       <c r="G48" s="3">
         <v>22</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="20">
         <f t="shared" ref="H48" si="27">SUM(I48,J49)/SUM(I48:J49)</f>
         <v>0.875</v>
       </c>
@@ -2639,7 +2607,7 @@
       <c r="J48" s="3">
         <v>3</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="20">
         <f t="shared" ref="K48" si="28">SUM(L48,M49)/SUM(L48:M49)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -2649,7 +2617,7 @@
       <c r="M48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="20">
         <f t="shared" ref="N48" si="29">SUM(O48,P49)/SUM(O48:P49)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2660,37 +2628,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19"/>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="4">
         <v>7</v>
       </c>
       <c r="D49" s="5">
         <v>33</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="5">
         <v>34</v>
       </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="5">
         <v>33</v>
       </c>
-      <c r="K49" s="19"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="4">
         <v>5</v>
       </c>
       <c r="M49" s="5">
         <v>35</v>
       </c>
-      <c r="N49" s="19"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="4">
         <v>1</v>
       </c>
@@ -2698,59 +2666,59 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A51" s="24" t="s">
+    <row r="51" spans="1:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A51" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21" t="s">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21" t="s">
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21" t="s">
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21" t="s">
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="20">
         <f>SUM(C53,D54)/SUM(C53:D54)</f>
         <v>0.875</v>
       </c>
@@ -2770,7 +2738,7 @@
       <c r="G53" s="8">
         <v>10</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="20">
         <f>SUM(I53,J54)/SUM(I53:J54)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2790,16 +2758,20 @@
       <c r="M53" s="8">
         <v>3</v>
       </c>
-      <c r="N53" s="18" t="e">
+      <c r="N53" s="20">
         <f>SUM(O53,P54)/SUM(O53:P54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="19"/>
+        <v>0.93670886075949367</v>
+      </c>
+      <c r="O53" s="2">
+        <v>36</v>
+      </c>
+      <c r="P53" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="4">
         <v>8</v>
       </c>
@@ -2813,7 +2785,7 @@
       <c r="G54" s="10">
         <v>29</v>
       </c>
-      <c r="H54" s="19"/>
+      <c r="H54" s="21"/>
       <c r="I54" s="4">
         <v>9</v>
       </c>
@@ -2827,15 +2799,19 @@
       <c r="M54" s="10">
         <v>37</v>
       </c>
-      <c r="N54" s="19"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="N54" s="21"/>
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="20">
         <f>SUM(C55,D56)/SUM(C55:D56)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -2845,7 +2821,7 @@
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="20">
         <f>SUM(F55,G56)/SUM(F55:G56)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2855,7 +2831,7 @@
       <c r="G55" s="3">
         <v>11</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="20">
         <f>SUM(I55,J56)/SUM(I55:J56)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2865,7 +2841,7 @@
       <c r="J55" s="3">
         <v>3</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="20">
         <f>SUM(L55,M56)/SUM(L55:M56)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2875,49 +2851,58 @@
       <c r="M55" s="3">
         <v>4</v>
       </c>
-      <c r="N55" s="18" t="e">
+      <c r="N55" s="22">
         <f>SUM(O55,P56)/SUM(O55:P56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="19"/>
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="O55" s="7">
+        <v>37</v>
+      </c>
+      <c r="P55" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="32"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="4">
         <v>8</v>
       </c>
       <c r="D56" s="5">
         <v>32</v>
       </c>
-      <c r="E56" s="19"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="4">
         <v>10</v>
       </c>
       <c r="G56" s="5">
         <v>29</v>
       </c>
-      <c r="H56" s="19"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="4">
         <v>9</v>
       </c>
       <c r="J56" s="5">
         <v>31</v>
       </c>
-      <c r="K56" s="19"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="4">
         <v>3</v>
       </c>
       <c r="M56" s="5">
         <v>37</v>
       </c>
-      <c r="N56" s="19"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="5"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="N56" s="23"/>
+      <c r="O56" s="9">
+        <v>1</v>
+      </c>
+      <c r="P56" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="22">
@@ -2930,7 +2915,7 @@
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="20">
         <f>SUM(F57,G58)/SUM(F57:G58)</f>
         <v>0.7466666666666667</v>
       </c>
@@ -2940,7 +2925,7 @@
       <c r="G57" s="3">
         <v>10</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="20">
         <f>SUM(I57,J58)/SUM(I57:J58)</f>
         <v>0.83783783783783783</v>
       </c>
@@ -2950,7 +2935,7 @@
       <c r="J57" s="3">
         <v>4</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="20">
         <f>SUM(L57,M58)/SUM(L57:M58)</f>
         <v>0.93333333333333335</v>
       </c>
@@ -2960,15 +2945,19 @@
       <c r="M57" s="3">
         <v>3</v>
       </c>
-      <c r="N57" s="18" t="e">
+      <c r="N57" s="20">
         <f>SUM(O57,P58)/SUM(O57:P58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="O57" s="2">
+        <v>34</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19"/>
       <c r="B58" s="23"/>
       <c r="C58" s="9">
         <v>5</v>
@@ -2976,36 +2965,40 @@
       <c r="D58" s="10">
         <v>33</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="21"/>
       <c r="F58" s="4">
         <v>9</v>
       </c>
       <c r="G58" s="5">
         <v>28</v>
       </c>
-      <c r="H58" s="19"/>
+      <c r="H58" s="21"/>
       <c r="I58" s="4">
         <v>8</v>
       </c>
       <c r="J58" s="5">
         <v>30</v>
       </c>
-      <c r="K58" s="19"/>
+      <c r="K58" s="21"/>
       <c r="L58" s="4">
         <v>2</v>
       </c>
       <c r="M58" s="5">
         <v>36</v>
       </c>
-      <c r="N58" s="19"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="5"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="N58" s="21"/>
+      <c r="O58" s="4">
+        <v>2</v>
+      </c>
+      <c r="P58" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="20">
         <f>SUM(C59,D60)/SUM(C59:D60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3015,7 +3008,7 @@
       <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="20">
         <f>SUM(F59,G60)/SUM(F59:G60)</f>
         <v>0.73239436619718312</v>
       </c>
@@ -3025,7 +3018,7 @@
       <c r="G59" s="3">
         <v>9</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="20">
         <f>SUM(I59,J60)/SUM(I59:J60)</f>
         <v>0.87323943661971826</v>
       </c>
@@ -3035,7 +3028,7 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="20">
         <f>SUM(L59,M60)/SUM(L59:M60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3045,52 +3038,60 @@
       <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="N59" s="18" t="e">
+      <c r="N59" s="20">
         <f>SUM(O59,P60)/SUM(O59:P60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="19"/>
+        <v>0.95774647887323938</v>
+      </c>
+      <c r="O59" s="2">
+        <v>32</v>
+      </c>
+      <c r="P59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="4">
         <v>6</v>
       </c>
       <c r="D60" s="5">
         <v>31</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="4">
         <v>10</v>
       </c>
       <c r="G60" s="5">
         <v>26</v>
       </c>
-      <c r="H60" s="19"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="4">
         <v>8</v>
       </c>
       <c r="J60" s="5">
         <v>29</v>
       </c>
-      <c r="K60" s="19"/>
+      <c r="K60" s="21"/>
       <c r="L60" s="4">
         <v>4</v>
       </c>
       <c r="M60" s="5">
         <v>33</v>
       </c>
-      <c r="N60" s="19"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="5"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="N60" s="21"/>
+      <c r="O60" s="4">
+        <v>1</v>
+      </c>
+      <c r="P60" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="20">
         <f>SUM(C61,D62)/SUM(C61:D62)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -3100,7 +3101,7 @@
       <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="20">
         <f>SUM(F61,G62)/SUM(F61:G62)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -3110,7 +3111,7 @@
       <c r="G61" s="3">
         <v>10</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="20">
         <f>SUM(I61,J62)/SUM(I61:J62)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -3120,7 +3121,7 @@
       <c r="J61" s="3">
         <v>2</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K61" s="20">
         <f>SUM(L61,M62)/SUM(L61:M62)</f>
         <v>0.92307692307692313</v>
       </c>
@@ -3130,52 +3131,60 @@
       <c r="M61" s="3">
         <v>4</v>
       </c>
-      <c r="N61" s="18" t="e">
+      <c r="N61" s="20">
         <f>SUM(O61,P62)/SUM(O61:P62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="19"/>
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="O61" s="2">
+        <v>37</v>
+      </c>
+      <c r="P61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="4">
         <v>8</v>
       </c>
       <c r="D62" s="5">
         <v>32</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="4">
         <v>11</v>
       </c>
       <c r="G62" s="5">
         <v>28</v>
       </c>
-      <c r="H62" s="19"/>
+      <c r="H62" s="21"/>
       <c r="I62" s="4">
         <v>8</v>
       </c>
       <c r="J62" s="5">
         <v>32</v>
       </c>
-      <c r="K62" s="19"/>
+      <c r="K62" s="21"/>
       <c r="L62" s="4">
         <v>2</v>
       </c>
       <c r="M62" s="5">
         <v>37</v>
       </c>
-      <c r="N62" s="19"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="N62" s="21"/>
+      <c r="O62" s="4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="20">
         <f>SUM(C63,D64)/SUM(C63:D64)</f>
         <v>0.86842105263157898</v>
       </c>
@@ -3185,7 +3194,7 @@
       <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="20">
         <f>SUM(F63,G64)/SUM(F63:G64)</f>
         <v>0.72</v>
       </c>
@@ -3195,7 +3204,7 @@
       <c r="G63" s="3">
         <v>10</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="20">
         <f>SUM(I63,J64)/SUM(I63:J64)</f>
         <v>0.8783783783783784</v>
       </c>
@@ -3205,7 +3214,7 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="20">
         <f>SUM(L63,M64)/SUM(L63:M64)</f>
         <v>0.91891891891891897</v>
       </c>
@@ -3215,52 +3224,60 @@
       <c r="M63" s="3">
         <v>3</v>
       </c>
-      <c r="N63" s="18" t="e">
+      <c r="N63" s="20">
         <f>SUM(O63,P64)/SUM(O63:P64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="19"/>
+        <v>0.92</v>
+      </c>
+      <c r="O63" s="2">
+        <v>32</v>
+      </c>
+      <c r="P63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="4">
         <v>6</v>
       </c>
       <c r="D64" s="5">
         <v>33</v>
       </c>
-      <c r="E64" s="19"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="4">
         <v>11</v>
       </c>
       <c r="G64" s="5">
         <v>28</v>
       </c>
-      <c r="H64" s="19"/>
+      <c r="H64" s="21"/>
       <c r="I64" s="4">
         <v>8</v>
       </c>
       <c r="J64" s="5">
         <v>31</v>
       </c>
-      <c r="K64" s="19"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="4">
         <v>3</v>
       </c>
       <c r="M64" s="5">
         <v>36</v>
       </c>
-      <c r="N64" s="19"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="5"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="4">
+        <v>2</v>
+      </c>
+      <c r="P64" s="5">
+        <v>37</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="20">
         <f>SUM(C65,D66)/SUM(C65:D66)</f>
         <v>0.90140845070422537</v>
       </c>
@@ -3270,7 +3287,7 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="20">
         <f>SUM(F65,G66)/SUM(F65:G66)</f>
         <v>0.74647887323943662</v>
       </c>
@@ -3280,7 +3297,7 @@
       <c r="G65" s="3">
         <v>9</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="20">
         <f>SUM(I65,J66)/SUM(I65:J66)</f>
         <v>0.84722222222222221</v>
       </c>
@@ -3290,7 +3307,7 @@
       <c r="J65" s="3">
         <v>4</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K65" s="20">
         <f>SUM(L65,M66)/SUM(L65:M66)</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3300,52 +3317,60 @@
       <c r="M65" s="3">
         <v>3</v>
       </c>
-      <c r="N65" s="18" t="e">
+      <c r="N65" s="20">
         <f>SUM(O65,P66)/SUM(O65:P66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" s="3"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="O65" s="2">
+        <v>33</v>
+      </c>
+      <c r="P65" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="4">
         <v>5</v>
       </c>
       <c r="D66" s="5">
         <v>32</v>
       </c>
-      <c r="E66" s="19"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="4">
         <v>9</v>
       </c>
       <c r="G66" s="5">
         <v>27</v>
       </c>
-      <c r="H66" s="19"/>
+      <c r="H66" s="21"/>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="5">
         <v>31</v>
       </c>
-      <c r="K66" s="19"/>
+      <c r="K66" s="21"/>
       <c r="L66" s="4">
         <v>3</v>
       </c>
       <c r="M66" s="5">
         <v>35</v>
       </c>
-      <c r="N66" s="19"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="5"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="4">
+        <v>1</v>
+      </c>
+      <c r="P66" s="5">
+        <v>36</v>
+      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="20">
         <f>SUM(C67,D68)/SUM(C67:D68)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3355,7 +3380,7 @@
       <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="20">
         <f>SUM(F67,G68)/SUM(F67:G68)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3365,7 +3390,7 @@
       <c r="G67" s="3">
         <v>10</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="20">
         <f>SUM(I67,J68)/SUM(I67:J68)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3375,7 +3400,7 @@
       <c r="J67" s="3">
         <v>1</v>
       </c>
-      <c r="K67" s="18">
+      <c r="K67" s="20">
         <f>SUM(L67,M68)/SUM(L67:M68)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3385,52 +3410,60 @@
       <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="N67" s="18" t="e">
+      <c r="N67" s="20">
         <f>SUM(O67,P68)/SUM(O67:P68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="3"/>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="O67" s="2">
+        <v>30</v>
+      </c>
+      <c r="P67" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="4">
         <v>7</v>
       </c>
       <c r="D68" s="5">
         <v>31</v>
       </c>
-      <c r="E68" s="19"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="4">
         <v>10</v>
       </c>
       <c r="G68" s="5">
         <v>29</v>
       </c>
-      <c r="H68" s="19"/>
+      <c r="H68" s="21"/>
       <c r="I68" s="4">
         <v>7</v>
       </c>
       <c r="J68" s="5">
         <v>27</v>
       </c>
-      <c r="K68" s="19"/>
+      <c r="K68" s="21"/>
       <c r="L68" s="4">
         <v>3</v>
       </c>
       <c r="M68" s="5">
         <v>32</v>
       </c>
-      <c r="N68" s="19"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="5"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="4">
+        <v>1</v>
+      </c>
+      <c r="P68" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="20">
         <f>SUM(C69,D70)/SUM(C69:D70)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3440,7 +3473,7 @@
       <c r="D69" s="3">
         <v>4</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="20">
         <f>SUM(F69,G70)/SUM(F69:G70)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3450,7 +3483,7 @@
       <c r="G69" s="3">
         <v>10</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="20">
         <f>SUM(I69,J70)/SUM(I69:J70)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3460,7 +3493,7 @@
       <c r="J69" s="3">
         <v>1</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K69" s="20">
         <f>SUM(L69,M70)/SUM(L69:M70)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3470,52 +3503,60 @@
       <c r="M69" s="3">
         <v>2</v>
       </c>
-      <c r="N69" s="18" t="e">
+      <c r="N69" s="20">
         <f>SUM(O69,P70)/SUM(O69:P70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" s="3"/>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="O69" s="2">
+        <v>30</v>
+      </c>
+      <c r="P69" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="4">
         <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>31</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="4">
         <v>10</v>
       </c>
       <c r="G70" s="5">
         <v>29</v>
       </c>
-      <c r="H70" s="19"/>
+      <c r="H70" s="21"/>
       <c r="I70" s="4">
         <v>7</v>
       </c>
       <c r="J70" s="5">
         <v>27</v>
       </c>
-      <c r="K70" s="19"/>
+      <c r="K70" s="21"/>
       <c r="L70" s="4">
         <v>3</v>
       </c>
       <c r="M70" s="5">
         <v>32</v>
       </c>
-      <c r="N70" s="19"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="5"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="20">
         <f>SUM(C71,D72)/SUM(C71:D72)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3525,7 +3566,7 @@
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="20">
         <f>SUM(F71,G72)/SUM(F71:G72)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3545,7 +3586,7 @@
       <c r="J71" s="8">
         <v>1</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K71" s="20">
         <f>SUM(L71,M72)/SUM(L71:M72)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3555,23 +3596,27 @@
       <c r="M71" s="3">
         <v>2</v>
       </c>
-      <c r="N71" s="18" t="e">
+      <c r="N71" s="20">
         <f>SUM(O71,P72)/SUM(O71:P72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="3"/>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="O71" s="2">
+        <v>30</v>
+      </c>
+      <c r="P71" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="4">
         <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>31</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="21"/>
       <c r="F72" s="4">
         <v>10</v>
       </c>
@@ -3585,19 +3630,203 @@
       <c r="J72" s="10">
         <v>27</v>
       </c>
-      <c r="K72" s="19"/>
+      <c r="K72" s="21"/>
       <c r="L72" s="4">
         <v>3</v>
       </c>
       <c r="M72" s="5">
         <v>32</v>
       </c>
-      <c r="N72" s="19"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="5"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="5">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="N61:N62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
@@ -3622,186 +3851,6 @@
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3809,11 +3858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,58 +3873,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="31" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="29">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -3885,7 +3934,7 @@
       <c r="D3" s="13">
         <v>124</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="29">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -3895,7 +3944,7 @@
       <c r="G3" s="13">
         <v>534</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="29">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -3905,7 +3954,7 @@
       <c r="J3" s="13">
         <v>145</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="29">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -3915,7 +3964,7 @@
       <c r="M3" s="13">
         <v>127</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="29">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -3927,36 +3976,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="14">
         <v>36</v>
       </c>
       <c r="D4" s="15">
         <v>2440</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="14">
         <v>59</v>
       </c>
       <c r="G4" s="15">
         <v>163</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="14">
         <v>49</v>
       </c>
       <c r="J4" s="15">
         <v>2427</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="14">
         <v>26</v>
       </c>
       <c r="M4" s="15">
         <v>2450</v>
       </c>
-      <c r="N4" s="27"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="14">
         <v>37</v>
       </c>
@@ -3965,10 +4014,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="29">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.80449438202247192</v>
       </c>
@@ -3978,7 +4027,7 @@
       <c r="D5" s="13">
         <v>41</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="29">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.7191011235955056</v>
       </c>
@@ -3988,7 +4037,7 @@
       <c r="G5" s="13">
         <v>40</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="29">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.77303370786516856</v>
       </c>
@@ -3998,7 +4047,7 @@
       <c r="J5" s="13">
         <v>61</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="29">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.84943820224719102</v>
       </c>
@@ -4008,7 +4057,7 @@
       <c r="M5" s="13">
         <v>37</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="29">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.83595505617977528</v>
       </c>
@@ -4020,36 +4069,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="14">
         <v>46</v>
       </c>
       <c r="D6" s="15">
         <v>177</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="14">
         <v>85</v>
       </c>
       <c r="G6" s="15">
         <v>138</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="14">
         <v>40</v>
       </c>
       <c r="J6" s="15">
         <v>183</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="14">
         <v>30</v>
       </c>
       <c r="M6" s="15">
         <v>193</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="14">
         <v>37</v>
       </c>
@@ -4058,103 +4107,103 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <f>SUM(C7,D8)/SUM(C7:D8)</f>
         <v>0.97475257523732584</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>2358</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>118</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <f>SUM(F7,G8)/SUM(F7:G8)</f>
         <v>0.75398909311250251</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>1827</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <v>649</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <f>SUM(I7,J8)/SUM(I7:J8)</f>
         <v>0.91920824075944252</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="7">
         <v>2121</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="8">
         <v>355</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <f>SUM(L7,M8)/SUM(L7:M8)</f>
         <v>0.98121591597657043</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>2383</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>93</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="22">
         <f>SUM(O7,P8)/SUM(O7:P8)</f>
         <v>0.99353665926075541</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <v>2444</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="14">
+      <c r="A8" s="27"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>2468</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="14">
+      <c r="E8" s="23"/>
+      <c r="F8" s="9">
         <v>569</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="10">
         <v>1906</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="14">
+      <c r="H8" s="23"/>
+      <c r="I8" s="9">
         <v>45</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="10">
         <v>2430</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="14">
+      <c r="K8" s="23"/>
+      <c r="L8" s="9">
         <v>0</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="10">
         <v>2475</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="14">
+      <c r="N8" s="23"/>
+      <c r="O8" s="9">
         <v>0</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="10">
         <v>2475</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="29">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -4164,7 +4213,7 @@
       <c r="D9" s="13">
         <v>36</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="29">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -4174,7 +4223,7 @@
       <c r="G9" s="13">
         <v>534</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="29">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -4184,7 +4233,7 @@
       <c r="J9" s="13">
         <v>49</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="29">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -4194,46 +4243,54 @@
       <c r="M9" s="13">
         <v>26</v>
       </c>
-      <c r="N9" s="26" t="e">
+      <c r="N9" s="29">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
+        <v>0.94440326167531508</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2439</v>
+      </c>
+      <c r="P9" s="13">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="14">
         <v>124</v>
       </c>
       <c r="D10" s="15">
         <v>98</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="14">
         <v>59</v>
       </c>
       <c r="G10" s="15">
         <v>163</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="14">
         <v>145</v>
       </c>
       <c r="J10" s="15">
         <v>77</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="14">
         <v>127</v>
       </c>
       <c r="M10" s="15">
         <v>95</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="14">
+        <v>113</v>
+      </c>
+      <c r="P10" s="15">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -4254,58 +4311,58 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31" t="s">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="29">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.97515653403352853</v>
       </c>
@@ -4315,7 +4372,7 @@
       <c r="D14" s="13">
         <v>121</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="29">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.76126035144415272</v>
       </c>
@@ -4325,7 +4382,7 @@
       <c r="G14" s="13">
         <v>654</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="29">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.93334679862654013</v>
       </c>
@@ -4335,7 +4392,7 @@
       <c r="J14" s="13">
         <v>308</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="29">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.98182185417087453</v>
       </c>
@@ -4345,7 +4402,7 @@
       <c r="M14" s="13">
         <v>90</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="29">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.99474853564936372</v>
       </c>
@@ -4357,36 +4414,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="14">
         <v>2</v>
       </c>
       <c r="D15" s="15">
         <v>2473</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="14">
         <v>528</v>
       </c>
       <c r="G15" s="15">
         <v>1947</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="14">
         <v>22</v>
       </c>
       <c r="J15" s="15">
         <v>2453</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="15">
         <v>2475</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="14">
         <v>0</v>
       </c>
@@ -4395,10 +4452,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="29">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.70167642900424154</v>
       </c>
@@ -4408,7 +4465,7 @@
       <c r="D16" s="13">
         <v>365</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="29">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.68026661280549383</v>
       </c>
@@ -4418,7 +4475,7 @@
       <c r="G16" s="13">
         <v>385</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="29">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.69117350030296909</v>
       </c>
@@ -4428,7 +4485,7 @@
       <c r="J16" s="13">
         <v>258</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="29">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.70248434659664716</v>
       </c>
@@ -4438,7 +4495,7 @@
       <c r="M16" s="13">
         <v>301</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="29">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.70288830539284997</v>
       </c>
@@ -4450,36 +4507,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="14">
         <v>1112</v>
       </c>
       <c r="D17" s="15">
         <v>1363</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="14">
         <v>1198</v>
       </c>
       <c r="G17" s="15">
         <v>1277</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="14">
         <v>1271</v>
       </c>
       <c r="J17" s="15">
         <v>1204</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="14">
         <v>1172</v>
       </c>
       <c r="M17" s="15">
         <v>1303</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="14">
         <v>1168</v>
       </c>
@@ -4488,10 +4545,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="29">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.7604524338517471</v>
       </c>
@@ -4501,7 +4558,7 @@
       <c r="D18" s="13">
         <v>429</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="29">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.69238537669157751</v>
       </c>
@@ -4511,7 +4568,7 @@
       <c r="G18" s="13">
         <v>490</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="29">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.71056352252070287</v>
       </c>
@@ -4521,7 +4578,7 @@
       <c r="J18" s="13">
         <v>282</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="29">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.7402544940416077</v>
       </c>
@@ -4531,7 +4588,7 @@
       <c r="M18" s="13">
         <v>250</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="29">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.74288022621692584</v>
       </c>
@@ -4543,36 +4600,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="14">
         <v>757</v>
       </c>
       <c r="D19" s="15">
         <v>1718</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="14">
         <v>1033</v>
       </c>
       <c r="G19" s="15">
         <v>1442</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="14">
         <v>1151</v>
       </c>
       <c r="J19" s="15">
         <v>1324</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="14">
         <v>1036</v>
       </c>
       <c r="M19" s="15">
         <v>1439</v>
       </c>
-      <c r="N19" s="27"/>
+      <c r="N19" s="30"/>
       <c r="O19" s="14">
         <v>1046</v>
       </c>
@@ -4581,10 +4638,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="29">
         <f t="shared" ref="B20" si="0">SUM(C20,D21)/SUM(C20:D21)</f>
         <v>0.88567966067461124</v>
       </c>
@@ -4594,7 +4651,7 @@
       <c r="D20" s="13">
         <v>484</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="29">
         <f t="shared" ref="E20" si="1">SUM(F20,G21)/SUM(F20:G21)</f>
         <v>0.70773581094728333</v>
       </c>
@@ -4604,7 +4661,7 @@
       <c r="G20" s="13">
         <v>393</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="29">
         <f t="shared" ref="H20" si="2">SUM(I20,J21)/SUM(I20:J21)</f>
         <v>0.78670975560492828</v>
       </c>
@@ -4614,7 +4671,7 @@
       <c r="J20" s="13">
         <v>240</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="29">
         <f t="shared" ref="K20" si="3">SUM(L20,M21)/SUM(L20:M21)</f>
         <v>0.88729549585942236</v>
       </c>
@@ -4624,7 +4681,7 @@
       <c r="M20" s="13">
         <v>175</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="29">
         <f t="shared" ref="N20" si="4">SUM(O20,P21)/SUM(O20:P21)</f>
         <v>0.90224197131892547</v>
       </c>
@@ -4636,36 +4693,36 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="14">
         <v>82</v>
       </c>
       <c r="D21" s="15">
         <v>2393</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="14">
         <v>1054</v>
       </c>
       <c r="G21" s="15">
         <v>1421</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="14">
         <v>816</v>
       </c>
       <c r="J21" s="15">
         <v>1659</v>
       </c>
-      <c r="K21" s="27"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="14">
         <v>383</v>
       </c>
       <c r="M21" s="15">
         <v>2092</v>
       </c>
-      <c r="N21" s="27"/>
+      <c r="N21" s="30"/>
       <c r="O21" s="14">
         <v>321</v>
       </c>
@@ -4674,10 +4731,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="29">
         <f t="shared" ref="B22" si="5">SUM(C22,D23)/SUM(C22:D23)</f>
         <v>0.94001211876388613</v>
       </c>
@@ -4687,7 +4744,7 @@
       <c r="D22" s="13">
         <v>283</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="29">
         <f t="shared" ref="E22" si="6">SUM(F22,G23)/SUM(F22:G23)</f>
         <v>0.73156937992324778</v>
       </c>
@@ -4697,7 +4754,7 @@
       <c r="G22" s="13">
         <v>400</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="29">
         <f t="shared" ref="H22" si="7">SUM(I22,J23)/SUM(I22:J23)</f>
         <v>0.86265400929105229</v>
       </c>
@@ -4707,7 +4764,7 @@
       <c r="J22" s="13">
         <v>405</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="29">
         <f t="shared" ref="K22" si="8">SUM(L22,M23)/SUM(L22:M23)</f>
         <v>0.9654615229246617</v>
       </c>
@@ -4717,7 +4774,7 @@
       <c r="M22" s="13">
         <v>130</v>
       </c>
-      <c r="N22" s="26" t="e">
+      <c r="N22" s="29" t="e">
         <f t="shared" ref="N22" si="9">SUM(O22,P23)/SUM(O22:P23)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4725,54 +4782,54 @@
       <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="14">
         <v>14</v>
       </c>
       <c r="D23" s="15">
         <v>2461</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="14">
         <v>929</v>
       </c>
       <c r="G23" s="15">
         <v>1546</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="14">
         <v>275</v>
       </c>
       <c r="J23" s="15">
         <v>2200</v>
       </c>
-      <c r="K23" s="27"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="14">
         <v>41</v>
       </c>
       <c r="M23" s="15">
         <v>2434</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="14"/>
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <f t="shared" ref="B24" si="10">SUM(C24,D25)/SUM(C24:D25)</f>
         <v>0.96384568773985058</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="7">
         <v>2305</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="8">
         <v>171</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="29">
         <f t="shared" ref="E24" si="11">SUM(F24,G25)/SUM(F24:G25)</f>
         <v>0.73399313270046451</v>
       </c>
@@ -4782,7 +4839,7 @@
       <c r="G24" s="13">
         <v>485</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="29">
         <f t="shared" ref="H24" si="12">SUM(I24,J25)/SUM(I24:J25)</f>
         <v>0.88305392849929309</v>
       </c>
@@ -4792,7 +4849,7 @@
       <c r="J24" s="13">
         <v>424</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="29">
         <f t="shared" ref="K24" si="13">SUM(L24,M25)/SUM(L24:M25)</f>
         <v>0.97394465764492022</v>
       </c>
@@ -4802,7 +4859,7 @@
       <c r="M24" s="13">
         <v>102</v>
       </c>
-      <c r="N24" s="26" t="e">
+      <c r="N24" s="29" t="e">
         <f t="shared" ref="N24" si="14">SUM(O24,P25)/SUM(O24:P25)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4810,44 +4867,44 @@
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="14">
+      <c r="A25" s="27"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9">
         <v>8</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="10">
         <v>2467</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="14">
         <v>832</v>
       </c>
       <c r="G25" s="15">
         <v>1643</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="14">
         <v>155</v>
       </c>
       <c r="J25" s="15">
         <v>2320</v>
       </c>
-      <c r="K25" s="27"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="14">
         <v>27</v>
       </c>
       <c r="M25" s="15">
         <v>2448</v>
       </c>
-      <c r="N25" s="27"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="14"/>
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="29">
         <f t="shared" ref="B26" si="15">SUM(C26,D27)/SUM(C26:D27)</f>
         <v>0.96849121389618253</v>
       </c>
@@ -4857,37 +4914,37 @@
       <c r="D26" s="13">
         <v>151</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <f t="shared" ref="E26" si="16">SUM(F26,G27)/SUM(F26:G27)</f>
         <v>0.75035346394667746</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="7">
         <v>1860</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="8">
         <v>616</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="22">
         <f t="shared" ref="H26" si="17">SUM(I26,J27)/SUM(I26:J27)</f>
         <v>0.90708947687335895</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="7">
         <v>2109</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="8">
         <v>367</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="22">
         <f t="shared" ref="K26" si="18">SUM(L26,M27)/SUM(L26:M27)</f>
         <v>0.98141789537467183</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="7">
         <v>2386</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="8">
         <v>90</v>
       </c>
-      <c r="N26" s="26" t="e">
+      <c r="N26" s="29" t="e">
         <f t="shared" ref="N26" si="19">SUM(O26,P27)/SUM(O26:P27)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4895,36 +4952,36 @@
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="14">
         <v>5</v>
       </c>
       <c r="D27" s="15">
         <v>2470</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="14">
+      <c r="E27" s="23"/>
+      <c r="F27" s="9">
         <v>620</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="10">
         <v>1855</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="14">
+      <c r="H27" s="23"/>
+      <c r="I27" s="9">
         <v>93</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="10">
         <v>2382</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="14">
+      <c r="K27" s="23"/>
+      <c r="L27" s="9">
         <v>2</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="10">
         <v>2473</v>
       </c>
-      <c r="N27" s="27"/>
+      <c r="N27" s="30"/>
       <c r="O27" s="14"/>
       <c r="P27" s="15"/>
     </row>
@@ -4947,82 +5004,82 @@
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="31" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31" t="s">
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31" t="s">
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="26" t="e">
+      <c r="B31" s="29" t="e">
         <f>SUM(C31,D32)/SUM(C31:D32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="26" t="e">
+      <c r="E31" s="29" t="e">
         <f>SUM(F31,G32)/SUM(F31:G32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="26" t="e">
+      <c r="H31" s="29" t="e">
         <f>SUM(I31,J32)/SUM(I31:J32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="26" t="e">
+      <c r="K31" s="29" t="e">
         <f>SUM(L31,M32)/SUM(L31:M32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="26" t="e">
+      <c r="N31" s="29" t="e">
         <f>SUM(O31,P32)/SUM(O31:P32)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5030,52 +5087,52 @@
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="27"/>
+      <c r="K32" s="30"/>
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="27"/>
+      <c r="N32" s="30"/>
       <c r="O32" s="14"/>
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="26" t="e">
+      <c r="B33" s="29" t="e">
         <f>SUM(C33,D34)/SUM(C33:D34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="26" t="e">
+      <c r="E33" s="29" t="e">
         <f>SUM(F33,G34)/SUM(F33:G34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="26" t="e">
+      <c r="H33" s="29" t="e">
         <f>SUM(I33,J34)/SUM(I33:J34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="26" t="e">
+      <c r="K33" s="29" t="e">
         <f>SUM(L33,M34)/SUM(L33:M34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="26" t="e">
+      <c r="N33" s="29" t="e">
         <f>SUM(O33,P34)/SUM(O33:P34)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5083,52 +5140,52 @@
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="27"/>
+      <c r="K34" s="30"/>
       <c r="L34" s="14"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="27"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="14"/>
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26" t="e">
+      <c r="B35" s="29" t="e">
         <f>SUM(C35,D36)/SUM(C35:D36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="26" t="e">
+      <c r="E35" s="29" t="e">
         <f>SUM(F35,G36)/SUM(F35:G36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="26" t="e">
+      <c r="H35" s="29" t="e">
         <f>SUM(I35,J36)/SUM(I35:J36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="26" t="e">
+      <c r="K35" s="29" t="e">
         <f>SUM(L35,M36)/SUM(L35:M36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="26" t="e">
+      <c r="N35" s="29" t="e">
         <f>SUM(O35,P36)/SUM(O35:P36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5136,52 +5193,52 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="27"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="27"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="14"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="27"/>
+      <c r="N36" s="30"/>
       <c r="O36" s="14"/>
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="26" t="e">
+      <c r="B37" s="29" t="e">
         <f>SUM(C37,D38)/SUM(C37:D38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="26" t="e">
+      <c r="E37" s="29" t="e">
         <f>SUM(F37,G38)/SUM(F37:G38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="26" t="e">
+      <c r="H37" s="29" t="e">
         <f>SUM(I37,J38)/SUM(I37:J38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="26" t="e">
+      <c r="K37" s="29" t="e">
         <f>SUM(L37,M38)/SUM(L37:M38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="12"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="26" t="e">
+      <c r="N37" s="29" t="e">
         <f>SUM(O37,P38)/SUM(O37:P38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5189,52 +5246,52 @@
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="27"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="27"/>
+      <c r="K38" s="30"/>
       <c r="L38" s="14"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="14"/>
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="26" t="e">
+      <c r="B39" s="29" t="e">
         <f>SUM(C39,D40)/SUM(C39:D40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="26" t="e">
+      <c r="E39" s="29" t="e">
         <f>SUM(F39,G40)/SUM(F39:G40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="26" t="e">
+      <c r="H39" s="29" t="e">
         <f>SUM(I39,J40)/SUM(I39:J40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="26" t="e">
+      <c r="K39" s="29" t="e">
         <f>SUM(L39,M40)/SUM(L39:M40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="13"/>
-      <c r="N39" s="26" t="e">
+      <c r="N39" s="29" t="e">
         <f>SUM(O39,P40)/SUM(O39:P40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5242,52 +5299,52 @@
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="27"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="27"/>
+      <c r="K40" s="30"/>
       <c r="L40" s="14"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="14"/>
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="26" t="e">
+      <c r="B41" s="29" t="e">
         <f>SUM(C41,D42)/SUM(C41:D42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="26" t="e">
+      <c r="E41" s="29" t="e">
         <f>SUM(F41,G42)/SUM(F41:G42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="26" t="e">
+      <c r="H41" s="29" t="e">
         <f>SUM(I41,J42)/SUM(I41:J42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="26" t="e">
+      <c r="K41" s="29" t="e">
         <f>SUM(L41,M42)/SUM(L41:M42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="26" t="e">
+      <c r="N41" s="29" t="e">
         <f>SUM(O41,P42)/SUM(O41:P42)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5295,52 +5352,52 @@
       <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="27"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="27"/>
+      <c r="K42" s="30"/>
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="27"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="14"/>
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="26" t="e">
+      <c r="B43" s="29" t="e">
         <f>SUM(C43,D44)/SUM(C43:D44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="26" t="e">
+      <c r="E43" s="29" t="e">
         <f>SUM(F43,G44)/SUM(F43:G44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="26" t="e">
+      <c r="H43" s="29" t="e">
         <f>SUM(I43,J44)/SUM(I43:J44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="26" t="e">
+      <c r="K43" s="29" t="e">
         <f>SUM(L43,M44)/SUM(L43:M44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="26" t="e">
+      <c r="N43" s="29" t="e">
         <f>SUM(O43,P44)/SUM(O43:P44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5348,52 +5405,52 @@
       <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="27"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="27"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="27"/>
+      <c r="K44" s="30"/>
       <c r="L44" s="14"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="27"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="14"/>
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="26" t="e">
+      <c r="B45" s="29" t="e">
         <f>SUM(C45,D46)/SUM(C45:D46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="26" t="e">
+      <c r="E45" s="29" t="e">
         <f>SUM(F45,G46)/SUM(F45:G46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="26" t="e">
+      <c r="H45" s="29" t="e">
         <f>SUM(I45,J46)/SUM(I45:J46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="26" t="e">
+      <c r="K45" s="29" t="e">
         <f>SUM(L45,M46)/SUM(L45:M46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="26" t="e">
+      <c r="N45" s="29" t="e">
         <f>SUM(O45,P46)/SUM(O45:P46)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5401,52 +5458,52 @@
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="27"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="27"/>
+      <c r="K46" s="30"/>
       <c r="L46" s="14"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="27"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="14"/>
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="26" t="e">
+      <c r="B47" s="29" t="e">
         <f>SUM(C47,D48)/SUM(C47:D48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="26" t="e">
+      <c r="E47" s="29" t="e">
         <f>SUM(F47,G48)/SUM(F47:G48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="26" t="e">
+      <c r="H47" s="29" t="e">
         <f>SUM(I47,J48)/SUM(I47:J48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="26" t="e">
+      <c r="K47" s="29" t="e">
         <f>SUM(L47,M48)/SUM(L47:M48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="26" t="e">
+      <c r="N47" s="29" t="e">
         <f>SUM(O47,P48)/SUM(O47:P48)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5454,52 +5511,52 @@
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="27"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="27"/>
+      <c r="K48" s="30"/>
       <c r="L48" s="14"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="27"/>
+      <c r="N48" s="30"/>
       <c r="O48" s="14"/>
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="26" t="e">
+      <c r="B49" s="29" t="e">
         <f>SUM(C49,D50)/SUM(C49:D50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="26" t="e">
+      <c r="E49" s="29" t="e">
         <f>SUM(F49,G50)/SUM(F49:G50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="26" t="e">
+      <c r="H49" s="29" t="e">
         <f>SUM(I49,J50)/SUM(I49:J50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="26" t="e">
+      <c r="K49" s="29" t="e">
         <f>SUM(L49,M50)/SUM(L49:M50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="26" t="e">
+      <c r="N49" s="29" t="e">
         <f>SUM(O49,P50)/SUM(O49:P50)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5507,37 +5564,139 @@
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="27"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="27"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="27"/>
+      <c r="K50" s="30"/>
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="14"/>
       <c r="P50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="K9:K10"/>
@@ -5556,120 +5715,18 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output Summary.xlsx
+++ b/Output Summary.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391A5D0-72B4-4EC9-BB24-6AF3442383B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="18585" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heart" sheetId="5" r:id="rId1"/>
     <sheet name="Toxic" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -329,10 +330,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -341,25 +339,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,10 +363,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,6 +468,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -502,6 +520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,7 +712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -690,58 +725,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -751,7 +786,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -761,7 +796,7 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -771,7 +806,7 @@
       <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -781,7 +816,7 @@
       <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.82456140350877194</v>
       </c>
@@ -793,36 +828,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4">
         <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="4">
         <v>7</v>
       </c>
       <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4" s="21"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="4">
         <v>8</v>
       </c>
       <c r="M4" s="5">
         <v>11</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="4">
         <v>8</v>
       </c>
@@ -831,10 +866,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.57894736842105265</v>
       </c>
@@ -844,7 +879,7 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.64864864864864868</v>
       </c>
@@ -854,7 +889,7 @@
       <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.72972972972972971</v>
       </c>
@@ -864,7 +899,7 @@
       <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -874,7 +909,7 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -886,36 +921,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4">
         <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>9</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="5">
         <v>13</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="5">
         <v>15</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="4">
         <v>4</v>
       </c>
@@ -924,10 +959,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="23">
         <f>SUM(C7,D8)/SUM(C7:D8)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -937,7 +972,7 @@
       <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="23">
         <f>SUM(F7,G8)/SUM(F7:G8)</f>
         <v>0.7</v>
       </c>
@@ -947,7 +982,7 @@
       <c r="G7" s="8">
         <v>17</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <f>SUM(I7,J8)/SUM(I7:J8)</f>
         <v>0.875</v>
       </c>
@@ -957,7 +992,7 @@
       <c r="J7" s="8">
         <v>3</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="23">
         <f>SUM(L7,M8)/SUM(L7:M8)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -967,7 +1002,7 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="23">
         <f>SUM(O7,P8)/SUM(O7:P8)</f>
         <v>0.95</v>
       </c>
@@ -979,36 +1014,36 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>10</v>
       </c>
       <c r="D8" s="10">
         <v>30</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="9">
         <v>7</v>
       </c>
       <c r="G8" s="10">
         <v>33</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="9">
         <v>7</v>
       </c>
       <c r="J8" s="10">
         <v>33</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="9">
         <v>4</v>
       </c>
       <c r="M8" s="10">
         <v>36</v>
       </c>
-      <c r="N8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="9">
         <v>2</v>
       </c>
@@ -1017,10 +1052,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -1030,7 +1065,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -1040,7 +1075,7 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -1050,7 +1085,7 @@
       <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1060,7 +1095,7 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1072,36 +1107,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4">
         <v>17</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="4">
         <v>14</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="4">
         <v>9</v>
       </c>
       <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="4">
         <v>9</v>
       </c>
@@ -1110,58 +1145,58 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.8</v>
       </c>
@@ -1171,7 +1206,7 @@
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.7</v>
       </c>
@@ -1181,7 +1216,7 @@
       <c r="G14" s="8">
         <v>17</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1191,7 +1226,7 @@
       <c r="J14" s="8">
         <v>3</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="23">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1201,7 +1236,7 @@
       <c r="M14" s="8">
         <v>3</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="23">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1213,36 +1248,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
       <c r="D15" s="5">
         <v>29</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9">
         <v>7</v>
       </c>
       <c r="G15" s="10">
         <v>33</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="9">
         <v>8</v>
       </c>
       <c r="J15" s="10">
         <v>31</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="9">
         <v>4</v>
       </c>
       <c r="M15" s="10">
         <v>36</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="9">
         <v>2</v>
       </c>
@@ -1251,10 +1286,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1264,7 +1299,7 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.65</v>
       </c>
@@ -1274,7 +1309,7 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1284,7 +1319,7 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1294,7 +1329,7 @@
       <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.9375</v>
       </c>
@@ -1306,36 +1341,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="4">
         <v>6</v>
       </c>
       <c r="G17" s="5">
         <v>34</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="4">
         <v>8</v>
       </c>
       <c r="J17" s="5">
         <v>31</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="4">
         <v>5</v>
       </c>
       <c r="M17" s="5">
         <v>35</v>
       </c>
-      <c r="N17" s="21"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="4">
         <v>2</v>
       </c>
@@ -1344,10 +1379,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="23">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1357,7 +1392,7 @@
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.63414634146341464</v>
       </c>
@@ -1367,7 +1402,7 @@
       <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1377,7 +1412,7 @@
       <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -1387,7 +1422,7 @@
       <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.9375</v>
       </c>
@@ -1399,36 +1434,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="9">
         <v>8</v>
       </c>
       <c r="D19" s="10">
         <v>32</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>34</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4">
         <v>8</v>
       </c>
       <c r="J19" s="5">
         <v>31</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="4">
         <v>4</v>
       </c>
       <c r="M19" s="5">
         <v>36</v>
       </c>
-      <c r="N19" s="21"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="4">
         <v>2</v>
       </c>
@@ -1437,58 +1472,58 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="25" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25" t="s">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25" t="s">
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <f>SUM(C23,D24)/SUM(C23:D24)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -1498,7 +1533,7 @@
       <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <f>SUM(F23,G24)/SUM(F23:G24)</f>
         <v>0.65</v>
       </c>
@@ -1508,7 +1543,7 @@
       <c r="G23" s="3">
         <v>23</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f>SUM(I23,J24)/SUM(I23:J24)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1518,7 +1553,7 @@
       <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f>SUM(L23,M24)/SUM(L23:M24)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1528,7 +1563,7 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <f>SUM(O23,P24)/SUM(O23:P24)</f>
         <v>0.95</v>
       </c>
@@ -1540,36 +1575,36 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4">
         <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>33</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>35</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="5">
         <v>33</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="4">
         <v>4</v>
       </c>
       <c r="M24" s="5">
         <v>36</v>
       </c>
-      <c r="N24" s="21"/>
+      <c r="N24" s="20"/>
       <c r="O24" s="4">
         <v>2</v>
       </c>
@@ -1578,10 +1613,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="23">
         <f>SUM(C25,D26)/SUM(C25:D26)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1591,7 +1626,7 @@
       <c r="D25" s="8">
         <v>4</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="23">
         <f>SUM(F25,G26)/SUM(F25:G26)</f>
         <v>0.68354430379746833</v>
       </c>
@@ -1601,7 +1636,7 @@
       <c r="G25" s="8">
         <v>19</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <f>SUM(I25,J26)/SUM(I25:J26)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1611,7 +1646,7 @@
       <c r="J25" s="8">
         <v>2</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="23">
         <f>SUM(L25,M26)/SUM(L25:M26)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1621,7 +1656,7 @@
       <c r="M25" s="8">
         <v>1</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="23">
         <f>SUM(O25,P26)/SUM(O25:P26)</f>
         <v>0.95</v>
       </c>
@@ -1633,36 +1668,36 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="9">
         <v>7</v>
       </c>
       <c r="D26" s="10">
         <v>33</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9">
         <v>6</v>
       </c>
       <c r="G26" s="10">
         <v>33</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="9">
         <v>7</v>
       </c>
       <c r="J26" s="10">
         <v>33</v>
       </c>
-      <c r="K26" s="23"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="9">
         <v>4</v>
       </c>
       <c r="M26" s="10">
         <v>36</v>
       </c>
-      <c r="N26" s="23"/>
+      <c r="N26" s="24"/>
       <c r="O26" s="9">
         <v>1</v>
       </c>
@@ -1689,58 +1724,58 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="25" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <f>SUM(C30,D31)/SUM(C30:D31)</f>
         <v>0.83544303797468356</v>
       </c>
@@ -1750,7 +1785,7 @@
       <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <f>SUM(F30,G31)/SUM(F30:G31)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -1760,7 +1795,7 @@
       <c r="G30" s="3">
         <v>21</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <f>SUM(I30,J31)/SUM(I30:J31)</f>
         <v>0.875</v>
       </c>
@@ -1770,7 +1805,7 @@
       <c r="J30" s="3">
         <v>3</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <f>SUM(L30,M31)/SUM(L30:M31)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1780,7 +1815,7 @@
       <c r="M30" s="3">
         <v>2</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="19">
         <f>SUM(O30,P31)/SUM(O30:P31)</f>
         <v>0.95</v>
       </c>
@@ -1792,36 +1827,36 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="4">
         <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>31</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
       <c r="G31" s="5">
         <v>34</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="4">
         <v>7</v>
       </c>
       <c r="J31" s="5">
         <v>33</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="20"/>
       <c r="L31" s="4">
         <v>3</v>
       </c>
       <c r="M31" s="5">
         <v>37</v>
       </c>
-      <c r="N31" s="21"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="4">
         <v>0</v>
       </c>
@@ -1830,10 +1865,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <f>SUM(C32,D33)/SUM(C32:D33)</f>
         <v>0.85</v>
       </c>
@@ -1843,7 +1878,7 @@
       <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="23">
         <f>SUM(F32,G33)/SUM(F32:G33)</f>
         <v>0.73750000000000004</v>
       </c>
@@ -1853,7 +1888,7 @@
       <c r="G32" s="8">
         <v>10</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <f>SUM(I32,J33)/SUM(I32:J33)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1863,7 +1898,7 @@
       <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <f>SUM(L32,M33)/SUM(L32:M33)</f>
         <v>0.9</v>
       </c>
@@ -1873,7 +1908,7 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="19">
         <f>SUM(O32,P33)/SUM(O32:P33)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1885,36 +1920,36 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="9">
         <v>11</v>
       </c>
       <c r="G33" s="10">
         <v>29</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="4">
         <v>8</v>
       </c>
       <c r="J33" s="5">
         <v>32</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="4">
         <v>5</v>
       </c>
       <c r="M33" s="5">
         <v>35</v>
       </c>
-      <c r="N33" s="21"/>
+      <c r="N33" s="20"/>
       <c r="O33" s="4">
         <v>1</v>
       </c>
@@ -1923,10 +1958,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <f>SUM(C34,D35)/SUM(C34:D35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1936,7 +1971,7 @@
       <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <f>SUM(F34,G35)/SUM(F34:G35)</f>
         <v>0.5</v>
       </c>
@@ -1946,7 +1981,7 @@
       <c r="G34" s="3">
         <v>36</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="19">
         <f>SUM(I34,J35)/SUM(I34:J35)</f>
         <v>0.79746835443037978</v>
       </c>
@@ -1956,7 +1991,7 @@
       <c r="J34" s="3">
         <v>4</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="19">
         <f>SUM(L34,M35)/SUM(L34:M35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1966,7 +2001,7 @@
       <c r="M34" s="3">
         <v>4</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="19">
         <f>SUM(O34,P35)/SUM(O34:P35)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1978,36 +2013,36 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4">
         <v>11</v>
       </c>
       <c r="D35" s="5">
         <v>28</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="4">
         <v>4</v>
       </c>
       <c r="G35" s="5">
         <v>36</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="5">
         <v>27</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="20"/>
       <c r="L35" s="4">
         <v>11</v>
       </c>
       <c r="M35" s="5">
         <v>29</v>
       </c>
-      <c r="N35" s="21"/>
+      <c r="N35" s="20"/>
       <c r="O35" s="4">
         <v>6</v>
       </c>
@@ -2016,10 +2051,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <f>SUM(C36,D37)/SUM(C36:D37)</f>
         <v>0.82499999999999996</v>
       </c>
@@ -2029,7 +2064,7 @@
       <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <f>SUM(F36,G37)/SUM(F36:G37)</f>
         <v>0.63291139240506333</v>
       </c>
@@ -2039,7 +2074,7 @@
       <c r="G36" s="3">
         <v>25</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <f>SUM(I36,J37)/SUM(I36:J37)</f>
         <v>0.85</v>
       </c>
@@ -2049,7 +2084,7 @@
       <c r="J36" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <f>SUM(L36,M37)/SUM(L36:M37)</f>
         <v>0.88607594936708856</v>
       </c>
@@ -2059,7 +2094,7 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="19">
         <f>SUM(O36,P37)/SUM(O36:P37)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2071,36 +2106,36 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4">
         <v>9</v>
       </c>
       <c r="D37" s="5">
         <v>31</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="4">
         <v>4</v>
       </c>
       <c r="G37" s="5">
         <v>35</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="4">
         <v>8</v>
       </c>
       <c r="J37" s="5">
         <v>32</v>
       </c>
-      <c r="K37" s="21"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="4">
         <v>6</v>
       </c>
       <c r="M37" s="5">
         <v>33</v>
       </c>
-      <c r="N37" s="21"/>
+      <c r="N37" s="20"/>
       <c r="O37" s="4">
         <v>4</v>
       </c>
@@ -2109,10 +2144,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <f t="shared" ref="B38" si="0">SUM(C38,D39)/SUM(C38:D39)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2122,7 +2157,7 @@
       <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <f t="shared" ref="E38" si="1">SUM(F38,G39)/SUM(F38:G39)</f>
         <v>0.60759493670886078</v>
       </c>
@@ -2132,7 +2167,7 @@
       <c r="G38" s="3">
         <v>27</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="19">
         <f t="shared" ref="H38" si="2">SUM(I38,J39)/SUM(I38:J39)</f>
         <v>0.875</v>
       </c>
@@ -2142,7 +2177,7 @@
       <c r="J38" s="3">
         <v>3</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="19">
         <f t="shared" ref="K38" si="3">SUM(L38,M39)/SUM(L38:M39)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2152,7 +2187,7 @@
       <c r="M38" s="3">
         <v>2</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="23">
         <f t="shared" ref="N38" si="4">SUM(O38,P39)/SUM(O38:P39)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2164,36 +2199,36 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4">
         <v>13</v>
       </c>
       <c r="D39" s="5">
         <v>27</v>
       </c>
-      <c r="E39" s="21"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="4">
         <v>4</v>
       </c>
       <c r="G39" s="5">
         <v>35</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="4">
         <v>7</v>
       </c>
       <c r="J39" s="5">
         <v>33</v>
       </c>
-      <c r="K39" s="21"/>
+      <c r="K39" s="20"/>
       <c r="L39" s="4">
         <v>4</v>
       </c>
       <c r="M39" s="5">
         <v>36</v>
       </c>
-      <c r="N39" s="23"/>
+      <c r="N39" s="24"/>
       <c r="O39" s="9">
         <v>2</v>
       </c>
@@ -2202,10 +2237,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <f t="shared" ref="B40" si="5">SUM(C40,D41)/SUM(C40:D41)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2215,7 +2250,7 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <f t="shared" ref="E40" si="6">SUM(F40,G41)/SUM(F40:G41)</f>
         <v>0.67088607594936711</v>
       </c>
@@ -2225,7 +2260,7 @@
       <c r="G40" s="3">
         <v>21</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <f t="shared" ref="H40" si="7">SUM(I40,J41)/SUM(I40:J41)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2235,7 +2270,7 @@
       <c r="J40" s="3">
         <v>3</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="23">
         <f t="shared" ref="K40" si="8">SUM(L40,M41)/SUM(L40:M41)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2245,7 +2280,7 @@
       <c r="M40" s="8">
         <v>1</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="19">
         <f t="shared" ref="N40" si="9">SUM(O40,P41)/SUM(O40:P41)</f>
         <v>0.95</v>
       </c>
@@ -2257,36 +2292,36 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="4">
         <v>12</v>
       </c>
       <c r="D41" s="5">
         <v>28</v>
       </c>
-      <c r="E41" s="21"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="4">
         <v>5</v>
       </c>
       <c r="G41" s="5">
         <v>35</v>
       </c>
-      <c r="H41" s="21"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="4">
         <v>8</v>
       </c>
       <c r="J41" s="5">
         <v>32</v>
       </c>
-      <c r="K41" s="23"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="9">
         <v>4</v>
       </c>
       <c r="M41" s="10">
         <v>35</v>
       </c>
-      <c r="N41" s="21"/>
+      <c r="N41" s="20"/>
       <c r="O41" s="4">
         <v>1</v>
       </c>
@@ -2295,10 +2330,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <f t="shared" ref="B42" si="10">SUM(C42,D43)/SUM(C42:D43)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2308,7 +2343,7 @@
       <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <f t="shared" ref="E42" si="11">SUM(F42,G43)/SUM(F42:G43)</f>
         <v>0.65</v>
       </c>
@@ -2318,7 +2353,7 @@
       <c r="G42" s="3">
         <v>22</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="23">
         <f t="shared" ref="H42" si="12">SUM(I42,J43)/SUM(I42:J43)</f>
         <v>0.875</v>
       </c>
@@ -2328,7 +2363,7 @@
       <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="19">
         <f t="shared" ref="K42" si="13">SUM(L42,M43)/SUM(L42:M43)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2338,7 +2373,7 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="19">
         <f t="shared" ref="N42" si="14">SUM(O42,P43)/SUM(O42:P43)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2350,36 +2385,36 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4">
         <v>7</v>
       </c>
       <c r="D43" s="5">
         <v>33</v>
       </c>
-      <c r="E43" s="21"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="4">
         <v>6</v>
       </c>
       <c r="G43" s="5">
         <v>34</v>
       </c>
-      <c r="H43" s="23"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="9">
         <v>8</v>
       </c>
       <c r="J43" s="10">
         <v>32</v>
       </c>
-      <c r="K43" s="21"/>
+      <c r="K43" s="20"/>
       <c r="L43" s="4">
         <v>5</v>
       </c>
       <c r="M43" s="5">
         <v>35</v>
       </c>
-      <c r="N43" s="21"/>
+      <c r="N43" s="20"/>
       <c r="O43" s="4">
         <v>0</v>
       </c>
@@ -2388,10 +2423,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <f t="shared" ref="B44" si="15">SUM(C44,D45)/SUM(C44:D45)</f>
         <v>0.85897435897435892</v>
       </c>
@@ -2401,7 +2436,7 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <f t="shared" ref="E44" si="16">SUM(F44,G45)/SUM(F44:G45)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2411,7 +2446,7 @@
       <c r="G44" s="3">
         <v>22</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <f t="shared" ref="H44" si="17">SUM(I44,J45)/SUM(I44:J45)</f>
         <v>0.875</v>
       </c>
@@ -2421,7 +2456,7 @@
       <c r="J44" s="3">
         <v>3</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <f t="shared" ref="K44" si="18">SUM(L44,M45)/SUM(L44:M45)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2431,7 +2466,7 @@
       <c r="M44" s="3">
         <v>2</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N44" s="19">
         <f t="shared" ref="N44" si="19">SUM(O44,P45)/SUM(O44:P45)</f>
         <v>0.95</v>
       </c>
@@ -2443,36 +2478,36 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4">
         <v>7</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="4">
         <v>5</v>
       </c>
       <c r="G45" s="5">
         <v>34</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="4">
         <v>7</v>
       </c>
       <c r="J45" s="5">
         <v>33</v>
       </c>
-      <c r="K45" s="21"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="4">
         <v>4</v>
       </c>
       <c r="M45" s="5">
         <v>36</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="20"/>
       <c r="O45" s="4">
         <v>1</v>
       </c>
@@ -2481,10 +2516,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="23">
         <f t="shared" ref="B46" si="20">SUM(C46,D47)/SUM(C46:D47)</f>
         <v>0.875</v>
       </c>
@@ -2494,7 +2529,7 @@
       <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <f t="shared" ref="E46" si="21">SUM(F46,G47)/SUM(F46:G47)</f>
         <v>0.65</v>
       </c>
@@ -2504,7 +2539,7 @@
       <c r="G46" s="3">
         <v>22</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <f t="shared" ref="H46" si="22">SUM(I46,J47)/SUM(I46:J47)</f>
         <v>0.85</v>
       </c>
@@ -2514,7 +2549,7 @@
       <c r="J46" s="3">
         <v>4</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="19">
         <f t="shared" ref="K46" si="23">SUM(L46,M47)/SUM(L46:M47)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2524,7 +2559,7 @@
       <c r="M46" s="3">
         <v>2</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="19">
         <f t="shared" ref="N46" si="24">SUM(O46,P47)/SUM(O46:P47)</f>
         <v>0.96153846153846156</v>
       </c>
@@ -2536,36 +2571,36 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="9">
         <v>6</v>
       </c>
       <c r="D47" s="10">
         <v>34</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="4">
         <v>6</v>
       </c>
       <c r="G47" s="5">
         <v>34</v>
       </c>
-      <c r="H47" s="21"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="4">
         <v>8</v>
       </c>
       <c r="J47" s="5">
         <v>32</v>
       </c>
-      <c r="K47" s="21"/>
+      <c r="K47" s="20"/>
       <c r="L47" s="4">
         <v>3</v>
       </c>
       <c r="M47" s="5">
         <v>36</v>
       </c>
-      <c r="N47" s="21"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="4">
         <v>0</v>
       </c>
@@ -2574,10 +2609,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <f t="shared" ref="B48" si="25">SUM(C48,D49)/SUM(C48:D49)</f>
         <v>0.85</v>
       </c>
@@ -2587,7 +2622,7 @@
       <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <f t="shared" ref="E48" si="26">SUM(F48,G49)/SUM(F48:G49)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2597,7 +2632,7 @@
       <c r="G48" s="3">
         <v>22</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="19">
         <f t="shared" ref="H48" si="27">SUM(I48,J49)/SUM(I48:J49)</f>
         <v>0.875</v>
       </c>
@@ -2607,7 +2642,7 @@
       <c r="J48" s="3">
         <v>3</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <f t="shared" ref="K48" si="28">SUM(L48,M49)/SUM(L48:M49)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -2617,7 +2652,7 @@
       <c r="M48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="19">
         <f t="shared" ref="N48" si="29">SUM(O48,P49)/SUM(O48:P49)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2629,36 +2664,36 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="4">
         <v>7</v>
       </c>
       <c r="D49" s="5">
         <v>33</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="5">
         <v>34</v>
       </c>
-      <c r="H49" s="21"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="5">
         <v>33</v>
       </c>
-      <c r="K49" s="21"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="4">
         <v>5</v>
       </c>
       <c r="M49" s="5">
         <v>35</v>
       </c>
-      <c r="N49" s="21"/>
+      <c r="N49" s="20"/>
       <c r="O49" s="4">
         <v>1</v>
       </c>
@@ -2667,58 +2702,58 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="25" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25" t="s">
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25" t="s">
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <f>SUM(C53,D54)/SUM(C53:D54)</f>
         <v>0.875</v>
       </c>
@@ -2728,7 +2763,7 @@
       <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="23">
         <f>SUM(F53,G54)/SUM(F53:G54)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2738,7 +2773,7 @@
       <c r="G53" s="8">
         <v>10</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <f>SUM(I53,J54)/SUM(I53:J54)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2748,7 +2783,7 @@
       <c r="J53" s="3">
         <v>3</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="23">
         <f>SUM(L53,M54)/SUM(L53:M54)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2758,7 +2793,7 @@
       <c r="M53" s="8">
         <v>3</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="19">
         <f>SUM(O53,P54)/SUM(O53:P54)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -2770,36 +2805,36 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4">
         <v>8</v>
       </c>
       <c r="D54" s="5">
         <v>32</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="9">
         <v>11</v>
       </c>
       <c r="G54" s="10">
         <v>29</v>
       </c>
-      <c r="H54" s="21"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="4">
         <v>9</v>
       </c>
       <c r="J54" s="5">
         <v>31</v>
       </c>
-      <c r="K54" s="23"/>
+      <c r="K54" s="24"/>
       <c r="L54" s="9">
         <v>3</v>
       </c>
       <c r="M54" s="10">
         <v>37</v>
       </c>
-      <c r="N54" s="21"/>
+      <c r="N54" s="20"/>
       <c r="O54" s="4">
         <v>1</v>
       </c>
@@ -2808,10 +2843,10 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <f>SUM(C55,D56)/SUM(C55:D56)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -2821,7 +2856,7 @@
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <f>SUM(F55,G56)/SUM(F55:G56)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2831,7 +2866,7 @@
       <c r="G55" s="3">
         <v>11</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <f>SUM(I55,J56)/SUM(I55:J56)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2841,7 +2876,7 @@
       <c r="J55" s="3">
         <v>3</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <f>SUM(L55,M56)/SUM(L55:M56)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2851,7 +2886,7 @@
       <c r="M55" s="3">
         <v>4</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="23">
         <f>SUM(O55,P56)/SUM(O55:P56)</f>
         <v>0.96202531645569622</v>
       </c>
@@ -2861,39 +2896,39 @@
       <c r="P55" s="8">
         <v>2</v>
       </c>
-      <c r="Q55" s="32"/>
+      <c r="Q55" s="18"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4">
         <v>8</v>
       </c>
       <c r="D56" s="5">
         <v>32</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="4">
         <v>10</v>
       </c>
       <c r="G56" s="5">
         <v>29</v>
       </c>
-      <c r="H56" s="21"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="4">
         <v>9</v>
       </c>
       <c r="J56" s="5">
         <v>31</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="4">
         <v>3</v>
       </c>
       <c r="M56" s="5">
         <v>37</v>
       </c>
-      <c r="N56" s="23"/>
+      <c r="N56" s="24"/>
       <c r="O56" s="9">
         <v>1</v>
       </c>
@@ -2902,10 +2937,10 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="23">
         <f>SUM(C57,D58)/SUM(C57:D58)</f>
         <v>0.90666666666666662</v>
       </c>
@@ -2915,7 +2950,7 @@
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <f>SUM(F57,G58)/SUM(F57:G58)</f>
         <v>0.7466666666666667</v>
       </c>
@@ -2925,7 +2960,7 @@
       <c r="G57" s="3">
         <v>10</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="19">
         <f>SUM(I57,J58)/SUM(I57:J58)</f>
         <v>0.83783783783783783</v>
       </c>
@@ -2935,7 +2970,7 @@
       <c r="J57" s="3">
         <v>4</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="19">
         <f>SUM(L57,M58)/SUM(L57:M58)</f>
         <v>0.93333333333333335</v>
       </c>
@@ -2945,7 +2980,7 @@
       <c r="M57" s="3">
         <v>3</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="19">
         <f>SUM(O57,P58)/SUM(O57:P58)</f>
         <v>0.94666666666666666</v>
       </c>
@@ -2957,36 +2992,36 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="9">
         <v>5</v>
       </c>
       <c r="D58" s="10">
         <v>33</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="4">
         <v>9</v>
       </c>
       <c r="G58" s="5">
         <v>28</v>
       </c>
-      <c r="H58" s="21"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="4">
         <v>8</v>
       </c>
       <c r="J58" s="5">
         <v>30</v>
       </c>
-      <c r="K58" s="21"/>
+      <c r="K58" s="20"/>
       <c r="L58" s="4">
         <v>2</v>
       </c>
       <c r="M58" s="5">
         <v>36</v>
       </c>
-      <c r="N58" s="21"/>
+      <c r="N58" s="20"/>
       <c r="O58" s="4">
         <v>2</v>
       </c>
@@ -2995,10 +3030,10 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <f>SUM(C59,D60)/SUM(C59:D60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3008,7 +3043,7 @@
       <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <f>SUM(F59,G60)/SUM(F59:G60)</f>
         <v>0.73239436619718312</v>
       </c>
@@ -3018,7 +3053,7 @@
       <c r="G59" s="3">
         <v>9</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <f>SUM(I59,J60)/SUM(I59:J60)</f>
         <v>0.87323943661971826</v>
       </c>
@@ -3028,7 +3063,7 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="19">
         <f>SUM(L59,M60)/SUM(L59:M60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3038,7 +3073,7 @@
       <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="19">
         <f>SUM(O59,P60)/SUM(O59:P60)</f>
         <v>0.95774647887323938</v>
       </c>
@@ -3050,36 +3085,36 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="4">
         <v>6</v>
       </c>
       <c r="D60" s="5">
         <v>31</v>
       </c>
-      <c r="E60" s="21"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="4">
         <v>10</v>
       </c>
       <c r="G60" s="5">
         <v>26</v>
       </c>
-      <c r="H60" s="21"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="4">
         <v>8</v>
       </c>
       <c r="J60" s="5">
         <v>29</v>
       </c>
-      <c r="K60" s="21"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="4">
         <v>4</v>
       </c>
       <c r="M60" s="5">
         <v>33</v>
       </c>
-      <c r="N60" s="21"/>
+      <c r="N60" s="20"/>
       <c r="O60" s="4">
         <v>1</v>
       </c>
@@ -3088,10 +3123,10 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="19">
         <f>SUM(C61,D62)/SUM(C61:D62)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -3101,7 +3136,7 @@
       <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <f>SUM(F61,G62)/SUM(F61:G62)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -3111,7 +3146,7 @@
       <c r="G61" s="3">
         <v>10</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="19">
         <f>SUM(I61,J62)/SUM(I61:J62)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -3121,7 +3156,7 @@
       <c r="J61" s="3">
         <v>2</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="19">
         <f>SUM(L61,M62)/SUM(L61:M62)</f>
         <v>0.92307692307692313</v>
       </c>
@@ -3131,7 +3166,7 @@
       <c r="M61" s="3">
         <v>4</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="19">
         <f>SUM(O61,P62)/SUM(O61:P62)</f>
         <v>0.96202531645569622</v>
       </c>
@@ -3143,36 +3178,36 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4">
         <v>8</v>
       </c>
       <c r="D62" s="5">
         <v>32</v>
       </c>
-      <c r="E62" s="21"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="4">
         <v>11</v>
       </c>
       <c r="G62" s="5">
         <v>28</v>
       </c>
-      <c r="H62" s="21"/>
+      <c r="H62" s="20"/>
       <c r="I62" s="4">
         <v>8</v>
       </c>
       <c r="J62" s="5">
         <v>32</v>
       </c>
-      <c r="K62" s="21"/>
+      <c r="K62" s="20"/>
       <c r="L62" s="4">
         <v>2</v>
       </c>
       <c r="M62" s="5">
         <v>37</v>
       </c>
-      <c r="N62" s="21"/>
+      <c r="N62" s="20"/>
       <c r="O62" s="4">
         <v>1</v>
       </c>
@@ -3181,10 +3216,10 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <f>SUM(C63,D64)/SUM(C63:D64)</f>
         <v>0.86842105263157898</v>
       </c>
@@ -3194,7 +3229,7 @@
       <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="19">
         <f>SUM(F63,G64)/SUM(F63:G64)</f>
         <v>0.72</v>
       </c>
@@ -3204,7 +3239,7 @@
       <c r="G63" s="3">
         <v>10</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="19">
         <f>SUM(I63,J64)/SUM(I63:J64)</f>
         <v>0.8783783783783784</v>
       </c>
@@ -3214,7 +3249,7 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="19">
         <f>SUM(L63,M64)/SUM(L63:M64)</f>
         <v>0.91891891891891897</v>
       </c>
@@ -3224,7 +3259,7 @@
       <c r="M63" s="3">
         <v>3</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="19">
         <f>SUM(O63,P64)/SUM(O63:P64)</f>
         <v>0.92</v>
       </c>
@@ -3236,36 +3271,36 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4">
         <v>6</v>
       </c>
       <c r="D64" s="5">
         <v>33</v>
       </c>
-      <c r="E64" s="21"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="4">
         <v>11</v>
       </c>
       <c r="G64" s="5">
         <v>28</v>
       </c>
-      <c r="H64" s="21"/>
+      <c r="H64" s="20"/>
       <c r="I64" s="4">
         <v>8</v>
       </c>
       <c r="J64" s="5">
         <v>31</v>
       </c>
-      <c r="K64" s="21"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="4">
         <v>3</v>
       </c>
       <c r="M64" s="5">
         <v>36</v>
       </c>
-      <c r="N64" s="21"/>
+      <c r="N64" s="20"/>
       <c r="O64" s="4">
         <v>2</v>
       </c>
@@ -3274,10 +3309,10 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <f>SUM(C65,D66)/SUM(C65:D66)</f>
         <v>0.90140845070422537</v>
       </c>
@@ -3287,7 +3322,7 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="19">
         <f>SUM(F65,G66)/SUM(F65:G66)</f>
         <v>0.74647887323943662</v>
       </c>
@@ -3297,7 +3332,7 @@
       <c r="G65" s="3">
         <v>9</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="19">
         <f>SUM(I65,J66)/SUM(I65:J66)</f>
         <v>0.84722222222222221</v>
       </c>
@@ -3307,7 +3342,7 @@
       <c r="J65" s="3">
         <v>4</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="19">
         <f>SUM(L65,M66)/SUM(L65:M66)</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3317,7 +3352,7 @@
       <c r="M65" s="3">
         <v>3</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="19">
         <f>SUM(O65,P66)/SUM(O65:P66)</f>
         <v>0.95833333333333337</v>
       </c>
@@ -3329,36 +3364,36 @@
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4">
         <v>5</v>
       </c>
       <c r="D66" s="5">
         <v>32</v>
       </c>
-      <c r="E66" s="21"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="4">
         <v>9</v>
       </c>
       <c r="G66" s="5">
         <v>27</v>
       </c>
-      <c r="H66" s="21"/>
+      <c r="H66" s="20"/>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="5">
         <v>31</v>
       </c>
-      <c r="K66" s="21"/>
+      <c r="K66" s="20"/>
       <c r="L66" s="4">
         <v>3</v>
       </c>
       <c r="M66" s="5">
         <v>35</v>
       </c>
-      <c r="N66" s="21"/>
+      <c r="N66" s="20"/>
       <c r="O66" s="4">
         <v>1</v>
       </c>
@@ -3367,10 +3402,10 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="19">
         <f>SUM(C67,D68)/SUM(C67:D68)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3380,7 +3415,7 @@
       <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="19">
         <f>SUM(F67,G68)/SUM(F67:G68)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3390,7 +3425,7 @@
       <c r="G67" s="3">
         <v>10</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="19">
         <f>SUM(I67,J68)/SUM(I67:J68)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3400,7 +3435,7 @@
       <c r="J67" s="3">
         <v>1</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="19">
         <f>SUM(L67,M68)/SUM(L67:M68)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3410,7 +3445,7 @@
       <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="19">
         <f>SUM(O67,P68)/SUM(O67:P68)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3422,36 +3457,36 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4">
         <v>7</v>
       </c>
       <c r="D68" s="5">
         <v>31</v>
       </c>
-      <c r="E68" s="21"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="4">
         <v>10</v>
       </c>
       <c r="G68" s="5">
         <v>29</v>
       </c>
-      <c r="H68" s="21"/>
+      <c r="H68" s="20"/>
       <c r="I68" s="4">
         <v>7</v>
       </c>
       <c r="J68" s="5">
         <v>27</v>
       </c>
-      <c r="K68" s="21"/>
+      <c r="K68" s="20"/>
       <c r="L68" s="4">
         <v>3</v>
       </c>
       <c r="M68" s="5">
         <v>32</v>
       </c>
-      <c r="N68" s="21"/>
+      <c r="N68" s="20"/>
       <c r="O68" s="4">
         <v>1</v>
       </c>
@@ -3460,10 +3495,10 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="19">
         <f>SUM(C69,D70)/SUM(C69:D70)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3473,7 +3508,7 @@
       <c r="D69" s="3">
         <v>4</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <f>SUM(F69,G70)/SUM(F69:G70)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3483,7 +3518,7 @@
       <c r="G69" s="3">
         <v>10</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="19">
         <f>SUM(I69,J70)/SUM(I69:J70)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3493,7 +3528,7 @@
       <c r="J69" s="3">
         <v>1</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K69" s="19">
         <f>SUM(L69,M70)/SUM(L69:M70)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3503,7 +3538,7 @@
       <c r="M69" s="3">
         <v>2</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N69" s="19">
         <f>SUM(O69,P70)/SUM(O69:P70)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3515,36 +3550,36 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4">
         <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>31</v>
       </c>
-      <c r="E70" s="21"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="4">
         <v>10</v>
       </c>
       <c r="G70" s="5">
         <v>29</v>
       </c>
-      <c r="H70" s="21"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="4">
         <v>7</v>
       </c>
       <c r="J70" s="5">
         <v>27</v>
       </c>
-      <c r="K70" s="21"/>
+      <c r="K70" s="20"/>
       <c r="L70" s="4">
         <v>3</v>
       </c>
       <c r="M70" s="5">
         <v>32</v>
       </c>
-      <c r="N70" s="21"/>
+      <c r="N70" s="20"/>
       <c r="O70" s="4">
         <v>1</v>
       </c>
@@ -3553,10 +3588,10 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="19">
         <f>SUM(C71,D72)/SUM(C71:D72)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3566,7 +3601,7 @@
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <f>SUM(F71,G72)/SUM(F71:G72)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3576,7 +3611,7 @@
       <c r="G71" s="3">
         <v>10</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="23">
         <f>SUM(I71,J72)/SUM(I71:J72)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3586,7 +3621,7 @@
       <c r="J71" s="8">
         <v>1</v>
       </c>
-      <c r="K71" s="20">
+      <c r="K71" s="19">
         <f>SUM(L71,M72)/SUM(L71:M72)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3596,7 +3631,7 @@
       <c r="M71" s="3">
         <v>2</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N71" s="19">
         <f>SUM(O71,P72)/SUM(O71:P72)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3608,36 +3643,36 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4">
         <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>31</v>
       </c>
-      <c r="E72" s="21"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="4">
         <v>10</v>
       </c>
       <c r="G72" s="5">
         <v>29</v>
       </c>
-      <c r="H72" s="23"/>
+      <c r="H72" s="24"/>
       <c r="I72" s="9">
         <v>7</v>
       </c>
       <c r="J72" s="10">
         <v>27</v>
       </c>
-      <c r="K72" s="21"/>
+      <c r="K72" s="20"/>
       <c r="L72" s="4">
         <v>3</v>
       </c>
       <c r="M72" s="5">
         <v>32</v>
       </c>
-      <c r="N72" s="21"/>
+      <c r="N72" s="20"/>
       <c r="O72" s="4">
         <v>1</v>
       </c>
@@ -3647,37 +3682,155 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A12:P12"/>
     <mergeCell ref="B13:D13"/>
@@ -3702,155 +3855,37 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3858,11 +3893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,58 +3908,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -3934,7 +3969,7 @@
       <c r="D3" s="13">
         <v>124</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -3944,7 +3979,7 @@
       <c r="G3" s="13">
         <v>534</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="27">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -3954,7 +3989,7 @@
       <c r="J3" s="13">
         <v>145</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -3964,7 +3999,7 @@
       <c r="M3" s="13">
         <v>127</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="27">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -3976,36 +4011,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="14">
         <v>36</v>
       </c>
       <c r="D4" s="15">
         <v>2440</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="14">
         <v>59</v>
       </c>
       <c r="G4" s="15">
         <v>163</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="14">
         <v>49</v>
       </c>
       <c r="J4" s="15">
         <v>2427</v>
       </c>
-      <c r="K4" s="30"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="14">
         <v>26</v>
       </c>
       <c r="M4" s="15">
         <v>2450</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="14">
         <v>37</v>
       </c>
@@ -4014,10 +4049,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.80449438202247192</v>
       </c>
@@ -4027,7 +4062,7 @@
       <c r="D5" s="13">
         <v>41</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.7191011235955056</v>
       </c>
@@ -4037,7 +4072,7 @@
       <c r="G5" s="13">
         <v>40</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="27">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.77303370786516856</v>
       </c>
@@ -4047,7 +4082,7 @@
       <c r="J5" s="13">
         <v>61</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.84943820224719102</v>
       </c>
@@ -4057,7 +4092,7 @@
       <c r="M5" s="13">
         <v>37</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="27">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.83595505617977528</v>
       </c>
@@ -4069,36 +4104,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="14">
         <v>46</v>
       </c>
       <c r="D6" s="15">
         <v>177</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="14">
         <v>85</v>
       </c>
       <c r="G6" s="15">
         <v>138</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14">
         <v>40</v>
       </c>
       <c r="J6" s="15">
         <v>183</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="14">
         <v>30</v>
       </c>
       <c r="M6" s="15">
         <v>193</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="14">
         <v>37</v>
       </c>
@@ -4107,10 +4142,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="23">
         <f>SUM(C7,D8)/SUM(C7:D8)</f>
         <v>0.97475257523732584</v>
       </c>
@@ -4120,7 +4155,7 @@
       <c r="D7" s="8">
         <v>118</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="23">
         <f>SUM(F7,G8)/SUM(F7:G8)</f>
         <v>0.75398909311250251</v>
       </c>
@@ -4130,7 +4165,7 @@
       <c r="G7" s="8">
         <v>649</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <f>SUM(I7,J8)/SUM(I7:J8)</f>
         <v>0.91920824075944252</v>
       </c>
@@ -4140,7 +4175,7 @@
       <c r="J7" s="8">
         <v>355</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="23">
         <f>SUM(L7,M8)/SUM(L7:M8)</f>
         <v>0.98121591597657043</v>
       </c>
@@ -4150,7 +4185,7 @@
       <c r="M7" s="8">
         <v>93</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="23">
         <f>SUM(O7,P8)/SUM(O7:P8)</f>
         <v>0.99353665926075541</v>
       </c>
@@ -4162,36 +4197,36 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="10">
         <v>2468</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="9">
         <v>569</v>
       </c>
       <c r="G8" s="10">
         <v>1906</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="9">
         <v>45</v>
       </c>
       <c r="J8" s="10">
         <v>2430</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="9">
         <v>0</v>
       </c>
       <c r="M8" s="10">
         <v>2475</v>
       </c>
-      <c r="N8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="9">
         <v>0</v>
       </c>
@@ -4200,10 +4235,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -4213,7 +4248,7 @@
       <c r="D9" s="13">
         <v>36</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -4223,7 +4258,7 @@
       <c r="G9" s="13">
         <v>534</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -4233,7 +4268,7 @@
       <c r="J9" s="13">
         <v>49</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -4243,7 +4278,7 @@
       <c r="M9" s="13">
         <v>26</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -4255,36 +4290,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="14">
         <v>124</v>
       </c>
       <c r="D10" s="15">
         <v>98</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="14">
         <v>59</v>
       </c>
       <c r="G10" s="15">
         <v>163</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="14">
         <v>145</v>
       </c>
       <c r="J10" s="15">
         <v>77</v>
       </c>
-      <c r="K10" s="30"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="14">
         <v>127</v>
       </c>
       <c r="M10" s="15">
         <v>95</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="14">
         <v>113</v>
       </c>
@@ -4311,58 +4346,58 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="27">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.97515653403352853</v>
       </c>
@@ -4372,7 +4407,7 @@
       <c r="D14" s="13">
         <v>121</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.76126035144415272</v>
       </c>
@@ -4382,7 +4417,7 @@
       <c r="G14" s="13">
         <v>654</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="27">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.93334679862654013</v>
       </c>
@@ -4392,7 +4427,7 @@
       <c r="J14" s="13">
         <v>308</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.98182185417087453</v>
       </c>
@@ -4402,7 +4437,7 @@
       <c r="M14" s="13">
         <v>90</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="27">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.99474853564936372</v>
       </c>
@@ -4414,36 +4449,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="14">
         <v>2</v>
       </c>
       <c r="D15" s="15">
         <v>2473</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="14">
         <v>528</v>
       </c>
       <c r="G15" s="15">
         <v>1947</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="14">
         <v>22</v>
       </c>
       <c r="J15" s="15">
         <v>2453</v>
       </c>
-      <c r="K15" s="30"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="15">
         <v>2475</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="14">
         <v>0</v>
       </c>
@@ -4452,10 +4487,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="27">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.70167642900424154</v>
       </c>
@@ -4465,7 +4500,7 @@
       <c r="D16" s="13">
         <v>365</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="27">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.68026661280549383</v>
       </c>
@@ -4475,7 +4510,7 @@
       <c r="G16" s="13">
         <v>385</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="27">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.69117350030296909</v>
       </c>
@@ -4485,7 +4520,7 @@
       <c r="J16" s="13">
         <v>258</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.70248434659664716</v>
       </c>
@@ -4495,7 +4530,7 @@
       <c r="M16" s="13">
         <v>301</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="27">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.70288830539284997</v>
       </c>
@@ -4507,36 +4542,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="14">
         <v>1112</v>
       </c>
       <c r="D17" s="15">
         <v>1363</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="14">
         <v>1198</v>
       </c>
       <c r="G17" s="15">
         <v>1277</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="14">
         <v>1271</v>
       </c>
       <c r="J17" s="15">
         <v>1204</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="14">
         <v>1172</v>
       </c>
       <c r="M17" s="15">
         <v>1303</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="14">
         <v>1168</v>
       </c>
@@ -4545,10 +4580,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.7604524338517471</v>
       </c>
@@ -4558,7 +4593,7 @@
       <c r="D18" s="13">
         <v>429</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.69238537669157751</v>
       </c>
@@ -4568,7 +4603,7 @@
       <c r="G18" s="13">
         <v>490</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.71056352252070287</v>
       </c>
@@ -4578,7 +4613,7 @@
       <c r="J18" s="13">
         <v>282</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.7402544940416077</v>
       </c>
@@ -4588,7 +4623,7 @@
       <c r="M18" s="13">
         <v>250</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="27">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.74288022621692584</v>
       </c>
@@ -4600,36 +4635,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="14">
         <v>757</v>
       </c>
       <c r="D19" s="15">
         <v>1718</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14">
         <v>1033</v>
       </c>
       <c r="G19" s="15">
         <v>1442</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="14">
         <v>1151</v>
       </c>
       <c r="J19" s="15">
         <v>1324</v>
       </c>
-      <c r="K19" s="30"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="14">
         <v>1036</v>
       </c>
       <c r="M19" s="15">
         <v>1439</v>
       </c>
-      <c r="N19" s="30"/>
+      <c r="N19" s="28"/>
       <c r="O19" s="14">
         <v>1046</v>
       </c>
@@ -4638,10 +4673,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="27">
         <f t="shared" ref="B20" si="0">SUM(C20,D21)/SUM(C20:D21)</f>
         <v>0.88567966067461124</v>
       </c>
@@ -4651,7 +4686,7 @@
       <c r="D20" s="13">
         <v>484</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="27">
         <f t="shared" ref="E20" si="1">SUM(F20,G21)/SUM(F20:G21)</f>
         <v>0.70773581094728333</v>
       </c>
@@ -4661,7 +4696,7 @@
       <c r="G20" s="13">
         <v>393</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="27">
         <f t="shared" ref="H20" si="2">SUM(I20,J21)/SUM(I20:J21)</f>
         <v>0.78670975560492828</v>
       </c>
@@ -4671,7 +4706,7 @@
       <c r="J20" s="13">
         <v>240</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="27">
         <f t="shared" ref="K20" si="3">SUM(L20,M21)/SUM(L20:M21)</f>
         <v>0.88729549585942236</v>
       </c>
@@ -4681,7 +4716,7 @@
       <c r="M20" s="13">
         <v>175</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="27">
         <f t="shared" ref="N20" si="4">SUM(O20,P21)/SUM(O20:P21)</f>
         <v>0.90224197131892547</v>
       </c>
@@ -4693,36 +4728,36 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="14">
         <v>82</v>
       </c>
       <c r="D21" s="15">
         <v>2393</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="14">
         <v>1054</v>
       </c>
       <c r="G21" s="15">
         <v>1421</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="14">
         <v>816</v>
       </c>
       <c r="J21" s="15">
         <v>1659</v>
       </c>
-      <c r="K21" s="30"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="14">
         <v>383</v>
       </c>
       <c r="M21" s="15">
         <v>2092</v>
       </c>
-      <c r="N21" s="30"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="14">
         <v>321</v>
       </c>
@@ -4731,10 +4766,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="27">
         <f t="shared" ref="B22" si="5">SUM(C22,D23)/SUM(C22:D23)</f>
         <v>0.94001211876388613</v>
       </c>
@@ -4744,7 +4779,7 @@
       <c r="D22" s="13">
         <v>283</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="27">
         <f t="shared" ref="E22" si="6">SUM(F22,G23)/SUM(F22:G23)</f>
         <v>0.73156937992324778</v>
       </c>
@@ -4754,7 +4789,7 @@
       <c r="G22" s="13">
         <v>400</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <f t="shared" ref="H22" si="7">SUM(I22,J23)/SUM(I22:J23)</f>
         <v>0.86265400929105229</v>
       </c>
@@ -4764,7 +4799,7 @@
       <c r="J22" s="13">
         <v>405</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="27">
         <f t="shared" ref="K22" si="8">SUM(L22,M23)/SUM(L22:M23)</f>
         <v>0.9654615229246617</v>
       </c>
@@ -4774,52 +4809,60 @@
       <c r="M22" s="13">
         <v>130</v>
       </c>
-      <c r="N22" s="29" t="e">
+      <c r="N22" s="27">
         <f t="shared" ref="N22" si="9">SUM(O22,P23)/SUM(O22:P23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
+        <v>0.98161987477277313</v>
+      </c>
+      <c r="O22" s="12">
+        <v>2395</v>
+      </c>
+      <c r="P22" s="13">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="14">
         <v>14</v>
       </c>
       <c r="D23" s="15">
         <v>2461</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="14">
         <v>929</v>
       </c>
       <c r="G23" s="15">
         <v>1546</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="14">
         <v>275</v>
       </c>
       <c r="J23" s="15">
         <v>2200</v>
       </c>
-      <c r="K23" s="30"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="14">
         <v>41</v>
       </c>
       <c r="M23" s="15">
         <v>2434</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="14">
+        <v>10</v>
+      </c>
+      <c r="P23" s="15">
+        <v>2465</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="23">
         <f t="shared" ref="B24" si="10">SUM(C24,D25)/SUM(C24:D25)</f>
         <v>0.96384568773985058</v>
       </c>
@@ -4829,7 +4872,7 @@
       <c r="D24" s="8">
         <v>171</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="27">
         <f t="shared" ref="E24" si="11">SUM(F24,G25)/SUM(F24:G25)</f>
         <v>0.73399313270046451</v>
       </c>
@@ -4839,7 +4882,7 @@
       <c r="G24" s="13">
         <v>485</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="27">
         <f t="shared" ref="H24" si="12">SUM(I24,J25)/SUM(I24:J25)</f>
         <v>0.88305392849929309</v>
       </c>
@@ -4849,7 +4892,7 @@
       <c r="J24" s="13">
         <v>424</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="27">
         <f t="shared" ref="K24" si="13">SUM(L24,M25)/SUM(L24:M25)</f>
         <v>0.97394465764492022</v>
       </c>
@@ -4859,7 +4902,7 @@
       <c r="M24" s="13">
         <v>102</v>
       </c>
-      <c r="N24" s="29" t="e">
+      <c r="N24" s="27" t="e">
         <f t="shared" ref="N24" si="14">SUM(O24,P25)/SUM(O24:P25)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4867,44 +4910,44 @@
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="9">
         <v>8</v>
       </c>
       <c r="D25" s="10">
         <v>2467</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="14">
         <v>832</v>
       </c>
       <c r="G25" s="15">
         <v>1643</v>
       </c>
-      <c r="H25" s="30"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="14">
         <v>155</v>
       </c>
       <c r="J25" s="15">
         <v>2320</v>
       </c>
-      <c r="K25" s="30"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="14">
         <v>27</v>
       </c>
       <c r="M25" s="15">
         <v>2448</v>
       </c>
-      <c r="N25" s="30"/>
+      <c r="N25" s="28"/>
       <c r="O25" s="14"/>
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="27">
         <f t="shared" ref="B26" si="15">SUM(C26,D27)/SUM(C26:D27)</f>
         <v>0.96849121389618253</v>
       </c>
@@ -4914,7 +4957,7 @@
       <c r="D26" s="13">
         <v>151</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="23">
         <f t="shared" ref="E26" si="16">SUM(F26,G27)/SUM(F26:G27)</f>
         <v>0.75035346394667746</v>
       </c>
@@ -4924,7 +4967,7 @@
       <c r="G26" s="8">
         <v>616</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <f t="shared" ref="H26" si="17">SUM(I26,J27)/SUM(I26:J27)</f>
         <v>0.90708947687335895</v>
       </c>
@@ -4934,7 +4977,7 @@
       <c r="J26" s="8">
         <v>367</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="23">
         <f t="shared" ref="K26" si="18">SUM(L26,M27)/SUM(L26:M27)</f>
         <v>0.98141789537467183</v>
       </c>
@@ -4944,7 +4987,7 @@
       <c r="M26" s="8">
         <v>90</v>
       </c>
-      <c r="N26" s="29" t="e">
+      <c r="N26" s="27" t="e">
         <f t="shared" ref="N26" si="19">SUM(O26,P27)/SUM(O26:P27)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4952,36 +4995,36 @@
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="14">
         <v>5</v>
       </c>
       <c r="D27" s="15">
         <v>2470</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9">
         <v>620</v>
       </c>
       <c r="G27" s="10">
         <v>1855</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="9">
         <v>93</v>
       </c>
       <c r="J27" s="10">
         <v>2382</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="9">
         <v>2</v>
       </c>
       <c r="M27" s="10">
         <v>2473</v>
       </c>
-      <c r="N27" s="30"/>
+      <c r="N27" s="28"/>
       <c r="O27" s="14"/>
       <c r="P27" s="15"/>
     </row>
@@ -5004,82 +5047,82 @@
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28" t="s">
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28" t="s">
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="29" t="e">
+      <c r="B31" s="27" t="e">
         <f>SUM(C31,D32)/SUM(C31:D32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="29" t="e">
+      <c r="E31" s="27" t="e">
         <f>SUM(F31,G32)/SUM(F31:G32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="29" t="e">
+      <c r="H31" s="27" t="e">
         <f>SUM(I31,J32)/SUM(I31:J32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="29" t="e">
+      <c r="K31" s="27" t="e">
         <f>SUM(L31,M32)/SUM(L31:M32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="29" t="e">
+      <c r="N31" s="27" t="e">
         <f>SUM(O31,P32)/SUM(O31:P32)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5087,52 +5130,52 @@
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="30"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="30"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="30"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="30"/>
+      <c r="N32" s="28"/>
       <c r="O32" s="14"/>
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="29" t="e">
+      <c r="B33" s="27" t="e">
         <f>SUM(C33,D34)/SUM(C33:D34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="29" t="e">
+      <c r="E33" s="27" t="e">
         <f>SUM(F33,G34)/SUM(F33:G34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="29" t="e">
+      <c r="H33" s="27" t="e">
         <f>SUM(I33,J34)/SUM(I33:J34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="29" t="e">
+      <c r="K33" s="27" t="e">
         <f>SUM(L33,M34)/SUM(L33:M34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="29" t="e">
+      <c r="N33" s="27" t="e">
         <f>SUM(O33,P34)/SUM(O33:P34)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5140,52 +5183,52 @@
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="30"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="30"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="14"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="30"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="14"/>
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="29" t="e">
+      <c r="B35" s="27" t="e">
         <f>SUM(C35,D36)/SUM(C35:D36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="29" t="e">
+      <c r="E35" s="27" t="e">
         <f>SUM(F35,G36)/SUM(F35:G36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="29" t="e">
+      <c r="H35" s="27" t="e">
         <f>SUM(I35,J36)/SUM(I35:J36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="29" t="e">
+      <c r="K35" s="27" t="e">
         <f>SUM(L35,M36)/SUM(L35:M36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="29" t="e">
+      <c r="N35" s="27" t="e">
         <f>SUM(O35,P36)/SUM(O35:P36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5193,52 +5236,52 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="30"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="30"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="30"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="14"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="30"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="14"/>
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="29" t="e">
+      <c r="B37" s="27" t="e">
         <f>SUM(C37,D38)/SUM(C37:D38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="29" t="e">
+      <c r="E37" s="27" t="e">
         <f>SUM(F37,G38)/SUM(F37:G38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="29" t="e">
+      <c r="H37" s="27" t="e">
         <f>SUM(I37,J38)/SUM(I37:J38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="29" t="e">
+      <c r="K37" s="27" t="e">
         <f>SUM(L37,M38)/SUM(L37:M38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="12"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="29" t="e">
+      <c r="N37" s="27" t="e">
         <f>SUM(O37,P38)/SUM(O37:P38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5246,52 +5289,52 @@
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="30"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="30"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="30"/>
+      <c r="K38" s="28"/>
       <c r="L38" s="14"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="14"/>
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="29" t="e">
+      <c r="B39" s="27" t="e">
         <f>SUM(C39,D40)/SUM(C39:D40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="29" t="e">
+      <c r="E39" s="27" t="e">
         <f>SUM(F39,G40)/SUM(F39:G40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="29" t="e">
+      <c r="H39" s="27" t="e">
         <f>SUM(I39,J40)/SUM(I39:J40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="29" t="e">
+      <c r="K39" s="27" t="e">
         <f>SUM(L39,M40)/SUM(L39:M40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="13"/>
-      <c r="N39" s="29" t="e">
+      <c r="N39" s="27" t="e">
         <f>SUM(O39,P40)/SUM(O39:P40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5299,52 +5342,52 @@
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="30"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="30"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="30"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="14"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="30"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="14"/>
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="29" t="e">
+      <c r="B41" s="27" t="e">
         <f>SUM(C41,D42)/SUM(C41:D42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="29" t="e">
+      <c r="E41" s="27" t="e">
         <f>SUM(F41,G42)/SUM(F41:G42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="29" t="e">
+      <c r="H41" s="27" t="e">
         <f>SUM(I41,J42)/SUM(I41:J42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="29" t="e">
+      <c r="K41" s="27" t="e">
         <f>SUM(L41,M42)/SUM(L41:M42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="29" t="e">
+      <c r="N41" s="27" t="e">
         <f>SUM(O41,P42)/SUM(O41:P42)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5352,52 +5395,52 @@
       <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="30"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="30"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="30"/>
+      <c r="K42" s="28"/>
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="30"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="14"/>
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="29" t="e">
+      <c r="B43" s="27" t="e">
         <f>SUM(C43,D44)/SUM(C43:D44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="29" t="e">
+      <c r="E43" s="27" t="e">
         <f>SUM(F43,G44)/SUM(F43:G44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="29" t="e">
+      <c r="H43" s="27" t="e">
         <f>SUM(I43,J44)/SUM(I43:J44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="29" t="e">
+      <c r="K43" s="27" t="e">
         <f>SUM(L43,M44)/SUM(L43:M44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="29" t="e">
+      <c r="N43" s="27" t="e">
         <f>SUM(O43,P44)/SUM(O43:P44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5405,52 +5448,52 @@
       <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="30"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="30"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="30"/>
+      <c r="K44" s="28"/>
       <c r="L44" s="14"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="14"/>
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="29" t="e">
+      <c r="B45" s="27" t="e">
         <f>SUM(C45,D46)/SUM(C45:D46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="29" t="e">
+      <c r="E45" s="27" t="e">
         <f>SUM(F45,G46)/SUM(F45:G46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="29" t="e">
+      <c r="H45" s="27" t="e">
         <f>SUM(I45,J46)/SUM(I45:J46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="29" t="e">
+      <c r="K45" s="27" t="e">
         <f>SUM(L45,M46)/SUM(L45:M46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="29" t="e">
+      <c r="N45" s="27" t="e">
         <f>SUM(O45,P46)/SUM(O45:P46)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5458,52 +5501,52 @@
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="30"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="30"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="30"/>
+      <c r="K46" s="28"/>
       <c r="L46" s="14"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="14"/>
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="29" t="e">
+      <c r="B47" s="27" t="e">
         <f>SUM(C47,D48)/SUM(C47:D48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="29" t="e">
+      <c r="E47" s="27" t="e">
         <f>SUM(F47,G48)/SUM(F47:G48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="29" t="e">
+      <c r="H47" s="27" t="e">
         <f>SUM(I47,J48)/SUM(I47:J48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="29" t="e">
+      <c r="K47" s="27" t="e">
         <f>SUM(L47,M48)/SUM(L47:M48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="29" t="e">
+      <c r="N47" s="27" t="e">
         <f>SUM(O47,P48)/SUM(O47:P48)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5511,52 +5554,52 @@
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="30"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="30"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="30"/>
+      <c r="K48" s="28"/>
       <c r="L48" s="14"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="30"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="14"/>
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="29" t="e">
+      <c r="B49" s="27" t="e">
         <f>SUM(C49,D50)/SUM(C49:D50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="29" t="e">
+      <c r="E49" s="27" t="e">
         <f>SUM(F49,G50)/SUM(F49:G50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="29" t="e">
+      <c r="H49" s="27" t="e">
         <f>SUM(I49,J50)/SUM(I49:J50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="29" t="e">
+      <c r="K49" s="27" t="e">
         <f>SUM(L49,M50)/SUM(L49:M50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="29" t="e">
+      <c r="N49" s="27" t="e">
         <f>SUM(O49,P50)/SUM(O49:P50)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5564,73 +5607,103 @@
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="30"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="30"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="30"/>
+      <c r="K50" s="28"/>
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="30"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="14"/>
       <c r="P50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K24:K25"/>
     <mergeCell ref="A29:P29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
@@ -5649,84 +5722,54 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="K31:K32"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K47:K48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output Summary.xlsx
+++ b/Output Summary.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391A5D0-72B4-4EC9-BB24-6AF3442383B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Heart" sheetId="5" r:id="rId1"/>
     <sheet name="Toxic" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>Scaling</t>
   </si>
@@ -150,11 +149,14 @@
   <si>
     <t>k=300</t>
   </si>
+  <si>
+    <t>Local Outlier Factor 0.1'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -333,16 +335,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,10 +353,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,16 +374,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,7 +395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,23 +470,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -520,23 +505,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,58 +693,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="21">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -786,7 +754,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -796,7 +764,7 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="21">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -806,7 +774,7 @@
       <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="21">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -816,7 +784,7 @@
       <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="21">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.82456140350877194</v>
       </c>
@@ -828,36 +796,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4">
         <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4">
         <v>7</v>
       </c>
       <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="4">
         <v>8</v>
       </c>
       <c r="M4" s="5">
         <v>11</v>
       </c>
-      <c r="N4" s="20"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="4">
         <v>8</v>
       </c>
@@ -866,10 +834,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="21">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.57894736842105265</v>
       </c>
@@ -879,7 +847,7 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="21">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.64864864864864868</v>
       </c>
@@ -889,7 +857,7 @@
       <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="21">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.72972972972972971</v>
       </c>
@@ -899,7 +867,7 @@
       <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="21">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -909,7 +877,7 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="21">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -921,36 +889,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4">
         <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="4">
         <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>9</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="5">
         <v>13</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="5">
         <v>15</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="4">
         <v>4</v>
       </c>
@@ -959,7 +927,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="23">
@@ -1014,7 +982,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>10</v>
@@ -1052,10 +1020,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="21">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -1065,7 +1033,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="21">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -1075,7 +1043,7 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="21">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -1085,7 +1053,7 @@
       <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="21">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1095,7 +1063,7 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="21">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1107,36 +1075,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4">
         <v>17</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="4">
         <v>14</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="4">
         <v>9</v>
       </c>
       <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="4">
         <v>9</v>
       </c>
@@ -1145,58 +1113,58 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22" t="s">
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="21">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.8</v>
       </c>
@@ -1248,8 +1216,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
@@ -1286,10 +1254,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="21">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1299,7 +1267,7 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="21">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.65</v>
       </c>
@@ -1309,7 +1277,7 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="21">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1319,7 +1287,7 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="21">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1329,7 +1297,7 @@
       <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="21">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.9375</v>
       </c>
@@ -1341,36 +1309,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="4">
         <v>6</v>
       </c>
       <c r="G17" s="5">
         <v>34</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="4">
         <v>8</v>
       </c>
       <c r="J17" s="5">
         <v>31</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="4">
         <v>5</v>
       </c>
       <c r="M17" s="5">
         <v>35</v>
       </c>
-      <c r="N17" s="20"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="4">
         <v>2</v>
       </c>
@@ -1379,7 +1347,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="23">
@@ -1392,7 +1360,7 @@
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="21">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.63414634146341464</v>
       </c>
@@ -1402,7 +1370,7 @@
       <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="21">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1412,7 +1380,7 @@
       <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="21">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -1422,7 +1390,7 @@
       <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="21">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.9375</v>
       </c>
@@ -1434,7 +1402,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="24"/>
       <c r="C19" s="9">
         <v>8</v>
@@ -1442,28 +1410,28 @@
       <c r="D19" s="10">
         <v>32</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>34</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="4">
         <v>8</v>
       </c>
       <c r="J19" s="5">
         <v>31</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="4">
         <v>4</v>
       </c>
       <c r="M19" s="5">
         <v>36</v>
       </c>
-      <c r="N19" s="20"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="4">
         <v>2</v>
       </c>
@@ -1472,58 +1440,58 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22" t="s">
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="21">
         <f>SUM(C23,D24)/SUM(C23:D24)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -1533,7 +1501,7 @@
       <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="21">
         <f>SUM(F23,G24)/SUM(F23:G24)</f>
         <v>0.65</v>
       </c>
@@ -1543,7 +1511,7 @@
       <c r="G23" s="3">
         <v>23</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="21">
         <f>SUM(I23,J24)/SUM(I23:J24)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1553,7 +1521,7 @@
       <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="21">
         <f>SUM(L23,M24)/SUM(L23:M24)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1563,7 +1531,7 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="21">
         <f>SUM(O23,P24)/SUM(O23:P24)</f>
         <v>0.95</v>
       </c>
@@ -1575,36 +1543,36 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="4">
         <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>33</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>35</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="5">
         <v>33</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="4">
         <v>4</v>
       </c>
       <c r="M24" s="5">
         <v>36</v>
       </c>
-      <c r="N24" s="20"/>
+      <c r="N24" s="22"/>
       <c r="O24" s="4">
         <v>2</v>
       </c>
@@ -1613,7 +1581,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="23">
@@ -1668,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="24"/>
       <c r="C26" s="9">
         <v>7</v>
@@ -1724,58 +1692,58 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22" t="s">
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22" t="s">
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="21">
         <f>SUM(C30,D31)/SUM(C30:D31)</f>
         <v>0.83544303797468356</v>
       </c>
@@ -1785,7 +1753,7 @@
       <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="21">
         <f>SUM(F30,G31)/SUM(F30:G31)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -1795,7 +1763,7 @@
       <c r="G30" s="3">
         <v>21</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="21">
         <f>SUM(I30,J31)/SUM(I30:J31)</f>
         <v>0.875</v>
       </c>
@@ -1805,7 +1773,7 @@
       <c r="J30" s="3">
         <v>3</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="21">
         <f>SUM(L30,M31)/SUM(L30:M31)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1815,7 +1783,7 @@
       <c r="M30" s="3">
         <v>2</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="21">
         <f>SUM(O30,P31)/SUM(O30:P31)</f>
         <v>0.95</v>
       </c>
@@ -1827,36 +1795,36 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="4">
         <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>31</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
       <c r="G31" s="5">
         <v>34</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="4">
         <v>7</v>
       </c>
       <c r="J31" s="5">
         <v>33</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="4">
         <v>3</v>
       </c>
       <c r="M31" s="5">
         <v>37</v>
       </c>
-      <c r="N31" s="20"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="4">
         <v>0</v>
       </c>
@@ -1865,10 +1833,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="21">
         <f>SUM(C32,D33)/SUM(C32:D33)</f>
         <v>0.85</v>
       </c>
@@ -1888,7 +1856,7 @@
       <c r="G32" s="8">
         <v>10</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="21">
         <f>SUM(I32,J33)/SUM(I32:J33)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1898,7 +1866,7 @@
       <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="21">
         <f>SUM(L32,M33)/SUM(L32:M33)</f>
         <v>0.9</v>
       </c>
@@ -1908,7 +1876,7 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="21">
         <f>SUM(O32,P33)/SUM(O32:P33)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1920,8 +1888,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
@@ -1935,21 +1903,21 @@
       <c r="G33" s="10">
         <v>29</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="4">
         <v>8</v>
       </c>
       <c r="J33" s="5">
         <v>32</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="4">
         <v>5</v>
       </c>
       <c r="M33" s="5">
         <v>35</v>
       </c>
-      <c r="N33" s="20"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="4">
         <v>1</v>
       </c>
@@ -1958,10 +1926,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="21">
         <f>SUM(C34,D35)/SUM(C34:D35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1971,7 +1939,7 @@
       <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="21">
         <f>SUM(F34,G35)/SUM(F34:G35)</f>
         <v>0.5</v>
       </c>
@@ -1981,7 +1949,7 @@
       <c r="G34" s="3">
         <v>36</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="21">
         <f>SUM(I34,J35)/SUM(I34:J35)</f>
         <v>0.79746835443037978</v>
       </c>
@@ -1991,7 +1959,7 @@
       <c r="J34" s="3">
         <v>4</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="21">
         <f>SUM(L34,M35)/SUM(L34:M35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -2001,7 +1969,7 @@
       <c r="M34" s="3">
         <v>4</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="21">
         <f>SUM(O34,P35)/SUM(O34:P35)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2013,36 +1981,36 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="4">
         <v>11</v>
       </c>
       <c r="D35" s="5">
         <v>28</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="4">
         <v>4</v>
       </c>
       <c r="G35" s="5">
         <v>36</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="5">
         <v>27</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="22"/>
       <c r="L35" s="4">
         <v>11</v>
       </c>
       <c r="M35" s="5">
         <v>29</v>
       </c>
-      <c r="N35" s="20"/>
+      <c r="N35" s="22"/>
       <c r="O35" s="4">
         <v>6</v>
       </c>
@@ -2051,10 +2019,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="21">
         <f>SUM(C36,D37)/SUM(C36:D37)</f>
         <v>0.82499999999999996</v>
       </c>
@@ -2064,7 +2032,7 @@
       <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="21">
         <f>SUM(F36,G37)/SUM(F36:G37)</f>
         <v>0.63291139240506333</v>
       </c>
@@ -2074,7 +2042,7 @@
       <c r="G36" s="3">
         <v>25</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="21">
         <f>SUM(I36,J37)/SUM(I36:J37)</f>
         <v>0.85</v>
       </c>
@@ -2084,7 +2052,7 @@
       <c r="J36" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="21">
         <f>SUM(L36,M37)/SUM(L36:M37)</f>
         <v>0.88607594936708856</v>
       </c>
@@ -2094,7 +2062,7 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="21">
         <f>SUM(O36,P37)/SUM(O36:P37)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2106,36 +2074,36 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4">
         <v>9</v>
       </c>
       <c r="D37" s="5">
         <v>31</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="4">
         <v>4</v>
       </c>
       <c r="G37" s="5">
         <v>35</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="4">
         <v>8</v>
       </c>
       <c r="J37" s="5">
         <v>32</v>
       </c>
-      <c r="K37" s="20"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="4">
         <v>6</v>
       </c>
       <c r="M37" s="5">
         <v>33</v>
       </c>
-      <c r="N37" s="20"/>
+      <c r="N37" s="22"/>
       <c r="O37" s="4">
         <v>4</v>
       </c>
@@ -2144,10 +2112,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="21">
         <f t="shared" ref="B38" si="0">SUM(C38,D39)/SUM(C38:D39)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2157,7 +2125,7 @@
       <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="21">
         <f t="shared" ref="E38" si="1">SUM(F38,G39)/SUM(F38:G39)</f>
         <v>0.60759493670886078</v>
       </c>
@@ -2167,7 +2135,7 @@
       <c r="G38" s="3">
         <v>27</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="21">
         <f t="shared" ref="H38" si="2">SUM(I38,J39)/SUM(I38:J39)</f>
         <v>0.875</v>
       </c>
@@ -2177,7 +2145,7 @@
       <c r="J38" s="3">
         <v>3</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="21">
         <f t="shared" ref="K38" si="3">SUM(L38,M39)/SUM(L38:M39)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2199,29 +2167,29 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="4">
         <v>13</v>
       </c>
       <c r="D39" s="5">
         <v>27</v>
       </c>
-      <c r="E39" s="20"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="4">
         <v>4</v>
       </c>
       <c r="G39" s="5">
         <v>35</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="4">
         <v>7</v>
       </c>
       <c r="J39" s="5">
         <v>33</v>
       </c>
-      <c r="K39" s="20"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="4">
         <v>4</v>
       </c>
@@ -2237,10 +2205,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="21">
         <f t="shared" ref="B40" si="5">SUM(C40,D41)/SUM(C40:D41)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2250,7 +2218,7 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="21">
         <f t="shared" ref="E40" si="6">SUM(F40,G41)/SUM(F40:G41)</f>
         <v>0.67088607594936711</v>
       </c>
@@ -2260,7 +2228,7 @@
       <c r="G40" s="3">
         <v>21</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="21">
         <f t="shared" ref="H40" si="7">SUM(I40,J41)/SUM(I40:J41)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2280,7 +2248,7 @@
       <c r="M40" s="8">
         <v>1</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="21">
         <f t="shared" ref="N40" si="9">SUM(O40,P41)/SUM(O40:P41)</f>
         <v>0.95</v>
       </c>
@@ -2292,22 +2260,22 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="4">
         <v>12</v>
       </c>
       <c r="D41" s="5">
         <v>28</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="4">
         <v>5</v>
       </c>
       <c r="G41" s="5">
         <v>35</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="4">
         <v>8</v>
       </c>
@@ -2321,7 +2289,7 @@
       <c r="M41" s="10">
         <v>35</v>
       </c>
-      <c r="N41" s="20"/>
+      <c r="N41" s="22"/>
       <c r="O41" s="4">
         <v>1</v>
       </c>
@@ -2330,10 +2298,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="21">
         <f t="shared" ref="B42" si="10">SUM(C42,D43)/SUM(C42:D43)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2343,7 +2311,7 @@
       <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="21">
         <f t="shared" ref="E42" si="11">SUM(F42,G43)/SUM(F42:G43)</f>
         <v>0.65</v>
       </c>
@@ -2363,7 +2331,7 @@
       <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="21">
         <f t="shared" ref="K42" si="13">SUM(L42,M43)/SUM(L42:M43)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2373,7 +2341,7 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="21">
         <f t="shared" ref="N42" si="14">SUM(O42,P43)/SUM(O42:P43)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2385,15 +2353,15 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="4">
         <v>7</v>
       </c>
       <c r="D43" s="5">
         <v>33</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="4">
         <v>6</v>
       </c>
@@ -2407,14 +2375,14 @@
       <c r="J43" s="10">
         <v>32</v>
       </c>
-      <c r="K43" s="20"/>
+      <c r="K43" s="22"/>
       <c r="L43" s="4">
         <v>5</v>
       </c>
       <c r="M43" s="5">
         <v>35</v>
       </c>
-      <c r="N43" s="20"/>
+      <c r="N43" s="22"/>
       <c r="O43" s="4">
         <v>0</v>
       </c>
@@ -2423,10 +2391,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="21">
         <f t="shared" ref="B44" si="15">SUM(C44,D45)/SUM(C44:D45)</f>
         <v>0.85897435897435892</v>
       </c>
@@ -2436,7 +2404,7 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="21">
         <f t="shared" ref="E44" si="16">SUM(F44,G45)/SUM(F44:G45)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2446,7 +2414,7 @@
       <c r="G44" s="3">
         <v>22</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="21">
         <f t="shared" ref="H44" si="17">SUM(I44,J45)/SUM(I44:J45)</f>
         <v>0.875</v>
       </c>
@@ -2456,7 +2424,7 @@
       <c r="J44" s="3">
         <v>3</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="21">
         <f t="shared" ref="K44" si="18">SUM(L44,M45)/SUM(L44:M45)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2466,7 +2434,7 @@
       <c r="M44" s="3">
         <v>2</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="21">
         <f t="shared" ref="N44" si="19">SUM(O44,P45)/SUM(O44:P45)</f>
         <v>0.95</v>
       </c>
@@ -2478,36 +2446,36 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="4">
         <v>7</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="4">
         <v>5</v>
       </c>
       <c r="G45" s="5">
         <v>34</v>
       </c>
-      <c r="H45" s="20"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="4">
         <v>7</v>
       </c>
       <c r="J45" s="5">
         <v>33</v>
       </c>
-      <c r="K45" s="20"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="4">
         <v>4</v>
       </c>
       <c r="M45" s="5">
         <v>36</v>
       </c>
-      <c r="N45" s="20"/>
+      <c r="N45" s="22"/>
       <c r="O45" s="4">
         <v>1</v>
       </c>
@@ -2516,7 +2484,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="23">
@@ -2529,7 +2497,7 @@
       <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="21">
         <f t="shared" ref="E46" si="21">SUM(F46,G47)/SUM(F46:G47)</f>
         <v>0.65</v>
       </c>
@@ -2539,7 +2507,7 @@
       <c r="G46" s="3">
         <v>22</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="21">
         <f t="shared" ref="H46" si="22">SUM(I46,J47)/SUM(I46:J47)</f>
         <v>0.85</v>
       </c>
@@ -2549,7 +2517,7 @@
       <c r="J46" s="3">
         <v>4</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="21">
         <f t="shared" ref="K46" si="23">SUM(L46,M47)/SUM(L46:M47)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2559,7 +2527,7 @@
       <c r="M46" s="3">
         <v>2</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="21">
         <f t="shared" ref="N46" si="24">SUM(O46,P47)/SUM(O46:P47)</f>
         <v>0.96153846153846156</v>
       </c>
@@ -2571,7 +2539,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="24"/>
       <c r="C47" s="9">
         <v>6</v>
@@ -2579,28 +2547,28 @@
       <c r="D47" s="10">
         <v>34</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="4">
         <v>6</v>
       </c>
       <c r="G47" s="5">
         <v>34</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="4">
         <v>8</v>
       </c>
       <c r="J47" s="5">
         <v>32</v>
       </c>
-      <c r="K47" s="20"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="4">
         <v>3</v>
       </c>
       <c r="M47" s="5">
         <v>36</v>
       </c>
-      <c r="N47" s="20"/>
+      <c r="N47" s="22"/>
       <c r="O47" s="4">
         <v>0</v>
       </c>
@@ -2609,10 +2577,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="21">
         <f t="shared" ref="B48" si="25">SUM(C48,D49)/SUM(C48:D49)</f>
         <v>0.85</v>
       </c>
@@ -2622,7 +2590,7 @@
       <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="21">
         <f t="shared" ref="E48" si="26">SUM(F48,G49)/SUM(F48:G49)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2632,7 +2600,7 @@
       <c r="G48" s="3">
         <v>22</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="21">
         <f t="shared" ref="H48" si="27">SUM(I48,J49)/SUM(I48:J49)</f>
         <v>0.875</v>
       </c>
@@ -2642,7 +2610,7 @@
       <c r="J48" s="3">
         <v>3</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="21">
         <f t="shared" ref="K48" si="28">SUM(L48,M49)/SUM(L48:M49)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -2652,7 +2620,7 @@
       <c r="M48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="21">
         <f t="shared" ref="N48" si="29">SUM(O48,P49)/SUM(O48:P49)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2664,36 +2632,36 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="4">
         <v>7</v>
       </c>
       <c r="D49" s="5">
         <v>33</v>
       </c>
-      <c r="E49" s="20"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="5">
         <v>34</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="5">
         <v>33</v>
       </c>
-      <c r="K49" s="20"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="4">
         <v>5</v>
       </c>
       <c r="M49" s="5">
         <v>35</v>
       </c>
-      <c r="N49" s="20"/>
+      <c r="N49" s="22"/>
       <c r="O49" s="4">
         <v>1</v>
       </c>
@@ -2702,58 +2670,58 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22" t="s">
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22" t="s">
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22" t="s">
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="21">
         <f>SUM(C53,D54)/SUM(C53:D54)</f>
         <v>0.875</v>
       </c>
@@ -2773,7 +2741,7 @@
       <c r="G53" s="8">
         <v>10</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="21">
         <f>SUM(I53,J54)/SUM(I53:J54)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2793,7 +2761,7 @@
       <c r="M53" s="8">
         <v>3</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="21">
         <f>SUM(O53,P54)/SUM(O53:P54)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -2805,8 +2773,8 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="4">
         <v>8</v>
       </c>
@@ -2820,7 +2788,7 @@
       <c r="G54" s="10">
         <v>29</v>
       </c>
-      <c r="H54" s="20"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="4">
         <v>9</v>
       </c>
@@ -2834,7 +2802,7 @@
       <c r="M54" s="10">
         <v>37</v>
       </c>
-      <c r="N54" s="20"/>
+      <c r="N54" s="22"/>
       <c r="O54" s="4">
         <v>1</v>
       </c>
@@ -2843,10 +2811,10 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="21">
         <f>SUM(C55,D56)/SUM(C55:D56)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -2856,7 +2824,7 @@
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="21">
         <f>SUM(F55,G56)/SUM(F55:G56)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2866,7 +2834,7 @@
       <c r="G55" s="3">
         <v>11</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="21">
         <f>SUM(I55,J56)/SUM(I55:J56)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2876,7 +2844,7 @@
       <c r="J55" s="3">
         <v>3</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="21">
         <f>SUM(L55,M56)/SUM(L55:M56)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2899,29 +2867,29 @@
       <c r="Q55" s="18"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="4">
         <v>8</v>
       </c>
       <c r="D56" s="5">
         <v>32</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="4">
         <v>10</v>
       </c>
       <c r="G56" s="5">
         <v>29</v>
       </c>
-      <c r="H56" s="20"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="4">
         <v>9</v>
       </c>
       <c r="J56" s="5">
         <v>31</v>
       </c>
-      <c r="K56" s="20"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="4">
         <v>3</v>
       </c>
@@ -2937,7 +2905,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="23">
@@ -2950,7 +2918,7 @@
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="21">
         <f>SUM(F57,G58)/SUM(F57:G58)</f>
         <v>0.7466666666666667</v>
       </c>
@@ -2960,7 +2928,7 @@
       <c r="G57" s="3">
         <v>10</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="21">
         <f>SUM(I57,J58)/SUM(I57:J58)</f>
         <v>0.83783783783783783</v>
       </c>
@@ -2970,7 +2938,7 @@
       <c r="J57" s="3">
         <v>4</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="21">
         <f>SUM(L57,M58)/SUM(L57:M58)</f>
         <v>0.93333333333333335</v>
       </c>
@@ -2980,7 +2948,7 @@
       <c r="M57" s="3">
         <v>3</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N57" s="21">
         <f>SUM(O57,P58)/SUM(O57:P58)</f>
         <v>0.94666666666666666</v>
       </c>
@@ -2992,7 +2960,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="24"/>
       <c r="C58" s="9">
         <v>5</v>
@@ -3000,28 +2968,28 @@
       <c r="D58" s="10">
         <v>33</v>
       </c>
-      <c r="E58" s="20"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="4">
         <v>9</v>
       </c>
       <c r="G58" s="5">
         <v>28</v>
       </c>
-      <c r="H58" s="20"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="4">
         <v>8</v>
       </c>
       <c r="J58" s="5">
         <v>30</v>
       </c>
-      <c r="K58" s="20"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="4">
         <v>2</v>
       </c>
       <c r="M58" s="5">
         <v>36</v>
       </c>
-      <c r="N58" s="20"/>
+      <c r="N58" s="22"/>
       <c r="O58" s="4">
         <v>2</v>
       </c>
@@ -3030,10 +2998,10 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="21">
         <f>SUM(C59,D60)/SUM(C59:D60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3043,7 +3011,7 @@
       <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="21">
         <f>SUM(F59,G60)/SUM(F59:G60)</f>
         <v>0.73239436619718312</v>
       </c>
@@ -3053,7 +3021,7 @@
       <c r="G59" s="3">
         <v>9</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="21">
         <f>SUM(I59,J60)/SUM(I59:J60)</f>
         <v>0.87323943661971826</v>
       </c>
@@ -3063,7 +3031,7 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K59" s="21">
         <f>SUM(L59,M60)/SUM(L59:M60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3073,7 +3041,7 @@
       <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N59" s="21">
         <f>SUM(O59,P60)/SUM(O59:P60)</f>
         <v>0.95774647887323938</v>
       </c>
@@ -3085,36 +3053,36 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="4">
         <v>6</v>
       </c>
       <c r="D60" s="5">
         <v>31</v>
       </c>
-      <c r="E60" s="20"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="4">
         <v>10</v>
       </c>
       <c r="G60" s="5">
         <v>26</v>
       </c>
-      <c r="H60" s="20"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="4">
         <v>8</v>
       </c>
       <c r="J60" s="5">
         <v>29</v>
       </c>
-      <c r="K60" s="20"/>
+      <c r="K60" s="22"/>
       <c r="L60" s="4">
         <v>4</v>
       </c>
       <c r="M60" s="5">
         <v>33</v>
       </c>
-      <c r="N60" s="20"/>
+      <c r="N60" s="22"/>
       <c r="O60" s="4">
         <v>1</v>
       </c>
@@ -3123,10 +3091,10 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="21">
         <f>SUM(C61,D62)/SUM(C61:D62)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -3136,7 +3104,7 @@
       <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="21">
         <f>SUM(F61,G62)/SUM(F61:G62)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -3146,7 +3114,7 @@
       <c r="G61" s="3">
         <v>10</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H61" s="21">
         <f>SUM(I61,J62)/SUM(I61:J62)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -3156,7 +3124,7 @@
       <c r="J61" s="3">
         <v>2</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K61" s="21">
         <f>SUM(L61,M62)/SUM(L61:M62)</f>
         <v>0.92307692307692313</v>
       </c>
@@ -3166,7 +3134,7 @@
       <c r="M61" s="3">
         <v>4</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N61" s="21">
         <f>SUM(O61,P62)/SUM(O61:P62)</f>
         <v>0.96202531645569622</v>
       </c>
@@ -3178,36 +3146,36 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="4">
         <v>8</v>
       </c>
       <c r="D62" s="5">
         <v>32</v>
       </c>
-      <c r="E62" s="20"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="4">
         <v>11</v>
       </c>
       <c r="G62" s="5">
         <v>28</v>
       </c>
-      <c r="H62" s="20"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="4">
         <v>8</v>
       </c>
       <c r="J62" s="5">
         <v>32</v>
       </c>
-      <c r="K62" s="20"/>
+      <c r="K62" s="22"/>
       <c r="L62" s="4">
         <v>2</v>
       </c>
       <c r="M62" s="5">
         <v>37</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="22"/>
       <c r="O62" s="4">
         <v>1</v>
       </c>
@@ -3216,10 +3184,10 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="21">
         <f>SUM(C63,D64)/SUM(C63:D64)</f>
         <v>0.86842105263157898</v>
       </c>
@@ -3229,7 +3197,7 @@
       <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="21">
         <f>SUM(F63,G64)/SUM(F63:G64)</f>
         <v>0.72</v>
       </c>
@@ -3239,7 +3207,7 @@
       <c r="G63" s="3">
         <v>10</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H63" s="21">
         <f>SUM(I63,J64)/SUM(I63:J64)</f>
         <v>0.8783783783783784</v>
       </c>
@@ -3249,7 +3217,7 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K63" s="21">
         <f>SUM(L63,M64)/SUM(L63:M64)</f>
         <v>0.91891891891891897</v>
       </c>
@@ -3259,7 +3227,7 @@
       <c r="M63" s="3">
         <v>3</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N63" s="21">
         <f>SUM(O63,P64)/SUM(O63:P64)</f>
         <v>0.92</v>
       </c>
@@ -3271,36 +3239,36 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="4">
         <v>6</v>
       </c>
       <c r="D64" s="5">
         <v>33</v>
       </c>
-      <c r="E64" s="20"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="4">
         <v>11</v>
       </c>
       <c r="G64" s="5">
         <v>28</v>
       </c>
-      <c r="H64" s="20"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="4">
         <v>8</v>
       </c>
       <c r="J64" s="5">
         <v>31</v>
       </c>
-      <c r="K64" s="20"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="4">
         <v>3</v>
       </c>
       <c r="M64" s="5">
         <v>36</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="22"/>
       <c r="O64" s="4">
         <v>2</v>
       </c>
@@ -3309,10 +3277,10 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="21">
         <f>SUM(C65,D66)/SUM(C65:D66)</f>
         <v>0.90140845070422537</v>
       </c>
@@ -3322,7 +3290,7 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="21">
         <f>SUM(F65,G66)/SUM(F65:G66)</f>
         <v>0.74647887323943662</v>
       </c>
@@ -3332,7 +3300,7 @@
       <c r="G65" s="3">
         <v>9</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H65" s="21">
         <f>SUM(I65,J66)/SUM(I65:J66)</f>
         <v>0.84722222222222221</v>
       </c>
@@ -3342,7 +3310,7 @@
       <c r="J65" s="3">
         <v>4</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K65" s="21">
         <f>SUM(L65,M66)/SUM(L65:M66)</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3352,7 +3320,7 @@
       <c r="M65" s="3">
         <v>3</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N65" s="21">
         <f>SUM(O65,P66)/SUM(O65:P66)</f>
         <v>0.95833333333333337</v>
       </c>
@@ -3364,36 +3332,36 @@
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="4">
         <v>5</v>
       </c>
       <c r="D66" s="5">
         <v>32</v>
       </c>
-      <c r="E66" s="20"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="4">
         <v>9</v>
       </c>
       <c r="G66" s="5">
         <v>27</v>
       </c>
-      <c r="H66" s="20"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="5">
         <v>31</v>
       </c>
-      <c r="K66" s="20"/>
+      <c r="K66" s="22"/>
       <c r="L66" s="4">
         <v>3</v>
       </c>
       <c r="M66" s="5">
         <v>35</v>
       </c>
-      <c r="N66" s="20"/>
+      <c r="N66" s="22"/>
       <c r="O66" s="4">
         <v>1</v>
       </c>
@@ -3402,10 +3370,10 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="21">
         <f>SUM(C67,D68)/SUM(C67:D68)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3415,17 +3383,17 @@
       <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="30">
         <f>SUM(F67,G68)/SUM(F67:G68)</f>
         <v>0.74358974358974361</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="12">
         <v>29</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="13">
         <v>10</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H67" s="21">
         <f>SUM(I67,J68)/SUM(I67:J68)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3435,7 +3403,7 @@
       <c r="J67" s="3">
         <v>1</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K67" s="21">
         <f>SUM(L67,M68)/SUM(L67:M68)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3445,7 +3413,7 @@
       <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N67" s="21">
         <f>SUM(O67,P68)/SUM(O67:P68)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3457,36 +3425,36 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="4">
         <v>7</v>
       </c>
       <c r="D68" s="5">
         <v>31</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="4">
+      <c r="E68" s="31"/>
+      <c r="F68" s="14">
         <v>10</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="15">
         <v>29</v>
       </c>
-      <c r="H68" s="20"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="4">
         <v>7</v>
       </c>
       <c r="J68" s="5">
         <v>27</v>
       </c>
-      <c r="K68" s="20"/>
+      <c r="K68" s="22"/>
       <c r="L68" s="4">
         <v>3</v>
       </c>
       <c r="M68" s="5">
         <v>32</v>
       </c>
-      <c r="N68" s="20"/>
+      <c r="N68" s="22"/>
       <c r="O68" s="4">
         <v>1</v>
       </c>
@@ -3495,10 +3463,10 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="21">
         <f>SUM(C69,D70)/SUM(C69:D70)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3508,7 +3476,7 @@
       <c r="D69" s="3">
         <v>4</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="21">
         <f>SUM(F69,G70)/SUM(F69:G70)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3518,7 +3486,7 @@
       <c r="G69" s="3">
         <v>10</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="21">
         <f>SUM(I69,J70)/SUM(I69:J70)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3528,7 +3496,7 @@
       <c r="J69" s="3">
         <v>1</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="21">
         <f>SUM(L69,M70)/SUM(L69:M70)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3538,7 +3506,7 @@
       <c r="M69" s="3">
         <v>2</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N69" s="21">
         <f>SUM(O69,P70)/SUM(O69:P70)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3550,36 +3518,36 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="4">
         <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>31</v>
       </c>
-      <c r="E70" s="20"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="4">
         <v>10</v>
       </c>
       <c r="G70" s="5">
         <v>29</v>
       </c>
-      <c r="H70" s="20"/>
+      <c r="H70" s="22"/>
       <c r="I70" s="4">
         <v>7</v>
       </c>
       <c r="J70" s="5">
         <v>27</v>
       </c>
-      <c r="K70" s="20"/>
+      <c r="K70" s="22"/>
       <c r="L70" s="4">
         <v>3</v>
       </c>
       <c r="M70" s="5">
         <v>32</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="22"/>
       <c r="O70" s="4">
         <v>1</v>
       </c>
@@ -3588,10 +3556,10 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="19">
+      <c r="A71" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="21">
         <f>SUM(C71,D72)/SUM(C71:D72)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3601,14 +3569,14 @@
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="30">
         <f>SUM(F71,G72)/SUM(F71:G72)</f>
         <v>0.74358974358974361</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="12">
         <v>29</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="13">
         <v>10</v>
       </c>
       <c r="H71" s="23">
@@ -3621,7 +3589,7 @@
       <c r="J71" s="8">
         <v>1</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K71" s="21">
         <f>SUM(L71,M72)/SUM(L71:M72)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3631,7 +3599,7 @@
       <c r="M71" s="3">
         <v>2</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N71" s="21">
         <f>SUM(O71,P72)/SUM(O71:P72)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3643,19 +3611,19 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="4">
         <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>31</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="4">
+      <c r="E72" s="31"/>
+      <c r="F72" s="14">
         <v>10</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="15">
         <v>29</v>
       </c>
       <c r="H72" s="24"/>
@@ -3665,14 +3633,14 @@
       <c r="J72" s="10">
         <v>27</v>
       </c>
-      <c r="K72" s="20"/>
+      <c r="K72" s="22"/>
       <c r="L72" s="4">
         <v>3</v>
       </c>
       <c r="M72" s="5">
         <v>32</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="22"/>
       <c r="O72" s="4">
         <v>1</v>
       </c>
@@ -3682,6 +3650,186 @@
     </row>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="N61:N62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
@@ -3706,186 +3854,6 @@
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3893,10 +3861,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -3908,58 +3876,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="30">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -3969,7 +3937,7 @@
       <c r="D3" s="13">
         <v>124</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="30">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -3979,7 +3947,7 @@
       <c r="G3" s="13">
         <v>534</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="30">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -3989,7 +3957,7 @@
       <c r="J3" s="13">
         <v>145</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="30">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -3999,7 +3967,7 @@
       <c r="M3" s="13">
         <v>127</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="30">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -4011,36 +3979,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="14">
         <v>36</v>
       </c>
       <c r="D4" s="15">
         <v>2440</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="14">
         <v>59</v>
       </c>
       <c r="G4" s="15">
         <v>163</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="14">
         <v>49</v>
       </c>
       <c r="J4" s="15">
         <v>2427</v>
       </c>
-      <c r="K4" s="28"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="14">
         <v>26</v>
       </c>
       <c r="M4" s="15">
         <v>2450</v>
       </c>
-      <c r="N4" s="28"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="14">
         <v>37</v>
       </c>
@@ -4049,10 +4017,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="30">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.80449438202247192</v>
       </c>
@@ -4062,7 +4030,7 @@
       <c r="D5" s="13">
         <v>41</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="30">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.7191011235955056</v>
       </c>
@@ -4072,7 +4040,7 @@
       <c r="G5" s="13">
         <v>40</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="30">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.77303370786516856</v>
       </c>
@@ -4082,7 +4050,7 @@
       <c r="J5" s="13">
         <v>61</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="30">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.84943820224719102</v>
       </c>
@@ -4092,7 +4060,7 @@
       <c r="M5" s="13">
         <v>37</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="30">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.83595505617977528</v>
       </c>
@@ -4104,36 +4072,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="14">
         <v>46</v>
       </c>
       <c r="D6" s="15">
         <v>177</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="14">
         <v>85</v>
       </c>
       <c r="G6" s="15">
         <v>138</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="14">
         <v>40</v>
       </c>
       <c r="J6" s="15">
         <v>183</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="14">
         <v>30</v>
       </c>
       <c r="M6" s="15">
         <v>193</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="14">
         <v>37</v>
       </c>
@@ -4142,7 +4110,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="23">
@@ -4197,7 +4165,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>7</v>
@@ -4235,10 +4203,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="30">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -4248,7 +4216,7 @@
       <c r="D9" s="13">
         <v>36</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="30">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -4258,7 +4226,7 @@
       <c r="G9" s="13">
         <v>534</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="30">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -4268,7 +4236,7 @@
       <c r="J9" s="13">
         <v>49</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="30">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -4278,7 +4246,7 @@
       <c r="M9" s="13">
         <v>26</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="30">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -4290,36 +4258,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="14">
         <v>124</v>
       </c>
       <c r="D10" s="15">
         <v>98</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="14">
         <v>59</v>
       </c>
       <c r="G10" s="15">
         <v>163</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="14">
         <v>145</v>
       </c>
       <c r="J10" s="15">
         <v>77</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="14">
         <v>127</v>
       </c>
       <c r="M10" s="15">
         <v>95</v>
       </c>
-      <c r="N10" s="28"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="14">
         <v>113</v>
       </c>
@@ -4346,58 +4314,58 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32" t="s">
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="30">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.97515653403352853</v>
       </c>
@@ -4407,7 +4375,7 @@
       <c r="D14" s="13">
         <v>121</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="30">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.76126035144415272</v>
       </c>
@@ -4417,7 +4385,7 @@
       <c r="G14" s="13">
         <v>654</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="30">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.93334679862654013</v>
       </c>
@@ -4427,7 +4395,7 @@
       <c r="J14" s="13">
         <v>308</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="30">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.98182185417087453</v>
       </c>
@@ -4437,7 +4405,7 @@
       <c r="M14" s="13">
         <v>90</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="30">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.99474853564936372</v>
       </c>
@@ -4449,36 +4417,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="14">
         <v>2</v>
       </c>
       <c r="D15" s="15">
         <v>2473</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="14">
         <v>528</v>
       </c>
       <c r="G15" s="15">
         <v>1947</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="14">
         <v>22</v>
       </c>
       <c r="J15" s="15">
         <v>2453</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="15">
         <v>2475</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="14">
         <v>0</v>
       </c>
@@ -4487,10 +4455,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="30">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.70167642900424154</v>
       </c>
@@ -4500,7 +4468,7 @@
       <c r="D16" s="13">
         <v>365</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="30">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.68026661280549383</v>
       </c>
@@ -4510,7 +4478,7 @@
       <c r="G16" s="13">
         <v>385</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="30">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.69117350030296909</v>
       </c>
@@ -4520,7 +4488,7 @@
       <c r="J16" s="13">
         <v>258</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="30">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.70248434659664716</v>
       </c>
@@ -4530,7 +4498,7 @@
       <c r="M16" s="13">
         <v>301</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="30">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.70288830539284997</v>
       </c>
@@ -4542,36 +4510,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="14">
         <v>1112</v>
       </c>
       <c r="D17" s="15">
         <v>1363</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="14">
         <v>1198</v>
       </c>
       <c r="G17" s="15">
         <v>1277</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="14">
         <v>1271</v>
       </c>
       <c r="J17" s="15">
         <v>1204</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="14">
         <v>1172</v>
       </c>
       <c r="M17" s="15">
         <v>1303</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="14">
         <v>1168</v>
       </c>
@@ -4580,10 +4548,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="30">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.7604524338517471</v>
       </c>
@@ -4593,7 +4561,7 @@
       <c r="D18" s="13">
         <v>429</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="30">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.69238537669157751</v>
       </c>
@@ -4603,7 +4571,7 @@
       <c r="G18" s="13">
         <v>490</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="30">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.71056352252070287</v>
       </c>
@@ -4613,7 +4581,7 @@
       <c r="J18" s="13">
         <v>282</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="30">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.7402544940416077</v>
       </c>
@@ -4623,7 +4591,7 @@
       <c r="M18" s="13">
         <v>250</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="30">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.74288022621692584</v>
       </c>
@@ -4635,36 +4603,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="14">
         <v>757</v>
       </c>
       <c r="D19" s="15">
         <v>1718</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="14">
         <v>1033</v>
       </c>
       <c r="G19" s="15">
         <v>1442</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="14">
         <v>1151</v>
       </c>
       <c r="J19" s="15">
         <v>1324</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="14">
         <v>1036</v>
       </c>
       <c r="M19" s="15">
         <v>1439</v>
       </c>
-      <c r="N19" s="28"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="14">
         <v>1046</v>
       </c>
@@ -4673,10 +4641,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="30">
         <f t="shared" ref="B20" si="0">SUM(C20,D21)/SUM(C20:D21)</f>
         <v>0.88567966067461124</v>
       </c>
@@ -4686,7 +4654,7 @@
       <c r="D20" s="13">
         <v>484</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="30">
         <f t="shared" ref="E20" si="1">SUM(F20,G21)/SUM(F20:G21)</f>
         <v>0.70773581094728333</v>
       </c>
@@ -4696,7 +4664,7 @@
       <c r="G20" s="13">
         <v>393</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="30">
         <f t="shared" ref="H20" si="2">SUM(I20,J21)/SUM(I20:J21)</f>
         <v>0.78670975560492828</v>
       </c>
@@ -4706,7 +4674,7 @@
       <c r="J20" s="13">
         <v>240</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="30">
         <f t="shared" ref="K20" si="3">SUM(L20,M21)/SUM(L20:M21)</f>
         <v>0.88729549585942236</v>
       </c>
@@ -4716,7 +4684,7 @@
       <c r="M20" s="13">
         <v>175</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="30">
         <f t="shared" ref="N20" si="4">SUM(O20,P21)/SUM(O20:P21)</f>
         <v>0.90224197131892547</v>
       </c>
@@ -4728,36 +4696,36 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="14">
         <v>82</v>
       </c>
       <c r="D21" s="15">
         <v>2393</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="14">
         <v>1054</v>
       </c>
       <c r="G21" s="15">
         <v>1421</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="14">
         <v>816</v>
       </c>
       <c r="J21" s="15">
         <v>1659</v>
       </c>
-      <c r="K21" s="28"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="14">
         <v>383</v>
       </c>
       <c r="M21" s="15">
         <v>2092</v>
       </c>
-      <c r="N21" s="28"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="14">
         <v>321</v>
       </c>
@@ -4766,10 +4734,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="30">
         <f t="shared" ref="B22" si="5">SUM(C22,D23)/SUM(C22:D23)</f>
         <v>0.94001211876388613</v>
       </c>
@@ -4779,7 +4747,7 @@
       <c r="D22" s="13">
         <v>283</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="30">
         <f t="shared" ref="E22" si="6">SUM(F22,G23)/SUM(F22:G23)</f>
         <v>0.73156937992324778</v>
       </c>
@@ -4789,7 +4757,7 @@
       <c r="G22" s="13">
         <v>400</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="30">
         <f t="shared" ref="H22" si="7">SUM(I22,J23)/SUM(I22:J23)</f>
         <v>0.86265400929105229</v>
       </c>
@@ -4799,7 +4767,7 @@
       <c r="J22" s="13">
         <v>405</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="30">
         <f t="shared" ref="K22" si="8">SUM(L22,M23)/SUM(L22:M23)</f>
         <v>0.9654615229246617</v>
       </c>
@@ -4809,7 +4777,7 @@
       <c r="M22" s="13">
         <v>130</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="30">
         <f t="shared" ref="N22" si="9">SUM(O22,P23)/SUM(O22:P23)</f>
         <v>0.98161987477277313</v>
       </c>
@@ -4821,36 +4789,36 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="14">
         <v>14</v>
       </c>
       <c r="D23" s="15">
         <v>2461</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="14">
         <v>929</v>
       </c>
       <c r="G23" s="15">
         <v>1546</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="14">
         <v>275</v>
       </c>
       <c r="J23" s="15">
         <v>2200</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="14">
         <v>41</v>
       </c>
       <c r="M23" s="15">
         <v>2434</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="14">
         <v>10</v>
       </c>
@@ -4859,7 +4827,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="23">
@@ -4872,7 +4840,7 @@
       <c r="D24" s="8">
         <v>171</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="30">
         <f t="shared" ref="E24" si="11">SUM(F24,G25)/SUM(F24:G25)</f>
         <v>0.73399313270046451</v>
       </c>
@@ -4882,7 +4850,7 @@
       <c r="G24" s="13">
         <v>485</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="30">
         <f t="shared" ref="H24" si="12">SUM(I24,J25)/SUM(I24:J25)</f>
         <v>0.88305392849929309</v>
       </c>
@@ -4892,7 +4860,7 @@
       <c r="J24" s="13">
         <v>424</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="30">
         <f t="shared" ref="K24" si="13">SUM(L24,M25)/SUM(L24:M25)</f>
         <v>0.97394465764492022</v>
       </c>
@@ -4902,7 +4870,7 @@
       <c r="M24" s="13">
         <v>102</v>
       </c>
-      <c r="N24" s="27" t="e">
+      <c r="N24" s="30" t="e">
         <f t="shared" ref="N24" si="14">SUM(O24,P25)/SUM(O24:P25)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4910,7 +4878,7 @@
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="24"/>
       <c r="C25" s="9">
         <v>8</v>
@@ -4918,36 +4886,36 @@
       <c r="D25" s="10">
         <v>2467</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="14">
         <v>832</v>
       </c>
       <c r="G25" s="15">
         <v>1643</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="14">
         <v>155</v>
       </c>
       <c r="J25" s="15">
         <v>2320</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="14">
         <v>27</v>
       </c>
       <c r="M25" s="15">
         <v>2448</v>
       </c>
-      <c r="N25" s="28"/>
+      <c r="N25" s="31"/>
       <c r="O25" s="14"/>
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="30">
         <f t="shared" ref="B26" si="15">SUM(C26,D27)/SUM(C26:D27)</f>
         <v>0.96849121389618253</v>
       </c>
@@ -4987,7 +4955,7 @@
       <c r="M26" s="8">
         <v>90</v>
       </c>
-      <c r="N26" s="27" t="e">
+      <c r="N26" s="30" t="e">
         <f t="shared" ref="N26" si="19">SUM(O26,P27)/SUM(O26:P27)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4995,8 +4963,8 @@
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="14">
         <v>5</v>
       </c>
@@ -5024,7 +4992,7 @@
       <c r="M27" s="10">
         <v>2473</v>
       </c>
-      <c r="N27" s="28"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="14"/>
       <c r="P27" s="15"/>
     </row>
@@ -5047,82 +5015,82 @@
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="32" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32" t="s">
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32" t="s">
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="27" t="e">
+      <c r="B31" s="30" t="e">
         <f>SUM(C31,D32)/SUM(C31:D32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="27" t="e">
+      <c r="E31" s="30" t="e">
         <f>SUM(F31,G32)/SUM(F31:G32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="27" t="e">
+      <c r="H31" s="30" t="e">
         <f>SUM(I31,J32)/SUM(I31:J32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="27" t="e">
+      <c r="K31" s="30" t="e">
         <f>SUM(L31,M32)/SUM(L31:M32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="27" t="e">
+      <c r="N31" s="30" t="e">
         <f>SUM(O31,P32)/SUM(O31:P32)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5130,52 +5098,52 @@
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="28"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="28"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="28"/>
+      <c r="K32" s="31"/>
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="28"/>
+      <c r="N32" s="31"/>
       <c r="O32" s="14"/>
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="27" t="e">
+      <c r="B33" s="30" t="e">
         <f>SUM(C33,D34)/SUM(C33:D34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="27" t="e">
+      <c r="E33" s="30" t="e">
         <f>SUM(F33,G34)/SUM(F33:G34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="27" t="e">
+      <c r="H33" s="30" t="e">
         <f>SUM(I33,J34)/SUM(I33:J34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="27" t="e">
+      <c r="K33" s="30" t="e">
         <f>SUM(L33,M34)/SUM(L33:M34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="27" t="e">
+      <c r="N33" s="30" t="e">
         <f>SUM(O33,P34)/SUM(O33:P34)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5183,52 +5151,52 @@
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="28"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="28"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="28"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="14"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="28"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="14"/>
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27" t="e">
+      <c r="B35" s="30" t="e">
         <f>SUM(C35,D36)/SUM(C35:D36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="27" t="e">
+      <c r="E35" s="30" t="e">
         <f>SUM(F35,G36)/SUM(F35:G36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="27" t="e">
+      <c r="H35" s="30" t="e">
         <f>SUM(I35,J36)/SUM(I35:J36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="27" t="e">
+      <c r="K35" s="30" t="e">
         <f>SUM(L35,M36)/SUM(L35:M36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="27" t="e">
+      <c r="N35" s="30" t="e">
         <f>SUM(O35,P36)/SUM(O35:P36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5236,52 +5204,52 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="28"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="28"/>
+      <c r="K36" s="31"/>
       <c r="L36" s="14"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="28"/>
+      <c r="N36" s="31"/>
       <c r="O36" s="14"/>
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="27" t="e">
+      <c r="B37" s="30" t="e">
         <f>SUM(C37,D38)/SUM(C37:D38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="27" t="e">
+      <c r="E37" s="30" t="e">
         <f>SUM(F37,G38)/SUM(F37:G38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="27" t="e">
+      <c r="H37" s="30" t="e">
         <f>SUM(I37,J38)/SUM(I37:J38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="27" t="e">
+      <c r="K37" s="30" t="e">
         <f>SUM(L37,M38)/SUM(L37:M38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="12"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="27" t="e">
+      <c r="N37" s="30" t="e">
         <f>SUM(O37,P38)/SUM(O37:P38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5289,52 +5257,52 @@
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="28"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="28"/>
+      <c r="K38" s="31"/>
       <c r="L38" s="14"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="14"/>
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="27" t="e">
+      <c r="B39" s="30" t="e">
         <f>SUM(C39,D40)/SUM(C39:D40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="27" t="e">
+      <c r="E39" s="30" t="e">
         <f>SUM(F39,G40)/SUM(F39:G40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="27" t="e">
+      <c r="H39" s="30" t="e">
         <f>SUM(I39,J40)/SUM(I39:J40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="27" t="e">
+      <c r="K39" s="30" t="e">
         <f>SUM(L39,M40)/SUM(L39:M40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="13"/>
-      <c r="N39" s="27" t="e">
+      <c r="N39" s="30" t="e">
         <f>SUM(O39,P40)/SUM(O39:P40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5342,52 +5310,52 @@
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="28"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="28"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="14"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="14"/>
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="27" t="e">
+      <c r="B41" s="30" t="e">
         <f>SUM(C41,D42)/SUM(C41:D42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="27" t="e">
+      <c r="E41" s="30" t="e">
         <f>SUM(F41,G42)/SUM(F41:G42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="27" t="e">
+      <c r="H41" s="30" t="e">
         <f>SUM(I41,J42)/SUM(I41:J42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="27" t="e">
+      <c r="K41" s="30" t="e">
         <f>SUM(L41,M42)/SUM(L41:M42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="27" t="e">
+      <c r="N41" s="30" t="e">
         <f>SUM(O41,P42)/SUM(O41:P42)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5395,52 +5363,52 @@
       <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="28"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="28"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="28"/>
+      <c r="K42" s="31"/>
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="28"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="14"/>
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="27" t="e">
+      <c r="B43" s="30" t="e">
         <f>SUM(C43,D44)/SUM(C43:D44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="27" t="e">
+      <c r="E43" s="30" t="e">
         <f>SUM(F43,G44)/SUM(F43:G44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="27" t="e">
+      <c r="H43" s="30" t="e">
         <f>SUM(I43,J44)/SUM(I43:J44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="27" t="e">
+      <c r="K43" s="30" t="e">
         <f>SUM(L43,M44)/SUM(L43:M44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="27" t="e">
+      <c r="N43" s="30" t="e">
         <f>SUM(O43,P44)/SUM(O43:P44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5448,52 +5416,52 @@
       <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="28"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="28"/>
+      <c r="H44" s="31"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="28"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="14"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="14"/>
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="27" t="e">
+      <c r="B45" s="30" t="e">
         <f>SUM(C45,D46)/SUM(C45:D46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="27" t="e">
+      <c r="E45" s="30" t="e">
         <f>SUM(F45,G46)/SUM(F45:G46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="27" t="e">
+      <c r="H45" s="30" t="e">
         <f>SUM(I45,J46)/SUM(I45:J46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="27" t="e">
+      <c r="K45" s="30" t="e">
         <f>SUM(L45,M46)/SUM(L45:M46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="27" t="e">
+      <c r="N45" s="30" t="e">
         <f>SUM(O45,P46)/SUM(O45:P46)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5501,52 +5469,52 @@
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="28"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="28"/>
+      <c r="H46" s="31"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="28"/>
+      <c r="K46" s="31"/>
       <c r="L46" s="14"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="14"/>
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="27" t="e">
+      <c r="B47" s="30" t="e">
         <f>SUM(C47,D48)/SUM(C47:D48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="27" t="e">
+      <c r="E47" s="30" t="e">
         <f>SUM(F47,G48)/SUM(F47:G48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="27" t="e">
+      <c r="H47" s="30" t="e">
         <f>SUM(I47,J48)/SUM(I47:J48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="27" t="e">
+      <c r="K47" s="30" t="e">
         <f>SUM(L47,M48)/SUM(L47:M48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="27" t="e">
+      <c r="N47" s="30" t="e">
         <f>SUM(O47,P48)/SUM(O47:P48)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5554,52 +5522,52 @@
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="28"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="28"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="28"/>
+      <c r="K48" s="31"/>
       <c r="L48" s="14"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="28"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="14"/>
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="27" t="e">
+      <c r="B49" s="30" t="e">
         <f>SUM(C49,D50)/SUM(C49:D50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="27" t="e">
+      <c r="E49" s="30" t="e">
         <f>SUM(F49,G50)/SUM(F49:G50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="27" t="e">
+      <c r="H49" s="30" t="e">
         <f>SUM(I49,J50)/SUM(I49:J50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="27" t="e">
+      <c r="K49" s="30" t="e">
         <f>SUM(L49,M50)/SUM(L49:M50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="27" t="e">
+      <c r="N49" s="30" t="e">
         <f>SUM(O49,P50)/SUM(O49:P50)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5607,37 +5575,139 @@
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="28"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="28"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="28"/>
+      <c r="K50" s="31"/>
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="14"/>
       <c r="P50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="K9:K10"/>
@@ -5656,120 +5726,18 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output Summary.xlsx
+++ b/Output Summary.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD824125-D050-410A-B2FE-1139D6CD771F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="2550" windowWidth="14280" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heart" sheetId="5" r:id="rId1"/>
     <sheet name="Toxic" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -335,16 +336,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,19 +354,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,7 +366,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,10 +715,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
@@ -693,58 +728,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -754,7 +789,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -764,7 +799,7 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -774,7 +809,7 @@
       <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="19">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -784,7 +819,7 @@
       <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="19">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.82456140350877194</v>
       </c>
@@ -796,36 +831,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4">
         <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="4">
         <v>7</v>
       </c>
       <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="4">
         <v>8</v>
       </c>
       <c r="M4" s="5">
         <v>11</v>
       </c>
-      <c r="N4" s="22"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="4">
         <v>8</v>
       </c>
@@ -834,10 +869,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.57894736842105265</v>
       </c>
@@ -847,7 +882,7 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.64864864864864868</v>
       </c>
@@ -857,7 +892,7 @@
       <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.72972972972972971</v>
       </c>
@@ -867,7 +902,7 @@
       <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -877,7 +912,7 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="19">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -889,36 +924,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4">
         <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>9</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="5">
         <v>13</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="5">
         <v>15</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="4">
         <v>4</v>
       </c>
@@ -927,7 +962,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="23">
@@ -982,7 +1017,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>10</v>
@@ -1020,10 +1055,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -1033,7 +1068,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -1043,7 +1078,7 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -1053,7 +1088,7 @@
       <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1063,7 +1098,7 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="19">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1075,36 +1110,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4">
         <v>17</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="4">
         <v>14</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="4">
         <v>9</v>
       </c>
       <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="4">
         <v>9</v>
       </c>
@@ -1113,58 +1148,58 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="26" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="19">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.8</v>
       </c>
@@ -1216,8 +1251,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
@@ -1254,10 +1289,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1267,7 +1302,7 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.65</v>
       </c>
@@ -1277,7 +1312,7 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1287,7 +1322,7 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="19">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1297,7 +1332,7 @@
       <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="19">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.9375</v>
       </c>
@@ -1309,36 +1344,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="4">
         <v>6</v>
       </c>
       <c r="G17" s="5">
         <v>34</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="4">
         <v>8</v>
       </c>
       <c r="J17" s="5">
         <v>31</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="4">
         <v>5</v>
       </c>
       <c r="M17" s="5">
         <v>35</v>
       </c>
-      <c r="N17" s="22"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="4">
         <v>2</v>
       </c>
@@ -1347,7 +1382,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="23">
@@ -1360,7 +1395,7 @@
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.63414634146341464</v>
       </c>
@@ -1370,7 +1405,7 @@
       <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1380,7 +1415,7 @@
       <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="19">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -1390,7 +1425,7 @@
       <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="19">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.9375</v>
       </c>
@@ -1402,7 +1437,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="24"/>
       <c r="C19" s="9">
         <v>8</v>
@@ -1410,28 +1445,28 @@
       <c r="D19" s="10">
         <v>32</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>34</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4">
         <v>8</v>
       </c>
       <c r="J19" s="5">
         <v>31</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="4">
         <v>4</v>
       </c>
       <c r="M19" s="5">
         <v>36</v>
       </c>
-      <c r="N19" s="22"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="4">
         <v>2</v>
       </c>
@@ -1440,58 +1475,58 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="26" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26" t="s">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26" t="s">
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="19">
         <f>SUM(C23,D24)/SUM(C23:D24)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -1501,7 +1536,7 @@
       <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <f>SUM(F23,G24)/SUM(F23:G24)</f>
         <v>0.65</v>
       </c>
@@ -1511,7 +1546,7 @@
       <c r="G23" s="3">
         <v>23</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="19">
         <f>SUM(I23,J24)/SUM(I23:J24)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1521,7 +1556,7 @@
       <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="19">
         <f>SUM(L23,M24)/SUM(L23:M24)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1531,7 +1566,7 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="19">
         <f>SUM(O23,P24)/SUM(O23:P24)</f>
         <v>0.95</v>
       </c>
@@ -1543,36 +1578,36 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4">
         <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>33</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>35</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="5">
         <v>33</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="4">
         <v>4</v>
       </c>
       <c r="M24" s="5">
         <v>36</v>
       </c>
-      <c r="N24" s="22"/>
+      <c r="N24" s="20"/>
       <c r="O24" s="4">
         <v>2</v>
       </c>
@@ -1581,7 +1616,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="23">
@@ -1636,7 +1671,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="24"/>
       <c r="C26" s="9">
         <v>7</v>
@@ -1692,58 +1727,58 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="26" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <f>SUM(C30,D31)/SUM(C30:D31)</f>
         <v>0.83544303797468356</v>
       </c>
@@ -1753,7 +1788,7 @@
       <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <f>SUM(F30,G31)/SUM(F30:G31)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -1763,7 +1798,7 @@
       <c r="G30" s="3">
         <v>21</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <f>SUM(I30,J31)/SUM(I30:J31)</f>
         <v>0.875</v>
       </c>
@@ -1773,7 +1808,7 @@
       <c r="J30" s="3">
         <v>3</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="19">
         <f>SUM(L30,M31)/SUM(L30:M31)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1783,7 +1818,7 @@
       <c r="M30" s="3">
         <v>2</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="19">
         <f>SUM(O30,P31)/SUM(O30:P31)</f>
         <v>0.95</v>
       </c>
@@ -1795,36 +1830,36 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="4">
         <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>31</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
       <c r="G31" s="5">
         <v>34</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="4">
         <v>7</v>
       </c>
       <c r="J31" s="5">
         <v>33</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="20"/>
       <c r="L31" s="4">
         <v>3</v>
       </c>
       <c r="M31" s="5">
         <v>37</v>
       </c>
-      <c r="N31" s="22"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="4">
         <v>0</v>
       </c>
@@ -1833,10 +1868,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <f>SUM(C32,D33)/SUM(C32:D33)</f>
         <v>0.85</v>
       </c>
@@ -1856,7 +1891,7 @@
       <c r="G32" s="8">
         <v>10</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="19">
         <f>SUM(I32,J33)/SUM(I32:J33)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="19">
         <f>SUM(L32,M33)/SUM(L32:M33)</f>
         <v>0.9</v>
       </c>
@@ -1876,7 +1911,7 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="19">
         <f>SUM(O32,P33)/SUM(O32:P33)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1888,8 +1923,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
@@ -1903,21 +1938,21 @@
       <c r="G33" s="10">
         <v>29</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="4">
         <v>8</v>
       </c>
       <c r="J33" s="5">
         <v>32</v>
       </c>
-      <c r="K33" s="22"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="4">
         <v>5</v>
       </c>
       <c r="M33" s="5">
         <v>35</v>
       </c>
-      <c r="N33" s="22"/>
+      <c r="N33" s="20"/>
       <c r="O33" s="4">
         <v>1</v>
       </c>
@@ -1926,10 +1961,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="19">
         <f>SUM(C34,D35)/SUM(C34:D35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1939,7 +1974,7 @@
       <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <f>SUM(F34,G35)/SUM(F34:G35)</f>
         <v>0.5</v>
       </c>
@@ -1949,7 +1984,7 @@
       <c r="G34" s="3">
         <v>36</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="19">
         <f>SUM(I34,J35)/SUM(I34:J35)</f>
         <v>0.79746835443037978</v>
       </c>
@@ -1959,7 +1994,7 @@
       <c r="J34" s="3">
         <v>4</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="19">
         <f>SUM(L34,M35)/SUM(L34:M35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1969,7 +2004,7 @@
       <c r="M34" s="3">
         <v>4</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="19">
         <f>SUM(O34,P35)/SUM(O34:P35)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1981,36 +2016,36 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4">
         <v>11</v>
       </c>
       <c r="D35" s="5">
         <v>28</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="4">
         <v>4</v>
       </c>
       <c r="G35" s="5">
         <v>36</v>
       </c>
-      <c r="H35" s="22"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="5">
         <v>27</v>
       </c>
-      <c r="K35" s="22"/>
+      <c r="K35" s="20"/>
       <c r="L35" s="4">
         <v>11</v>
       </c>
       <c r="M35" s="5">
         <v>29</v>
       </c>
-      <c r="N35" s="22"/>
+      <c r="N35" s="20"/>
       <c r="O35" s="4">
         <v>6</v>
       </c>
@@ -2019,10 +2054,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="19">
         <f>SUM(C36,D37)/SUM(C36:D37)</f>
         <v>0.82499999999999996</v>
       </c>
@@ -2032,7 +2067,7 @@
       <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <f>SUM(F36,G37)/SUM(F36:G37)</f>
         <v>0.63291139240506333</v>
       </c>
@@ -2042,7 +2077,7 @@
       <c r="G36" s="3">
         <v>25</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <f>SUM(I36,J37)/SUM(I36:J37)</f>
         <v>0.85</v>
       </c>
@@ -2052,7 +2087,7 @@
       <c r="J36" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="19">
         <f>SUM(L36,M37)/SUM(L36:M37)</f>
         <v>0.88607594936708856</v>
       </c>
@@ -2062,7 +2097,7 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="19">
         <f>SUM(O36,P37)/SUM(O36:P37)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2074,36 +2109,36 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4">
         <v>9</v>
       </c>
       <c r="D37" s="5">
         <v>31</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="4">
         <v>4</v>
       </c>
       <c r="G37" s="5">
         <v>35</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="4">
         <v>8</v>
       </c>
       <c r="J37" s="5">
         <v>32</v>
       </c>
-      <c r="K37" s="22"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="4">
         <v>6</v>
       </c>
       <c r="M37" s="5">
         <v>33</v>
       </c>
-      <c r="N37" s="22"/>
+      <c r="N37" s="20"/>
       <c r="O37" s="4">
         <v>4</v>
       </c>
@@ -2112,10 +2147,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="19">
         <f t="shared" ref="B38" si="0">SUM(C38,D39)/SUM(C38:D39)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2125,7 +2160,7 @@
       <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <f t="shared" ref="E38" si="1">SUM(F38,G39)/SUM(F38:G39)</f>
         <v>0.60759493670886078</v>
       </c>
@@ -2135,7 +2170,7 @@
       <c r="G38" s="3">
         <v>27</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="19">
         <f t="shared" ref="H38" si="2">SUM(I38,J39)/SUM(I38:J39)</f>
         <v>0.875</v>
       </c>
@@ -2145,7 +2180,7 @@
       <c r="J38" s="3">
         <v>3</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="19">
         <f t="shared" ref="K38" si="3">SUM(L38,M39)/SUM(L38:M39)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2167,29 +2202,29 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4">
         <v>13</v>
       </c>
       <c r="D39" s="5">
         <v>27</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="4">
         <v>4</v>
       </c>
       <c r="G39" s="5">
         <v>35</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="4">
         <v>7</v>
       </c>
       <c r="J39" s="5">
         <v>33</v>
       </c>
-      <c r="K39" s="22"/>
+      <c r="K39" s="20"/>
       <c r="L39" s="4">
         <v>4</v>
       </c>
@@ -2205,10 +2240,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="19">
         <f t="shared" ref="B40" si="5">SUM(C40,D41)/SUM(C40:D41)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2218,7 +2253,7 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
         <f t="shared" ref="E40" si="6">SUM(F40,G41)/SUM(F40:G41)</f>
         <v>0.67088607594936711</v>
       </c>
@@ -2228,7 +2263,7 @@
       <c r="G40" s="3">
         <v>21</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="19">
         <f t="shared" ref="H40" si="7">SUM(I40,J41)/SUM(I40:J41)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2248,7 +2283,7 @@
       <c r="M40" s="8">
         <v>1</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="19">
         <f t="shared" ref="N40" si="9">SUM(O40,P41)/SUM(O40:P41)</f>
         <v>0.95</v>
       </c>
@@ -2260,22 +2295,22 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="4">
         <v>12</v>
       </c>
       <c r="D41" s="5">
         <v>28</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="4">
         <v>5</v>
       </c>
       <c r="G41" s="5">
         <v>35</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="4">
         <v>8</v>
       </c>
@@ -2289,7 +2324,7 @@
       <c r="M41" s="10">
         <v>35</v>
       </c>
-      <c r="N41" s="22"/>
+      <c r="N41" s="20"/>
       <c r="O41" s="4">
         <v>1</v>
       </c>
@@ -2298,10 +2333,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="19">
         <f t="shared" ref="B42" si="10">SUM(C42,D43)/SUM(C42:D43)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2311,7 +2346,7 @@
       <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <f t="shared" ref="E42" si="11">SUM(F42,G43)/SUM(F42:G43)</f>
         <v>0.65</v>
       </c>
@@ -2331,7 +2366,7 @@
       <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="19">
         <f t="shared" ref="K42" si="13">SUM(L42,M43)/SUM(L42:M43)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2341,7 +2376,7 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="19">
         <f t="shared" ref="N42" si="14">SUM(O42,P43)/SUM(O42:P43)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2353,15 +2388,15 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4">
         <v>7</v>
       </c>
       <c r="D43" s="5">
         <v>33</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="4">
         <v>6</v>
       </c>
@@ -2375,14 +2410,14 @@
       <c r="J43" s="10">
         <v>32</v>
       </c>
-      <c r="K43" s="22"/>
+      <c r="K43" s="20"/>
       <c r="L43" s="4">
         <v>5</v>
       </c>
       <c r="M43" s="5">
         <v>35</v>
       </c>
-      <c r="N43" s="22"/>
+      <c r="N43" s="20"/>
       <c r="O43" s="4">
         <v>0</v>
       </c>
@@ -2391,10 +2426,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="19">
         <f t="shared" ref="B44" si="15">SUM(C44,D45)/SUM(C44:D45)</f>
         <v>0.85897435897435892</v>
       </c>
@@ -2404,7 +2439,7 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <f t="shared" ref="E44" si="16">SUM(F44,G45)/SUM(F44:G45)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2414,7 +2449,7 @@
       <c r="G44" s="3">
         <v>22</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="19">
         <f t="shared" ref="H44" si="17">SUM(I44,J45)/SUM(I44:J45)</f>
         <v>0.875</v>
       </c>
@@ -2424,7 +2459,7 @@
       <c r="J44" s="3">
         <v>3</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="19">
         <f t="shared" ref="K44" si="18">SUM(L44,M45)/SUM(L44:M45)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2434,7 +2469,7 @@
       <c r="M44" s="3">
         <v>2</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44" s="19">
         <f t="shared" ref="N44" si="19">SUM(O44,P45)/SUM(O44:P45)</f>
         <v>0.95</v>
       </c>
@@ -2446,36 +2481,36 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4">
         <v>7</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="4">
         <v>5</v>
       </c>
       <c r="G45" s="5">
         <v>34</v>
       </c>
-      <c r="H45" s="22"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="4">
         <v>7</v>
       </c>
       <c r="J45" s="5">
         <v>33</v>
       </c>
-      <c r="K45" s="22"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="4">
         <v>4</v>
       </c>
       <c r="M45" s="5">
         <v>36</v>
       </c>
-      <c r="N45" s="22"/>
+      <c r="N45" s="20"/>
       <c r="O45" s="4">
         <v>1</v>
       </c>
@@ -2484,7 +2519,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="23">
@@ -2497,7 +2532,7 @@
       <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <f t="shared" ref="E46" si="21">SUM(F46,G47)/SUM(F46:G47)</f>
         <v>0.65</v>
       </c>
@@ -2507,7 +2542,7 @@
       <c r="G46" s="3">
         <v>22</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="19">
         <f t="shared" ref="H46" si="22">SUM(I46,J47)/SUM(I46:J47)</f>
         <v>0.85</v>
       </c>
@@ -2517,7 +2552,7 @@
       <c r="J46" s="3">
         <v>4</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="19">
         <f t="shared" ref="K46" si="23">SUM(L46,M47)/SUM(L46:M47)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2527,7 +2562,7 @@
       <c r="M46" s="3">
         <v>2</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="19">
         <f t="shared" ref="N46" si="24">SUM(O46,P47)/SUM(O46:P47)</f>
         <v>0.96153846153846156</v>
       </c>
@@ -2539,7 +2574,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="24"/>
       <c r="C47" s="9">
         <v>6</v>
@@ -2547,28 +2582,28 @@
       <c r="D47" s="10">
         <v>34</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="4">
         <v>6</v>
       </c>
       <c r="G47" s="5">
         <v>34</v>
       </c>
-      <c r="H47" s="22"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="4">
         <v>8</v>
       </c>
       <c r="J47" s="5">
         <v>32</v>
       </c>
-      <c r="K47" s="22"/>
+      <c r="K47" s="20"/>
       <c r="L47" s="4">
         <v>3</v>
       </c>
       <c r="M47" s="5">
         <v>36</v>
       </c>
-      <c r="N47" s="22"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="4">
         <v>0</v>
       </c>
@@ -2577,10 +2612,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="19">
         <f t="shared" ref="B48" si="25">SUM(C48,D49)/SUM(C48:D49)</f>
         <v>0.85</v>
       </c>
@@ -2590,7 +2625,7 @@
       <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="19">
         <f t="shared" ref="E48" si="26">SUM(F48,G49)/SUM(F48:G49)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2600,7 +2635,7 @@
       <c r="G48" s="3">
         <v>22</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="19">
         <f t="shared" ref="H48" si="27">SUM(I48,J49)/SUM(I48:J49)</f>
         <v>0.875</v>
       </c>
@@ -2610,7 +2645,7 @@
       <c r="J48" s="3">
         <v>3</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="19">
         <f t="shared" ref="K48" si="28">SUM(L48,M49)/SUM(L48:M49)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -2620,7 +2655,7 @@
       <c r="M48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N48" s="19">
         <f t="shared" ref="N48" si="29">SUM(O48,P49)/SUM(O48:P49)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2632,36 +2667,36 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="4">
         <v>7</v>
       </c>
       <c r="D49" s="5">
         <v>33</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="5">
         <v>34</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="5">
         <v>33</v>
       </c>
-      <c r="K49" s="22"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="4">
         <v>5</v>
       </c>
       <c r="M49" s="5">
         <v>35</v>
       </c>
-      <c r="N49" s="22"/>
+      <c r="N49" s="20"/>
       <c r="O49" s="4">
         <v>1</v>
       </c>
@@ -2670,58 +2705,58 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="26" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26" t="s">
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26" t="s">
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="19">
         <f>SUM(C53,D54)/SUM(C53:D54)</f>
         <v>0.875</v>
       </c>
@@ -2741,7 +2776,7 @@
       <c r="G53" s="8">
         <v>10</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="19">
         <f>SUM(I53,J54)/SUM(I53:J54)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2761,7 +2796,7 @@
       <c r="M53" s="8">
         <v>3</v>
       </c>
-      <c r="N53" s="21">
+      <c r="N53" s="19">
         <f>SUM(O53,P54)/SUM(O53:P54)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -2773,8 +2808,8 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4">
         <v>8</v>
       </c>
@@ -2788,7 +2823,7 @@
       <c r="G54" s="10">
         <v>29</v>
       </c>
-      <c r="H54" s="22"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="4">
         <v>9</v>
       </c>
@@ -2802,7 +2837,7 @@
       <c r="M54" s="10">
         <v>37</v>
       </c>
-      <c r="N54" s="22"/>
+      <c r="N54" s="20"/>
       <c r="O54" s="4">
         <v>1</v>
       </c>
@@ -2811,10 +2846,10 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="19">
         <f>SUM(C55,D56)/SUM(C55:D56)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -2824,7 +2859,7 @@
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="19">
         <f>SUM(F55,G56)/SUM(F55:G56)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2834,7 +2869,7 @@
       <c r="G55" s="3">
         <v>11</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="19">
         <f>SUM(I55,J56)/SUM(I55:J56)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2844,7 +2879,7 @@
       <c r="J55" s="3">
         <v>3</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="19">
         <f>SUM(L55,M56)/SUM(L55:M56)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2867,29 +2902,29 @@
       <c r="Q55" s="18"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4">
         <v>8</v>
       </c>
       <c r="D56" s="5">
         <v>32</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="4">
         <v>10</v>
       </c>
       <c r="G56" s="5">
         <v>29</v>
       </c>
-      <c r="H56" s="22"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="4">
         <v>9</v>
       </c>
       <c r="J56" s="5">
         <v>31</v>
       </c>
-      <c r="K56" s="22"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="4">
         <v>3</v>
       </c>
@@ -2905,7 +2940,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="23">
@@ -2918,7 +2953,7 @@
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="19">
         <f>SUM(F57,G58)/SUM(F57:G58)</f>
         <v>0.7466666666666667</v>
       </c>
@@ -2928,7 +2963,7 @@
       <c r="G57" s="3">
         <v>10</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="19">
         <f>SUM(I57,J58)/SUM(I57:J58)</f>
         <v>0.83783783783783783</v>
       </c>
@@ -2938,7 +2973,7 @@
       <c r="J57" s="3">
         <v>4</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="19">
         <f>SUM(L57,M58)/SUM(L57:M58)</f>
         <v>0.93333333333333335</v>
       </c>
@@ -2948,7 +2983,7 @@
       <c r="M57" s="3">
         <v>3</v>
       </c>
-      <c r="N57" s="21">
+      <c r="N57" s="19">
         <f>SUM(O57,P58)/SUM(O57:P58)</f>
         <v>0.94666666666666666</v>
       </c>
@@ -2960,7 +2995,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="24"/>
       <c r="C58" s="9">
         <v>5</v>
@@ -2968,28 +3003,28 @@
       <c r="D58" s="10">
         <v>33</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="4">
         <v>9</v>
       </c>
       <c r="G58" s="5">
         <v>28</v>
       </c>
-      <c r="H58" s="22"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="4">
         <v>8</v>
       </c>
       <c r="J58" s="5">
         <v>30</v>
       </c>
-      <c r="K58" s="22"/>
+      <c r="K58" s="20"/>
       <c r="L58" s="4">
         <v>2</v>
       </c>
       <c r="M58" s="5">
         <v>36</v>
       </c>
-      <c r="N58" s="22"/>
+      <c r="N58" s="20"/>
       <c r="O58" s="4">
         <v>2</v>
       </c>
@@ -2998,10 +3033,10 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="19">
         <f>SUM(C59,D60)/SUM(C59:D60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3011,7 +3046,7 @@
       <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <f>SUM(F59,G60)/SUM(F59:G60)</f>
         <v>0.73239436619718312</v>
       </c>
@@ -3021,7 +3056,7 @@
       <c r="G59" s="3">
         <v>9</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="19">
         <f>SUM(I59,J60)/SUM(I59:J60)</f>
         <v>0.87323943661971826</v>
       </c>
@@ -3031,7 +3066,7 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="19">
         <f>SUM(L59,M60)/SUM(L59:M60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3041,7 +3076,7 @@
       <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="N59" s="21">
+      <c r="N59" s="19">
         <f>SUM(O59,P60)/SUM(O59:P60)</f>
         <v>0.95774647887323938</v>
       </c>
@@ -3053,36 +3088,36 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="4">
         <v>6</v>
       </c>
       <c r="D60" s="5">
         <v>31</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="4">
         <v>10</v>
       </c>
       <c r="G60" s="5">
         <v>26</v>
       </c>
-      <c r="H60" s="22"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="4">
         <v>8</v>
       </c>
       <c r="J60" s="5">
         <v>29</v>
       </c>
-      <c r="K60" s="22"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="4">
         <v>4</v>
       </c>
       <c r="M60" s="5">
         <v>33</v>
       </c>
-      <c r="N60" s="22"/>
+      <c r="N60" s="20"/>
       <c r="O60" s="4">
         <v>1</v>
       </c>
@@ -3091,10 +3126,10 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="19">
         <f>SUM(C61,D62)/SUM(C61:D62)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -3104,7 +3139,7 @@
       <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="19">
         <f>SUM(F61,G62)/SUM(F61:G62)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -3114,7 +3149,7 @@
       <c r="G61" s="3">
         <v>10</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="19">
         <f>SUM(I61,J62)/SUM(I61:J62)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -3124,7 +3159,7 @@
       <c r="J61" s="3">
         <v>2</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="19">
         <f>SUM(L61,M62)/SUM(L61:M62)</f>
         <v>0.92307692307692313</v>
       </c>
@@ -3134,7 +3169,7 @@
       <c r="M61" s="3">
         <v>4</v>
       </c>
-      <c r="N61" s="21">
+      <c r="N61" s="19">
         <f>SUM(O61,P62)/SUM(O61:P62)</f>
         <v>0.96202531645569622</v>
       </c>
@@ -3146,36 +3181,36 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4">
         <v>8</v>
       </c>
       <c r="D62" s="5">
         <v>32</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="4">
         <v>11</v>
       </c>
       <c r="G62" s="5">
         <v>28</v>
       </c>
-      <c r="H62" s="22"/>
+      <c r="H62" s="20"/>
       <c r="I62" s="4">
         <v>8</v>
       </c>
       <c r="J62" s="5">
         <v>32</v>
       </c>
-      <c r="K62" s="22"/>
+      <c r="K62" s="20"/>
       <c r="L62" s="4">
         <v>2</v>
       </c>
       <c r="M62" s="5">
         <v>37</v>
       </c>
-      <c r="N62" s="22"/>
+      <c r="N62" s="20"/>
       <c r="O62" s="4">
         <v>1</v>
       </c>
@@ -3184,10 +3219,10 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="19">
         <f>SUM(C63,D64)/SUM(C63:D64)</f>
         <v>0.86842105263157898</v>
       </c>
@@ -3197,7 +3232,7 @@
       <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="19">
         <f>SUM(F63,G64)/SUM(F63:G64)</f>
         <v>0.72</v>
       </c>
@@ -3207,7 +3242,7 @@
       <c r="G63" s="3">
         <v>10</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="19">
         <f>SUM(I63,J64)/SUM(I63:J64)</f>
         <v>0.8783783783783784</v>
       </c>
@@ -3217,7 +3252,7 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="19">
         <f>SUM(L63,M64)/SUM(L63:M64)</f>
         <v>0.91891891891891897</v>
       </c>
@@ -3227,7 +3262,7 @@
       <c r="M63" s="3">
         <v>3</v>
       </c>
-      <c r="N63" s="21">
+      <c r="N63" s="19">
         <f>SUM(O63,P64)/SUM(O63:P64)</f>
         <v>0.92</v>
       </c>
@@ -3239,36 +3274,36 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4">
         <v>6</v>
       </c>
       <c r="D64" s="5">
         <v>33</v>
       </c>
-      <c r="E64" s="22"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="4">
         <v>11</v>
       </c>
       <c r="G64" s="5">
         <v>28</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="20"/>
       <c r="I64" s="4">
         <v>8</v>
       </c>
       <c r="J64" s="5">
         <v>31</v>
       </c>
-      <c r="K64" s="22"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="4">
         <v>3</v>
       </c>
       <c r="M64" s="5">
         <v>36</v>
       </c>
-      <c r="N64" s="22"/>
+      <c r="N64" s="20"/>
       <c r="O64" s="4">
         <v>2</v>
       </c>
@@ -3277,10 +3312,10 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="19">
         <f>SUM(C65,D66)/SUM(C65:D66)</f>
         <v>0.90140845070422537</v>
       </c>
@@ -3290,7 +3325,7 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="19">
         <f>SUM(F65,G66)/SUM(F65:G66)</f>
         <v>0.74647887323943662</v>
       </c>
@@ -3300,7 +3335,7 @@
       <c r="G65" s="3">
         <v>9</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="19">
         <f>SUM(I65,J66)/SUM(I65:J66)</f>
         <v>0.84722222222222221</v>
       </c>
@@ -3310,7 +3345,7 @@
       <c r="J65" s="3">
         <v>4</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="19">
         <f>SUM(L65,M66)/SUM(L65:M66)</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3320,7 +3355,7 @@
       <c r="M65" s="3">
         <v>3</v>
       </c>
-      <c r="N65" s="21">
+      <c r="N65" s="19">
         <f>SUM(O65,P66)/SUM(O65:P66)</f>
         <v>0.95833333333333337</v>
       </c>
@@ -3332,36 +3367,36 @@
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4">
         <v>5</v>
       </c>
       <c r="D66" s="5">
         <v>32</v>
       </c>
-      <c r="E66" s="22"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="4">
         <v>9</v>
       </c>
       <c r="G66" s="5">
         <v>27</v>
       </c>
-      <c r="H66" s="22"/>
+      <c r="H66" s="20"/>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="5">
         <v>31</v>
       </c>
-      <c r="K66" s="22"/>
+      <c r="K66" s="20"/>
       <c r="L66" s="4">
         <v>3</v>
       </c>
       <c r="M66" s="5">
         <v>35</v>
       </c>
-      <c r="N66" s="22"/>
+      <c r="N66" s="20"/>
       <c r="O66" s="4">
         <v>1</v>
       </c>
@@ -3370,10 +3405,10 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="19">
         <f>SUM(C67,D68)/SUM(C67:D68)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3383,7 +3418,7 @@
       <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="27">
         <f>SUM(F67,G68)/SUM(F67:G68)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3393,7 +3428,7 @@
       <c r="G67" s="13">
         <v>10</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="19">
         <f>SUM(I67,J68)/SUM(I67:J68)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3403,7 +3438,7 @@
       <c r="J67" s="3">
         <v>1</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="19">
         <f>SUM(L67,M68)/SUM(L67:M68)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3413,7 +3448,7 @@
       <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="N67" s="21">
+      <c r="N67" s="19">
         <f>SUM(O67,P68)/SUM(O67:P68)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3425,36 +3460,36 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4">
         <v>7</v>
       </c>
       <c r="D68" s="5">
         <v>31</v>
       </c>
-      <c r="E68" s="31"/>
+      <c r="E68" s="28"/>
       <c r="F68" s="14">
         <v>10</v>
       </c>
       <c r="G68" s="15">
         <v>29</v>
       </c>
-      <c r="H68" s="22"/>
+      <c r="H68" s="20"/>
       <c r="I68" s="4">
         <v>7</v>
       </c>
       <c r="J68" s="5">
         <v>27</v>
       </c>
-      <c r="K68" s="22"/>
+      <c r="K68" s="20"/>
       <c r="L68" s="4">
         <v>3</v>
       </c>
       <c r="M68" s="5">
         <v>32</v>
       </c>
-      <c r="N68" s="22"/>
+      <c r="N68" s="20"/>
       <c r="O68" s="4">
         <v>1</v>
       </c>
@@ -3463,10 +3498,10 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="19">
         <f>SUM(C69,D70)/SUM(C69:D70)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3476,7 +3511,7 @@
       <c r="D69" s="3">
         <v>4</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="19">
         <f>SUM(F69,G70)/SUM(F69:G70)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3486,7 +3521,7 @@
       <c r="G69" s="3">
         <v>10</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="19">
         <f>SUM(I69,J70)/SUM(I69:J70)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3496,7 +3531,7 @@
       <c r="J69" s="3">
         <v>1</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="19">
         <f>SUM(L69,M70)/SUM(L69:M70)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3506,7 +3541,7 @@
       <c r="M69" s="3">
         <v>2</v>
       </c>
-      <c r="N69" s="21">
+      <c r="N69" s="19">
         <f>SUM(O69,P70)/SUM(O69:P70)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3518,36 +3553,36 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4">
         <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>31</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="4">
         <v>10</v>
       </c>
       <c r="G70" s="5">
         <v>29</v>
       </c>
-      <c r="H70" s="22"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="4">
         <v>7</v>
       </c>
       <c r="J70" s="5">
         <v>27</v>
       </c>
-      <c r="K70" s="22"/>
+      <c r="K70" s="20"/>
       <c r="L70" s="4">
         <v>3</v>
       </c>
       <c r="M70" s="5">
         <v>32</v>
       </c>
-      <c r="N70" s="22"/>
+      <c r="N70" s="20"/>
       <c r="O70" s="4">
         <v>1</v>
       </c>
@@ -3556,10 +3591,10 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="19">
         <f>SUM(C71,D72)/SUM(C71:D72)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3569,7 +3604,7 @@
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="27">
         <f>SUM(F71,G72)/SUM(F71:G72)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3589,7 +3624,7 @@
       <c r="J71" s="8">
         <v>1</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K71" s="19">
         <f>SUM(L71,M72)/SUM(L71:M72)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3599,7 +3634,7 @@
       <c r="M71" s="3">
         <v>2</v>
       </c>
-      <c r="N71" s="21">
+      <c r="N71" s="19">
         <f>SUM(O71,P72)/SUM(O71:P72)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3611,15 +3646,15 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4">
         <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>31</v>
       </c>
-      <c r="E72" s="31"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="14">
         <v>10</v>
       </c>
@@ -3633,14 +3668,14 @@
       <c r="J72" s="10">
         <v>27</v>
       </c>
-      <c r="K72" s="22"/>
+      <c r="K72" s="20"/>
       <c r="L72" s="4">
         <v>3</v>
       </c>
       <c r="M72" s="5">
         <v>32</v>
       </c>
-      <c r="N72" s="22"/>
+      <c r="N72" s="20"/>
       <c r="O72" s="4">
         <v>1</v>
       </c>
@@ -3650,37 +3685,155 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A12:P12"/>
     <mergeCell ref="B13:D13"/>
@@ -3705,155 +3858,37 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3861,11 +3896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,58 +3911,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="27">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -3937,7 +3972,7 @@
       <c r="D3" s="13">
         <v>124</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -3947,7 +3982,7 @@
       <c r="G3" s="13">
         <v>534</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -3957,7 +3992,7 @@
       <c r="J3" s="13">
         <v>145</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="27">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -3967,7 +4002,7 @@
       <c r="M3" s="13">
         <v>127</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="27">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -3979,36 +4014,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="14">
         <v>36</v>
       </c>
       <c r="D4" s="15">
         <v>2440</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="14">
         <v>59</v>
       </c>
       <c r="G4" s="15">
         <v>163</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="14">
         <v>49</v>
       </c>
       <c r="J4" s="15">
         <v>2427</v>
       </c>
-      <c r="K4" s="31"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="14">
         <v>26</v>
       </c>
       <c r="M4" s="15">
         <v>2450</v>
       </c>
-      <c r="N4" s="31"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="14">
         <v>37</v>
       </c>
@@ -4017,10 +4052,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.80449438202247192</v>
       </c>
@@ -4030,7 +4065,7 @@
       <c r="D5" s="13">
         <v>41</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.7191011235955056</v>
       </c>
@@ -4040,7 +4075,7 @@
       <c r="G5" s="13">
         <v>40</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.77303370786516856</v>
       </c>
@@ -4050,7 +4085,7 @@
       <c r="J5" s="13">
         <v>61</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="27">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.84943820224719102</v>
       </c>
@@ -4060,7 +4095,7 @@
       <c r="M5" s="13">
         <v>37</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="27">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.83595505617977528</v>
       </c>
@@ -4072,36 +4107,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="14">
         <v>46</v>
       </c>
       <c r="D6" s="15">
         <v>177</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="14">
         <v>85</v>
       </c>
       <c r="G6" s="15">
         <v>138</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14">
         <v>40</v>
       </c>
       <c r="J6" s="15">
         <v>183</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="14">
         <v>30</v>
       </c>
       <c r="M6" s="15">
         <v>193</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="14">
         <v>37</v>
       </c>
@@ -4110,7 +4145,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="23">
@@ -4165,7 +4200,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>7</v>
@@ -4203,10 +4238,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -4216,7 +4251,7 @@
       <c r="D9" s="13">
         <v>36</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -4226,7 +4261,7 @@
       <c r="G9" s="13">
         <v>534</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -4236,7 +4271,7 @@
       <c r="J9" s="13">
         <v>49</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="27">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -4246,7 +4281,7 @@
       <c r="M9" s="13">
         <v>26</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="27">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -4258,36 +4293,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="14">
         <v>124</v>
       </c>
       <c r="D10" s="15">
         <v>98</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="14">
         <v>59</v>
       </c>
       <c r="G10" s="15">
         <v>163</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="14">
         <v>145</v>
       </c>
       <c r="J10" s="15">
         <v>77</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="14">
         <v>127</v>
       </c>
       <c r="M10" s="15">
         <v>95</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="14">
         <v>113</v>
       </c>
@@ -4314,58 +4349,58 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.97515653403352853</v>
       </c>
@@ -4375,7 +4410,7 @@
       <c r="D14" s="13">
         <v>121</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.76126035144415272</v>
       </c>
@@ -4385,7 +4420,7 @@
       <c r="G14" s="13">
         <v>654</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.93334679862654013</v>
       </c>
@@ -4395,7 +4430,7 @@
       <c r="J14" s="13">
         <v>308</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="27">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.98182185417087453</v>
       </c>
@@ -4405,7 +4440,7 @@
       <c r="M14" s="13">
         <v>90</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="27">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.99474853564936372</v>
       </c>
@@ -4417,36 +4452,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="14">
         <v>2</v>
       </c>
       <c r="D15" s="15">
         <v>2473</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="14">
         <v>528</v>
       </c>
       <c r="G15" s="15">
         <v>1947</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="14">
         <v>22</v>
       </c>
       <c r="J15" s="15">
         <v>2453</v>
       </c>
-      <c r="K15" s="31"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="15">
         <v>2475</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="14">
         <v>0</v>
       </c>
@@ -4455,10 +4490,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.70167642900424154</v>
       </c>
@@ -4468,7 +4503,7 @@
       <c r="D16" s="13">
         <v>365</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="27">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.68026661280549383</v>
       </c>
@@ -4478,7 +4513,7 @@
       <c r="G16" s="13">
         <v>385</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="27">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.69117350030296909</v>
       </c>
@@ -4488,7 +4523,7 @@
       <c r="J16" s="13">
         <v>258</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="27">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.70248434659664716</v>
       </c>
@@ -4498,7 +4533,7 @@
       <c r="M16" s="13">
         <v>301</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="27">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.70288830539284997</v>
       </c>
@@ -4510,36 +4545,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="14">
         <v>1112</v>
       </c>
       <c r="D17" s="15">
         <v>1363</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="14">
         <v>1198</v>
       </c>
       <c r="G17" s="15">
         <v>1277</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="14">
         <v>1271</v>
       </c>
       <c r="J17" s="15">
         <v>1204</v>
       </c>
-      <c r="K17" s="31"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="14">
         <v>1172</v>
       </c>
       <c r="M17" s="15">
         <v>1303</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="14">
         <v>1168</v>
       </c>
@@ -4548,10 +4583,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="27">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.7604524338517471</v>
       </c>
@@ -4561,7 +4596,7 @@
       <c r="D18" s="13">
         <v>429</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="27">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.69238537669157751</v>
       </c>
@@ -4571,7 +4606,7 @@
       <c r="G18" s="13">
         <v>490</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="27">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.71056352252070287</v>
       </c>
@@ -4581,7 +4616,7 @@
       <c r="J18" s="13">
         <v>282</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="27">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.7402544940416077</v>
       </c>
@@ -4591,7 +4626,7 @@
       <c r="M18" s="13">
         <v>250</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="27">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.74288022621692584</v>
       </c>
@@ -4603,36 +4638,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="14">
         <v>757</v>
       </c>
       <c r="D19" s="15">
         <v>1718</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14">
         <v>1033</v>
       </c>
       <c r="G19" s="15">
         <v>1442</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="14">
         <v>1151</v>
       </c>
       <c r="J19" s="15">
         <v>1324</v>
       </c>
-      <c r="K19" s="31"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="14">
         <v>1036</v>
       </c>
       <c r="M19" s="15">
         <v>1439</v>
       </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="28"/>
       <c r="O19" s="14">
         <v>1046</v>
       </c>
@@ -4641,10 +4676,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <f t="shared" ref="B20" si="0">SUM(C20,D21)/SUM(C20:D21)</f>
         <v>0.88567966067461124</v>
       </c>
@@ -4654,7 +4689,7 @@
       <c r="D20" s="13">
         <v>484</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="27">
         <f t="shared" ref="E20" si="1">SUM(F20,G21)/SUM(F20:G21)</f>
         <v>0.70773581094728333</v>
       </c>
@@ -4664,7 +4699,7 @@
       <c r="G20" s="13">
         <v>393</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="27">
         <f t="shared" ref="H20" si="2">SUM(I20,J21)/SUM(I20:J21)</f>
         <v>0.78670975560492828</v>
       </c>
@@ -4674,7 +4709,7 @@
       <c r="J20" s="13">
         <v>240</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="27">
         <f t="shared" ref="K20" si="3">SUM(L20,M21)/SUM(L20:M21)</f>
         <v>0.88729549585942236</v>
       </c>
@@ -4684,7 +4719,7 @@
       <c r="M20" s="13">
         <v>175</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="27">
         <f t="shared" ref="N20" si="4">SUM(O20,P21)/SUM(O20:P21)</f>
         <v>0.90224197131892547</v>
       </c>
@@ -4696,36 +4731,36 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="14">
         <v>82</v>
       </c>
       <c r="D21" s="15">
         <v>2393</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="14">
         <v>1054</v>
       </c>
       <c r="G21" s="15">
         <v>1421</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="14">
         <v>816</v>
       </c>
       <c r="J21" s="15">
         <v>1659</v>
       </c>
-      <c r="K21" s="31"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="14">
         <v>383</v>
       </c>
       <c r="M21" s="15">
         <v>2092</v>
       </c>
-      <c r="N21" s="31"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="14">
         <v>321</v>
       </c>
@@ -4734,10 +4769,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="27">
         <f t="shared" ref="B22" si="5">SUM(C22,D23)/SUM(C22:D23)</f>
         <v>0.94001211876388613</v>
       </c>
@@ -4747,7 +4782,7 @@
       <c r="D22" s="13">
         <v>283</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="27">
         <f t="shared" ref="E22" si="6">SUM(F22,G23)/SUM(F22:G23)</f>
         <v>0.73156937992324778</v>
       </c>
@@ -4757,7 +4792,7 @@
       <c r="G22" s="13">
         <v>400</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="27">
         <f t="shared" ref="H22" si="7">SUM(I22,J23)/SUM(I22:J23)</f>
         <v>0.86265400929105229</v>
       </c>
@@ -4767,7 +4802,7 @@
       <c r="J22" s="13">
         <v>405</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="27">
         <f t="shared" ref="K22" si="8">SUM(L22,M23)/SUM(L22:M23)</f>
         <v>0.9654615229246617</v>
       </c>
@@ -4777,7 +4812,7 @@
       <c r="M22" s="13">
         <v>130</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="27">
         <f t="shared" ref="N22" si="9">SUM(O22,P23)/SUM(O22:P23)</f>
         <v>0.98161987477277313</v>
       </c>
@@ -4789,36 +4824,36 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="14">
         <v>14</v>
       </c>
       <c r="D23" s="15">
         <v>2461</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="14">
         <v>929</v>
       </c>
       <c r="G23" s="15">
         <v>1546</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="14">
         <v>275</v>
       </c>
       <c r="J23" s="15">
         <v>2200</v>
       </c>
-      <c r="K23" s="31"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="14">
         <v>41</v>
       </c>
       <c r="M23" s="15">
         <v>2434</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="14">
         <v>10</v>
       </c>
@@ -4827,7 +4862,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="23">
@@ -4840,7 +4875,7 @@
       <c r="D24" s="8">
         <v>171</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="27">
         <f t="shared" ref="E24" si="11">SUM(F24,G25)/SUM(F24:G25)</f>
         <v>0.73399313270046451</v>
       </c>
@@ -4850,7 +4885,7 @@
       <c r="G24" s="13">
         <v>485</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="27">
         <f t="shared" ref="H24" si="12">SUM(I24,J25)/SUM(I24:J25)</f>
         <v>0.88305392849929309</v>
       </c>
@@ -4860,7 +4895,7 @@
       <c r="J24" s="13">
         <v>424</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="27">
         <f t="shared" ref="K24" si="13">SUM(L24,M25)/SUM(L24:M25)</f>
         <v>0.97394465764492022</v>
       </c>
@@ -4870,15 +4905,19 @@
       <c r="M24" s="13">
         <v>102</v>
       </c>
-      <c r="N24" s="30" t="e">
+      <c r="N24" s="23">
         <f t="shared" ref="N24" si="14">SUM(O24,P25)/SUM(O24:P25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
+        <v>0.99232478287214709</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2438</v>
+      </c>
+      <c r="P24" s="8">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="24"/>
       <c r="C25" s="9">
         <v>8</v>
@@ -4886,36 +4925,40 @@
       <c r="D25" s="10">
         <v>2467</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="14">
         <v>832</v>
       </c>
       <c r="G25" s="15">
         <v>1643</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="14">
         <v>155</v>
       </c>
       <c r="J25" s="15">
         <v>2320</v>
       </c>
-      <c r="K25" s="31"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="14">
         <v>27</v>
       </c>
       <c r="M25" s="15">
         <v>2448</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <v>2475</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <f t="shared" ref="B26" si="15">SUM(C26,D27)/SUM(C26:D27)</f>
         <v>0.96849121389618253</v>
       </c>
@@ -4955,16 +4998,20 @@
       <c r="M26" s="8">
         <v>90</v>
       </c>
-      <c r="N26" s="30" t="e">
+      <c r="N26" s="27">
         <f t="shared" ref="N26" si="19">SUM(O26,P27)/SUM(O26:P27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
+        <v>0.99414259745505962</v>
+      </c>
+      <c r="O26" s="12">
+        <v>2447</v>
+      </c>
+      <c r="P26" s="13">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="14">
         <v>5</v>
       </c>
@@ -4992,9 +5039,13 @@
       <c r="M27" s="10">
         <v>2473</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
+        <v>2475</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -5015,82 +5066,94 @@
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29" t="s">
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29" t="s">
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="30" t="e">
+      <c r="B31" s="27">
         <f>SUM(C31,D32)/SUM(C31:D32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="30" t="e">
+        <v>0.96465360533225608</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2313</v>
+      </c>
+      <c r="D31" s="13">
+        <v>163</v>
+      </c>
+      <c r="E31" s="27">
         <f>SUM(F31,G32)/SUM(F31:G32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="30" t="e">
+        <v>0.7535851343162997</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1921</v>
+      </c>
+      <c r="G31" s="13">
+        <v>555</v>
+      </c>
+      <c r="H31" s="27">
         <f>SUM(I31,J32)/SUM(I31:J32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="30" t="e">
+        <v>0.90062613613411435</v>
+      </c>
+      <c r="I31" s="12">
+        <v>2123</v>
+      </c>
+      <c r="J31" s="13">
+        <v>353</v>
+      </c>
+      <c r="K31" s="27" t="e">
         <f>SUM(L31,M32)/SUM(L31:M32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="30" t="e">
+      <c r="N31" s="27" t="e">
         <f>SUM(O31,P32)/SUM(O31:P32)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5098,52 +5161,76 @@
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="14">
+        <v>12</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2463</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="14">
+        <v>665</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1810</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="14">
+        <v>139</v>
+      </c>
+      <c r="J32" s="15">
+        <v>2336</v>
+      </c>
+      <c r="K32" s="28"/>
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="31"/>
+      <c r="N32" s="28"/>
       <c r="O32" s="14"/>
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="30" t="e">
+      <c r="B33" s="27">
         <f>SUM(C33,D34)/SUM(C33:D34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="30" t="e">
+        <v>0.96816976127320953</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2297</v>
+      </c>
+      <c r="D33" s="13">
+        <v>154</v>
+      </c>
+      <c r="E33" s="27">
         <f>SUM(F33,G34)/SUM(F33:G34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="30" t="e">
+        <v>0.75319407828026774</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1897</v>
+      </c>
+      <c r="G33" s="13">
+        <v>554</v>
+      </c>
+      <c r="H33" s="27">
         <f>SUM(I33,J34)/SUM(I33:J34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="30" t="e">
+        <v>0.88798204448071827</v>
+      </c>
+      <c r="I33" s="12">
+        <v>2117</v>
+      </c>
+      <c r="J33" s="13">
+        <v>334</v>
+      </c>
+      <c r="K33" s="27" t="e">
         <f>SUM(L33,M34)/SUM(L33:M34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="30" t="e">
+      <c r="N33" s="27" t="e">
         <f>SUM(O33,P34)/SUM(O33:P34)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5151,52 +5238,76 @@
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="31"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="14">
+        <v>2</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2448</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="14">
+        <v>663</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1817</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="14">
+        <v>215</v>
+      </c>
+      <c r="J34" s="15">
+        <v>2235</v>
+      </c>
+      <c r="K34" s="28"/>
       <c r="L34" s="14"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="31"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="14"/>
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30" t="e">
+      <c r="B35" s="27">
         <f>SUM(C35,D36)/SUM(C35:D36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="30" t="e">
+        <v>0.96215181798851801</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2162</v>
+      </c>
+      <c r="D35" s="13">
+        <v>167</v>
+      </c>
+      <c r="E35" s="27">
         <f>SUM(F35,G36)/SUM(F35:G36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="30" t="e">
+        <v>0.76344314558979809</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1835</v>
+      </c>
+      <c r="G35" s="13">
+        <v>518</v>
+      </c>
+      <c r="H35" s="27">
         <f>SUM(I35,J36)/SUM(I35:J36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="30" t="e">
+        <v>0.91625929861849098</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1991</v>
+      </c>
+      <c r="J35" s="13">
+        <v>362</v>
+      </c>
+      <c r="K35" s="27" t="e">
         <f>SUM(L35,M36)/SUM(L35:M36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="30" t="e">
+      <c r="N35" s="27" t="e">
         <f>SUM(O35,P36)/SUM(O35:P36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5204,52 +5315,76 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="14">
+        <v>11</v>
+      </c>
+      <c r="D36" s="15">
+        <v>2363</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="14">
+        <v>595</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1757</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="14">
+        <v>32</v>
+      </c>
+      <c r="J36" s="15">
+        <v>2320</v>
+      </c>
+      <c r="K36" s="28"/>
       <c r="L36" s="14"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="31"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="14"/>
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="30" t="e">
+      <c r="B37" s="27">
         <f>SUM(C37,D38)/SUM(C37:D38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="30" t="e">
+        <v>0.9591561938958707</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D37" s="13">
+        <v>174</v>
+      </c>
+      <c r="E37" s="27">
         <f>SUM(F37,G38)/SUM(F37:G38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="30" t="e">
+        <v>0.76705565529622977</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1818</v>
+      </c>
+      <c r="G37" s="13">
+        <v>465</v>
+      </c>
+      <c r="H37" s="27">
         <f>SUM(I37,J38)/SUM(I37:J38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="30" t="e">
+        <v>0.88487432675044886</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1768</v>
+      </c>
+      <c r="J37" s="13">
+        <v>405</v>
+      </c>
+      <c r="K37" s="27" t="e">
         <f>SUM(L37,M38)/SUM(L37:M38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="12"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="30" t="e">
+      <c r="N37" s="27" t="e">
         <f>SUM(O37,P38)/SUM(O37:P38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5257,52 +5392,76 @@
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="31"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="14">
+        <v>8</v>
+      </c>
+      <c r="D38" s="15">
+        <v>2253</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="14">
+        <v>573</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1600</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="14">
+        <v>108</v>
+      </c>
+      <c r="J38" s="15">
+        <v>2175</v>
+      </c>
+      <c r="K38" s="28"/>
       <c r="L38" s="14"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="14"/>
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="30" t="e">
+      <c r="B39" s="27">
         <f>SUM(C39,D40)/SUM(C39:D40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="30" t="e">
+        <v>0.96143644154254237</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2273</v>
+      </c>
+      <c r="D39" s="13">
+        <v>179</v>
+      </c>
+      <c r="E39" s="27">
         <f>SUM(F39,G40)/SUM(F39:G40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="30" t="e">
+        <v>0.76083401471790679</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1812</v>
+      </c>
+      <c r="G39" s="13">
+        <v>628</v>
+      </c>
+      <c r="H39" s="27">
         <f>SUM(I39,J40)/SUM(I39:J40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="30" t="e">
+        <v>0.90348908386043669</v>
+      </c>
+      <c r="I39" s="12">
+        <v>2065</v>
+      </c>
+      <c r="J39" s="13">
+        <v>387</v>
+      </c>
+      <c r="K39" s="27" t="e">
         <f>SUM(L39,M40)/SUM(L39:M40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="13"/>
-      <c r="N39" s="30" t="e">
+      <c r="N39" s="27" t="e">
         <f>SUM(O39,P40)/SUM(O39:P40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5310,52 +5469,76 @@
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="31"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="14">
+        <v>10</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2439</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="14">
+        <v>542</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1910</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="14">
+        <v>86</v>
+      </c>
+      <c r="J40" s="15">
+        <v>2363</v>
+      </c>
+      <c r="K40" s="28"/>
       <c r="L40" s="14"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="14"/>
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="30" t="e">
+      <c r="B41" s="27">
         <f>SUM(C41,D42)/SUM(C41:D42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="30" t="e">
+        <v>0.96364022964065488</v>
+      </c>
+      <c r="C41" s="12">
+        <v>2135</v>
+      </c>
+      <c r="D41" s="13">
+        <v>168</v>
+      </c>
+      <c r="E41" s="27">
         <f>SUM(F41,G42)/SUM(F41:G42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="30" t="e">
+        <v>0.77014671486285347</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1764</v>
+      </c>
+      <c r="G41" s="13">
+        <v>641</v>
+      </c>
+      <c r="H41" s="27">
         <f>SUM(I41,J42)/SUM(I41:J42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="30" t="e">
+        <v>0.90219009143100148</v>
+      </c>
+      <c r="I41" s="12">
+        <v>1907</v>
+      </c>
+      <c r="J41" s="13">
+        <v>391</v>
+      </c>
+      <c r="K41" s="27" t="e">
         <f>SUM(L41,M42)/SUM(L41:M42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="30" t="e">
+      <c r="N41" s="27" t="e">
         <f>SUM(O41,P42)/SUM(O41:P42)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5363,52 +5546,76 @@
       <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="31"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="14">
+        <v>3</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2397</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="14">
+        <v>440</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1858</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="14">
+        <v>69</v>
+      </c>
+      <c r="J42" s="15">
+        <v>2336</v>
+      </c>
+      <c r="K42" s="28"/>
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="31"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="14"/>
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="30" t="e">
+      <c r="B43" s="27">
         <f>SUM(C43,D44)/SUM(C43:D44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="30" t="e">
+        <v>0.96140035906642729</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1979</v>
+      </c>
+      <c r="D43" s="13">
+        <v>157</v>
+      </c>
+      <c r="E43" s="27">
         <f>SUM(F43,G44)/SUM(F43:G44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="30" t="e">
+        <v>0.78164272890484743</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1813</v>
+      </c>
+      <c r="G43" s="13">
+        <v>346</v>
+      </c>
+      <c r="H43" s="27">
         <f>SUM(I43,J44)/SUM(I43:J44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="30" t="e">
+        <v>0.91629263913824055</v>
+      </c>
+      <c r="I43" s="12">
+        <v>1809</v>
+      </c>
+      <c r="J43" s="13">
+        <v>350</v>
+      </c>
+      <c r="K43" s="27" t="e">
         <f>SUM(L43,M44)/SUM(L43:M44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="30" t="e">
+      <c r="N43" s="27" t="e">
         <f>SUM(O43,P44)/SUM(O43:P44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5416,52 +5623,76 @@
       <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="14">
+        <v>15</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2305</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="14">
+        <v>627</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1670</v>
+      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="14">
+        <v>23</v>
+      </c>
+      <c r="J44" s="15">
+        <v>2274</v>
+      </c>
+      <c r="K44" s="28"/>
       <c r="L44" s="14"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="31"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="14"/>
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="30" t="e">
+      <c r="B45" s="27">
         <f>SUM(C45,D46)/SUM(C45:D46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="30" t="e">
+        <v>0.97306629834254144</v>
+      </c>
+      <c r="C45" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D45" s="13">
+        <v>115</v>
+      </c>
+      <c r="E45" s="27">
         <f>SUM(F45,G46)/SUM(F45:G46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="30" t="e">
+        <v>0.76606007454505587</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1813</v>
+      </c>
+      <c r="G45" s="13">
+        <v>394</v>
+      </c>
+      <c r="H45" s="27">
         <f>SUM(I45,J46)/SUM(I45:J46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="30" t="e">
+        <v>0.90506467879850905</v>
+      </c>
+      <c r="I45" s="12">
+        <v>1838</v>
+      </c>
+      <c r="J45" s="13">
+        <v>369</v>
+      </c>
+      <c r="K45" s="27" t="e">
         <f>SUM(L45,M46)/SUM(L45:M46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="30" t="e">
+      <c r="N45" s="27" t="e">
         <f>SUM(O45,P46)/SUM(O45:P46)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5469,52 +5700,76 @@
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="31"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="14">
+        <v>2</v>
+      </c>
+      <c r="D46" s="15">
+        <v>2226</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="14">
+        <v>673</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1681</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="14">
+        <v>64</v>
+      </c>
+      <c r="J46" s="15">
+        <v>2290</v>
+      </c>
+      <c r="K46" s="28"/>
       <c r="L46" s="14"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="31"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="14"/>
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="30" t="e">
+      <c r="B47" s="27">
         <f>SUM(C47,D48)/SUM(C47:D48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="30" t="e">
+        <v>0.97306629834254144</v>
+      </c>
+      <c r="C47" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D47" s="13">
+        <v>115</v>
+      </c>
+      <c r="E47" s="27">
         <f>SUM(F47,G48)/SUM(F47:G48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="30" t="e">
+        <v>0.76606007454505587</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1813</v>
+      </c>
+      <c r="G47" s="13">
+        <v>394</v>
+      </c>
+      <c r="H47" s="27">
         <f>SUM(I47,J48)/SUM(I47:J48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="30" t="e">
+        <v>0.90506467879850905</v>
+      </c>
+      <c r="I47" s="12">
+        <v>1838</v>
+      </c>
+      <c r="J47" s="13">
+        <v>369</v>
+      </c>
+      <c r="K47" s="27" t="e">
         <f>SUM(L47,M48)/SUM(L47:M48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="30" t="e">
+      <c r="N47" s="27" t="e">
         <f>SUM(O47,P48)/SUM(O47:P48)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5522,52 +5777,76 @@
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="31"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="14">
+        <v>2</v>
+      </c>
+      <c r="D48" s="15">
+        <v>2226</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="14">
+        <v>673</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1681</v>
+      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="14">
+        <v>64</v>
+      </c>
+      <c r="J48" s="15">
+        <v>2290</v>
+      </c>
+      <c r="K48" s="28"/>
       <c r="L48" s="14"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="31"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="14"/>
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="30" t="e">
+      <c r="B49" s="27">
         <f>SUM(C49,D50)/SUM(C49:D50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="30" t="e">
+        <v>0.97306629834254144</v>
+      </c>
+      <c r="C49" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D49" s="13">
+        <v>115</v>
+      </c>
+      <c r="E49" s="27">
         <f>SUM(F49,G50)/SUM(F49:G50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="30" t="e">
+        <v>0.76606007454505587</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1813</v>
+      </c>
+      <c r="G49" s="13">
+        <v>394</v>
+      </c>
+      <c r="H49" s="27">
         <f>SUM(I49,J50)/SUM(I49:J50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="30" t="e">
+        <v>0.90506467879850905</v>
+      </c>
+      <c r="I49" s="12">
+        <v>1838</v>
+      </c>
+      <c r="J49" s="13">
+        <v>369</v>
+      </c>
+      <c r="K49" s="27" t="e">
         <f>SUM(L49,M50)/SUM(L49:M50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="30" t="e">
+      <c r="N49" s="27" t="e">
         <f>SUM(O49,P50)/SUM(O49:P50)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5575,73 +5854,115 @@
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="31"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="14">
+        <v>2</v>
+      </c>
+      <c r="D50" s="15">
+        <v>2226</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="14">
+        <v>673</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1681</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="14">
+        <v>64</v>
+      </c>
+      <c r="J50" s="15">
+        <v>2290</v>
+      </c>
+      <c r="K50" s="28"/>
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="14"/>
       <c r="P50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K24:K25"/>
     <mergeCell ref="A29:P29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
@@ -5660,84 +5981,54 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="K31:K32"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K47:K48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output Summary.xlsx
+++ b/Output Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD824125-D050-410A-B2FE-1139D6CD771F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C8E2F7-796E-4A42-BAD8-16E1D6618EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2550" windowWidth="14280" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="3915" windowWidth="14280" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heart" sheetId="5" r:id="rId1"/>
@@ -3899,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,18 +5147,26 @@
       <c r="J31" s="13">
         <v>353</v>
       </c>
-      <c r="K31" s="27" t="e">
+      <c r="K31" s="27">
         <f>SUM(L31,M32)/SUM(L31:M32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="27" t="e">
+        <v>0.9798020601898606</v>
+      </c>
+      <c r="L31" s="12">
+        <v>2379</v>
+      </c>
+      <c r="M31" s="13">
+        <v>97</v>
+      </c>
+      <c r="N31" s="27">
         <f>SUM(O31,P32)/SUM(O31:P32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="13"/>
+        <v>0.99192082407594429</v>
+      </c>
+      <c r="O31" s="12">
+        <v>2436</v>
+      </c>
+      <c r="P31" s="13">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
@@ -5184,11 +5192,19 @@
         <v>2336</v>
       </c>
       <c r="K32" s="28"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
+      <c r="L32" s="14">
+        <v>3</v>
+      </c>
+      <c r="M32" s="15">
+        <v>2472</v>
+      </c>
       <c r="N32" s="28"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="15"/>
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="15">
+        <v>2475</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
@@ -5224,18 +5240,26 @@
       <c r="J33" s="13">
         <v>334</v>
       </c>
-      <c r="K33" s="27" t="e">
+      <c r="K33" s="27">
         <f>SUM(L33,M34)/SUM(L33:M34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="27" t="e">
+        <v>0.98388084064476633</v>
+      </c>
+      <c r="L33" s="12">
+        <v>2380</v>
+      </c>
+      <c r="M33" s="13">
+        <v>71</v>
+      </c>
+      <c r="N33" s="27">
         <f>SUM(O33,P34)/SUM(O33:P34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
+        <v>0.99224648031014073</v>
+      </c>
+      <c r="O33" s="12">
+        <v>2418</v>
+      </c>
+      <c r="P33" s="13">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
@@ -5261,11 +5285,19 @@
         <v>2235</v>
       </c>
       <c r="K34" s="28"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="14">
+        <v>8</v>
+      </c>
+      <c r="M34" s="15">
+        <v>2442</v>
+      </c>
       <c r="N34" s="28"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15"/>
+      <c r="O34" s="14">
+        <v>3</v>
+      </c>
+      <c r="P34" s="15">
+        <v>2445</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
@@ -5301,18 +5333,26 @@
       <c r="J35" s="13">
         <v>362</v>
       </c>
-      <c r="K35" s="27" t="e">
+      <c r="K35" s="27">
         <f>SUM(L35,M36)/SUM(L35:M36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="27" t="e">
+        <v>0.9808714133900106</v>
+      </c>
+      <c r="L35" s="12">
+        <v>2264</v>
+      </c>
+      <c r="M35" s="13">
+        <v>89</v>
+      </c>
+      <c r="N35" s="27">
         <f>SUM(O35,P36)/SUM(O35:P36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
+        <v>0.99043367346938771</v>
+      </c>
+      <c r="O35" s="12">
+        <v>2290</v>
+      </c>
+      <c r="P35" s="13">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
@@ -5338,11 +5378,19 @@
         <v>2320</v>
       </c>
       <c r="K36" s="28"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="14">
+        <v>1</v>
+      </c>
+      <c r="M36" s="15">
+        <v>2351</v>
+      </c>
       <c r="N36" s="28"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="15"/>
+      <c r="O36" s="14">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15">
+        <v>2369</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
@@ -5378,18 +5426,26 @@
       <c r="J37" s="13">
         <v>405</v>
       </c>
-      <c r="K37" s="27" t="e">
+      <c r="K37" s="27">
         <f>SUM(L37,M38)/SUM(L37:M38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="27" t="e">
+        <v>0.97935368043087967</v>
+      </c>
+      <c r="L37" s="12">
+        <v>2083</v>
+      </c>
+      <c r="M37" s="13">
+        <v>90</v>
+      </c>
+      <c r="N37" s="27">
         <f>SUM(O37,P38)/SUM(O37:P38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="13"/>
+        <v>0.99304308797127472</v>
+      </c>
+      <c r="O37" s="12">
+        <v>2166</v>
+      </c>
+      <c r="P37" s="13">
+        <v>31</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -5415,11 +5471,19 @@
         <v>2175</v>
       </c>
       <c r="K38" s="28"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
+      <c r="L38" s="14">
+        <v>2</v>
+      </c>
+      <c r="M38" s="15">
+        <v>2281</v>
+      </c>
       <c r="N38" s="28"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
+      <c r="O38" s="14">
+        <v>0</v>
+      </c>
+      <c r="P38" s="15">
+        <v>2259</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
@@ -5455,18 +5519,26 @@
       <c r="J39" s="13">
         <v>387</v>
       </c>
-      <c r="K39" s="27" t="e">
+      <c r="K39" s="27">
         <f>SUM(L39,M40)/SUM(L39:M40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="27" t="e">
+        <v>0.98265660069373595</v>
+      </c>
+      <c r="L39" s="12">
+        <v>2367</v>
+      </c>
+      <c r="M39" s="13">
+        <v>85</v>
+      </c>
+      <c r="N39" s="27">
         <f>SUM(O39,P40)/SUM(O39:P40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="13"/>
+        <v>0.99143032034278722</v>
+      </c>
+      <c r="O39" s="12">
+        <v>2408</v>
+      </c>
+      <c r="P39" s="13">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -5492,11 +5564,19 @@
         <v>2363</v>
       </c>
       <c r="K40" s="28"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <v>2449</v>
+      </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="15"/>
+      <c r="O40" s="14">
+        <v>0</v>
+      </c>
+      <c r="P40" s="15">
+        <v>2451</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
@@ -5538,12 +5618,16 @@
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="27" t="e">
+      <c r="N41" s="27">
         <f>SUM(O41,P42)/SUM(O41:P42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="13"/>
+        <v>0.99340846268339356</v>
+      </c>
+      <c r="O41" s="12">
+        <v>2273</v>
+      </c>
+      <c r="P41" s="13">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -5572,8 +5656,12 @@
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
       <c r="N42" s="28"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="15"/>
+      <c r="O42" s="14">
+        <v>5</v>
+      </c>
+      <c r="P42" s="15">
+        <v>2399</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
@@ -5615,12 +5703,16 @@
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="27" t="e">
+      <c r="N43" s="27">
         <f>SUM(O43,P44)/SUM(O43:P44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O43" s="12"/>
-      <c r="P43" s="13"/>
+        <v>0.9914702581369248</v>
+      </c>
+      <c r="O43" s="12">
+        <v>2118</v>
+      </c>
+      <c r="P43" s="13">
+        <v>38</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
@@ -5649,8 +5741,12 @@
       <c r="L44" s="14"/>
       <c r="M44" s="15"/>
       <c r="N44" s="28"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="15"/>
+      <c r="O44" s="14">
+        <v>0</v>
+      </c>
+      <c r="P44" s="15">
+        <v>2299</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -5692,12 +5788,16 @@
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="27" t="e">
+      <c r="N45" s="27">
         <f>SUM(O45,P46)/SUM(O45:P46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O45" s="12"/>
-      <c r="P45" s="13"/>
+        <v>0.99120829576194769</v>
+      </c>
+      <c r="O45" s="12">
+        <v>2087</v>
+      </c>
+      <c r="P45" s="13">
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
@@ -5726,8 +5826,12 @@
       <c r="L46" s="14"/>
       <c r="M46" s="15"/>
       <c r="N46" s="28"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="15"/>
+      <c r="O46" s="14">
+        <v>0</v>
+      </c>
+      <c r="P46" s="15">
+        <v>2310</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
@@ -5769,12 +5873,16 @@
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="27" t="e">
+      <c r="N47" s="27">
         <f>SUM(O47,P48)/SUM(O47:P48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="12"/>
-      <c r="P47" s="13"/>
+        <v>0.99120829576194769</v>
+      </c>
+      <c r="O47" s="12">
+        <v>2087</v>
+      </c>
+      <c r="P47" s="13">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
@@ -5803,8 +5911,12 @@
       <c r="L48" s="14"/>
       <c r="M48" s="15"/>
       <c r="N48" s="28"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="15"/>
+      <c r="O48" s="14">
+        <v>0</v>
+      </c>
+      <c r="P48" s="15">
+        <v>2310</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -5846,12 +5958,16 @@
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="27" t="e">
+      <c r="N49" s="27">
         <f>SUM(O49,P50)/SUM(O49:P50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="13"/>
+        <v>0.99120829576194769</v>
+      </c>
+      <c r="O49" s="12">
+        <v>2087</v>
+      </c>
+      <c r="P49" s="13">
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
@@ -5880,8 +5996,12 @@
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
       <c r="N50" s="28"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="15"/>
+      <c r="O50" s="14">
+        <v>0</v>
+      </c>
+      <c r="P50" s="15">
+        <v>2310</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="144">

--- a/Output Summary.xlsx
+++ b/Output Summary.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C8E2F7-796E-4A42-BAD8-16E1D6618EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3915" windowWidth="14280" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="3915" windowWidth="14280" windowHeight="10755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Heart" sheetId="5" r:id="rId1"/>
     <sheet name="Toxic" sheetId="4" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Scaling</t>
   </si>
@@ -153,11 +153,59 @@
   <si>
     <t>Local Outlier Factor 0.1'</t>
   </si>
+  <si>
+    <t>Best results with depth=10, 0.50 features, gini criterion  and 250 estimators, with accuracy=0.91</t>
+  </si>
+  <si>
+    <t>Best results with depth=10, 0.50 features, entropy criterion  and 5 estimators, with accuracy=0.89</t>
+  </si>
+  <si>
+    <t>Best results with depth=5, 0.10 features, entropy criterion  and 25 estimators, with accuracy=0.91</t>
+  </si>
+  <si>
+    <t>Best results with depth=10, 0.10 features, gini criterion  and 10 estimators, with accuracy=0.86</t>
+  </si>
+  <si>
+    <t>Best results with depth=10, 0.70 features, entropy criterion  and 25 estimators, with accuracy=0.93</t>
+  </si>
+  <si>
+    <t>Best results with depth=25, 0.10 features, entropy criterion  and 75 estimators, with accuracy=0.98</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Toxic</t>
+  </si>
+  <si>
+    <t>max_depth = 10</t>
+  </si>
+  <si>
+    <t>max_depth = 25</t>
+  </si>
+  <si>
+    <t>Best results with loss=deviance, max_depth=25, learning_rate=0.5, 300 estimators,  and 1 features, with accuracy=0.992</t>
+  </si>
+  <si>
+    <t>Best results with loss=deviance, max_depth=10, learning_rate=0.5, 300 estimators,  and 0.25 features, with accuracy=0.975</t>
+  </si>
+  <si>
+    <t>Best results with loss=exponential, max_depth=10, learning_rate=1, 50 estimators,  and 0.25 features, with accuracy=0.963</t>
+  </si>
+  <si>
+    <t>Best results with loss=deviance, max_depth=10, learning_rate=1, 100 estimators,  and 0.5 features, with accuracy=0.926</t>
+  </si>
+  <si>
+    <t>Best results with loss=deviance, max_depth=10, learning_rate=1, 300 estimators,  and 0.25 features, with accuracy=0.925</t>
+  </si>
+  <si>
+    <t>Best results with loss=deviance, max_depth=5, learning_rate=1, 300 estimators,  and 0.75 features, with accuracy=0.938</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -282,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,16 +384,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,29 +411,23 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,7 +447,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,23 +522,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,23 +557,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -715,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -728,24 +745,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -754,32 +771,32 @@
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="22">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -789,7 +806,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="22">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -799,7 +816,7 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="22">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -809,7 +826,7 @@
       <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="22">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -819,7 +836,7 @@
       <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="22">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.82456140350877194</v>
       </c>
@@ -832,35 +849,35 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4">
         <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="4">
         <v>7</v>
       </c>
       <c r="J4" s="5">
         <v>12</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="4">
         <v>8</v>
       </c>
       <c r="M4" s="5">
         <v>11</v>
       </c>
-      <c r="N4" s="20"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="4">
         <v>8</v>
       </c>
@@ -872,7 +889,7 @@
       <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="22">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.57894736842105265</v>
       </c>
@@ -882,7 +899,7 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="22">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.64864864864864868</v>
       </c>
@@ -892,7 +909,7 @@
       <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="22">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.72972972972972971</v>
       </c>
@@ -902,7 +919,7 @@
       <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="22">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -912,7 +929,7 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="22">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.81081081081081086</v>
       </c>
@@ -925,35 +942,35 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4">
         <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="4">
         <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>9</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="5">
         <v>13</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="5">
         <v>15</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="4">
         <v>4</v>
       </c>
@@ -965,7 +982,7 @@
       <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="26">
         <f>SUM(C7,D8)/SUM(C7:D8)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -975,7 +992,7 @@
       <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <f>SUM(F7,G8)/SUM(F7:G8)</f>
         <v>0.7</v>
       </c>
@@ -985,7 +1002,7 @@
       <c r="G7" s="8">
         <v>17</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="26">
         <f>SUM(I7,J8)/SUM(I7:J8)</f>
         <v>0.875</v>
       </c>
@@ -995,7 +1012,7 @@
       <c r="J7" s="8">
         <v>3</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="26">
         <f>SUM(L7,M8)/SUM(L7:M8)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -1005,7 +1022,7 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="26">
         <f>SUM(O7,P8)/SUM(O7:P8)</f>
         <v>0.95</v>
       </c>
@@ -1018,35 +1035,35 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="9">
         <v>10</v>
       </c>
       <c r="D8" s="10">
         <v>30</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="9">
         <v>7</v>
       </c>
       <c r="G8" s="10">
         <v>33</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="9">
         <v>7</v>
       </c>
       <c r="J8" s="10">
         <v>33</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="9">
         <v>4</v>
       </c>
       <c r="M8" s="10">
         <v>36</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="9">
         <v>2</v>
       </c>
@@ -1058,7 +1075,7 @@
       <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="22">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.69491525423728817</v>
       </c>
@@ -1068,7 +1085,7 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="22">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.72413793103448276</v>
       </c>
@@ -1078,7 +1095,7 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="22">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.76271186440677963</v>
       </c>
@@ -1088,7 +1105,7 @@
       <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="22">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1098,7 +1115,7 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="22">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.81355932203389836</v>
       </c>
@@ -1111,35 +1128,35 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4">
         <v>17</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="4">
         <v>14</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="4">
         <v>9</v>
       </c>
       <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="4">
         <v>9</v>
       </c>
@@ -1148,24 +1165,24 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1174,32 +1191,32 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22" t="s">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="22">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.8</v>
       </c>
@@ -1209,7 +1226,7 @@
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="26">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.7</v>
       </c>
@@ -1219,7 +1236,7 @@
       <c r="G14" s="8">
         <v>17</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="26">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1229,7 +1246,7 @@
       <c r="J14" s="8">
         <v>3</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="26">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1239,7 +1256,7 @@
       <c r="M14" s="8">
         <v>3</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="26">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1252,35 +1269,35 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
       <c r="D15" s="5">
         <v>29</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="9">
         <v>7</v>
       </c>
       <c r="G15" s="10">
         <v>33</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="9">
         <v>8</v>
       </c>
       <c r="J15" s="10">
         <v>31</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="9">
         <v>4</v>
       </c>
       <c r="M15" s="10">
         <v>36</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="9">
         <v>2</v>
       </c>
@@ -1292,7 +1309,7 @@
       <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="22">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1302,7 +1319,7 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="22">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.65</v>
       </c>
@@ -1312,7 +1329,7 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="22">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1322,7 +1339,7 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="22">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -1332,7 +1349,7 @@
       <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="22">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.9375</v>
       </c>
@@ -1345,35 +1362,35 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="4">
         <v>6</v>
       </c>
       <c r="G17" s="5">
         <v>34</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="4">
         <v>8</v>
       </c>
       <c r="J17" s="5">
         <v>31</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="4">
         <v>5</v>
       </c>
       <c r="M17" s="5">
         <v>35</v>
       </c>
-      <c r="N17" s="20"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="4">
         <v>2</v>
       </c>
@@ -1385,7 +1402,7 @@
       <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="26">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.83750000000000002</v>
       </c>
@@ -1395,7 +1412,7 @@
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="22">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.63414634146341464</v>
       </c>
@@ -1405,7 +1422,7 @@
       <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="22">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1415,7 +1432,7 @@
       <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="22">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -1425,7 +1442,7 @@
       <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="22">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.9375</v>
       </c>
@@ -1438,35 +1455,35 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="9">
         <v>8</v>
       </c>
       <c r="D19" s="10">
         <v>32</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>34</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4">
         <v>8</v>
       </c>
       <c r="J19" s="5">
         <v>31</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="4">
         <v>4</v>
       </c>
       <c r="M19" s="5">
         <v>36</v>
       </c>
-      <c r="N19" s="20"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="4">
         <v>2</v>
       </c>
@@ -1475,24 +1492,24 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1501,32 +1518,32 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22" t="s">
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22" t="s">
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="22">
         <f>SUM(C23,D24)/SUM(C23:D24)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -1536,7 +1553,7 @@
       <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="22">
         <f>SUM(F23,G24)/SUM(F23:G24)</f>
         <v>0.65</v>
       </c>
@@ -1546,7 +1563,7 @@
       <c r="G23" s="3">
         <v>23</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="22">
         <f>SUM(I23,J24)/SUM(I23:J24)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1556,7 +1573,7 @@
       <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="22">
         <f>SUM(L23,M24)/SUM(L23:M24)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1566,7 +1583,7 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="22">
         <f>SUM(O23,P24)/SUM(O23:P24)</f>
         <v>0.95</v>
       </c>
@@ -1579,35 +1596,35 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4">
         <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>33</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>35</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="5">
         <v>33</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="4">
         <v>4</v>
       </c>
       <c r="M24" s="5">
         <v>36</v>
       </c>
-      <c r="N24" s="20"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="4">
         <v>2</v>
       </c>
@@ -1619,7 +1636,7 @@
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="26">
         <f>SUM(C25,D26)/SUM(C25:D26)</f>
         <v>0.86075949367088611</v>
       </c>
@@ -1629,7 +1646,7 @@
       <c r="D25" s="8">
         <v>4</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="26">
         <f>SUM(F25,G26)/SUM(F25:G26)</f>
         <v>0.68354430379746833</v>
       </c>
@@ -1639,7 +1656,7 @@
       <c r="G25" s="8">
         <v>19</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="26">
         <f>SUM(I25,J26)/SUM(I25:J26)</f>
         <v>0.88749999999999996</v>
       </c>
@@ -1649,7 +1666,7 @@
       <c r="J25" s="8">
         <v>2</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="26">
         <f>SUM(L25,M26)/SUM(L25:M26)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1659,7 +1676,7 @@
       <c r="M25" s="8">
         <v>1</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="26">
         <f>SUM(O25,P26)/SUM(O25:P26)</f>
         <v>0.95</v>
       </c>
@@ -1672,35 +1689,35 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="9">
         <v>7</v>
       </c>
       <c r="D26" s="10">
         <v>33</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="9">
         <v>6</v>
       </c>
       <c r="G26" s="10">
         <v>33</v>
       </c>
-      <c r="H26" s="24"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="9">
         <v>7</v>
       </c>
       <c r="J26" s="10">
         <v>33</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="9">
         <v>4</v>
       </c>
       <c r="M26" s="10">
         <v>36</v>
       </c>
-      <c r="N26" s="24"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="9">
         <v>1</v>
       </c>
@@ -1727,24 +1744,24 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1753,32 +1770,32 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22" t="s">
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22" t="s">
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="22">
         <f>SUM(C30,D31)/SUM(C30:D31)</f>
         <v>0.83544303797468356</v>
       </c>
@@ -1788,7 +1805,7 @@
       <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="22">
         <f>SUM(F30,G31)/SUM(F30:G31)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -1798,7 +1815,7 @@
       <c r="G30" s="3">
         <v>21</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="22">
         <f>SUM(I30,J31)/SUM(I30:J31)</f>
         <v>0.875</v>
       </c>
@@ -1808,7 +1825,7 @@
       <c r="J30" s="3">
         <v>3</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="22">
         <f>SUM(L30,M31)/SUM(L30:M31)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1818,7 +1835,7 @@
       <c r="M30" s="3">
         <v>2</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="22">
         <f>SUM(O30,P31)/SUM(O30:P31)</f>
         <v>0.95</v>
       </c>
@@ -1831,35 +1848,35 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="4">
         <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>31</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
       <c r="G31" s="5">
         <v>34</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="4">
         <v>7</v>
       </c>
       <c r="J31" s="5">
         <v>33</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="4">
         <v>3</v>
       </c>
       <c r="M31" s="5">
         <v>37</v>
       </c>
-      <c r="N31" s="20"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="4">
         <v>0</v>
       </c>
@@ -1871,7 +1888,7 @@
       <c r="A32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="22">
         <f>SUM(C32,D33)/SUM(C32:D33)</f>
         <v>0.85</v>
       </c>
@@ -1881,7 +1898,7 @@
       <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="26">
         <f>SUM(F32,G33)/SUM(F32:G33)</f>
         <v>0.73750000000000004</v>
       </c>
@@ -1891,7 +1908,7 @@
       <c r="G32" s="8">
         <v>10</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="22">
         <f>SUM(I32,J33)/SUM(I32:J33)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -1901,7 +1918,7 @@
       <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="22">
         <f>SUM(L32,M33)/SUM(L32:M33)</f>
         <v>0.9</v>
       </c>
@@ -1911,7 +1928,7 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="22">
         <f>SUM(O32,P33)/SUM(O32:P33)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -1924,35 +1941,35 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="4">
         <v>8</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="9">
         <v>11</v>
       </c>
       <c r="G33" s="10">
         <v>29</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="4">
         <v>8</v>
       </c>
       <c r="J33" s="5">
         <v>32</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="4">
         <v>5</v>
       </c>
       <c r="M33" s="5">
         <v>35</v>
       </c>
-      <c r="N33" s="20"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="4">
         <v>1</v>
       </c>
@@ -1964,7 +1981,7 @@
       <c r="A34" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="22">
         <f>SUM(C34,D35)/SUM(C34:D35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -1974,7 +1991,7 @@
       <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="22">
         <f>SUM(F34,G35)/SUM(F34:G35)</f>
         <v>0.5</v>
       </c>
@@ -1984,7 +2001,7 @@
       <c r="G34" s="3">
         <v>36</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="22">
         <f>SUM(I34,J35)/SUM(I34:J35)</f>
         <v>0.79746835443037978</v>
       </c>
@@ -1994,7 +2011,7 @@
       <c r="J34" s="3">
         <v>4</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="22">
         <f>SUM(L34,M35)/SUM(L34:M35)</f>
         <v>0.810126582278481</v>
       </c>
@@ -2004,7 +2021,7 @@
       <c r="M34" s="3">
         <v>4</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="22">
         <f>SUM(O34,P35)/SUM(O34:P35)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2017,35 +2034,35 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="4">
         <v>11</v>
       </c>
       <c r="D35" s="5">
         <v>28</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="4">
         <v>4</v>
       </c>
       <c r="G35" s="5">
         <v>36</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="5">
         <v>27</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="4">
         <v>11</v>
       </c>
       <c r="M35" s="5">
         <v>29</v>
       </c>
-      <c r="N35" s="20"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="4">
         <v>6</v>
       </c>
@@ -2057,7 +2074,7 @@
       <c r="A36" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="22">
         <f>SUM(C36,D37)/SUM(C36:D37)</f>
         <v>0.82499999999999996</v>
       </c>
@@ -2067,7 +2084,7 @@
       <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="22">
         <f>SUM(F36,G37)/SUM(F36:G37)</f>
         <v>0.63291139240506333</v>
       </c>
@@ -2077,7 +2094,7 @@
       <c r="G36" s="3">
         <v>25</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="22">
         <f>SUM(I36,J37)/SUM(I36:J37)</f>
         <v>0.85</v>
       </c>
@@ -2087,7 +2104,7 @@
       <c r="J36" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="22">
         <f>SUM(L36,M37)/SUM(L36:M37)</f>
         <v>0.88607594936708856</v>
       </c>
@@ -2097,7 +2114,7 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="22">
         <f>SUM(O36,P37)/SUM(O36:P37)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2110,35 +2127,35 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="4">
         <v>9</v>
       </c>
       <c r="D37" s="5">
         <v>31</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="4">
         <v>4</v>
       </c>
       <c r="G37" s="5">
         <v>35</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="4">
         <v>8</v>
       </c>
       <c r="J37" s="5">
         <v>32</v>
       </c>
-      <c r="K37" s="20"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="4">
         <v>6</v>
       </c>
       <c r="M37" s="5">
         <v>33</v>
       </c>
-      <c r="N37" s="20"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="4">
         <v>4</v>
       </c>
@@ -2150,7 +2167,7 @@
       <c r="A38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="22">
         <f t="shared" ref="B38" si="0">SUM(C38,D39)/SUM(C38:D39)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2160,7 +2177,7 @@
       <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="22">
         <f t="shared" ref="E38" si="1">SUM(F38,G39)/SUM(F38:G39)</f>
         <v>0.60759493670886078</v>
       </c>
@@ -2170,7 +2187,7 @@
       <c r="G38" s="3">
         <v>27</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="22">
         <f t="shared" ref="H38" si="2">SUM(I38,J39)/SUM(I38:J39)</f>
         <v>0.875</v>
       </c>
@@ -2180,7 +2197,7 @@
       <c r="J38" s="3">
         <v>3</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="22">
         <f t="shared" ref="K38" si="3">SUM(L38,M39)/SUM(L38:M39)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2190,7 +2207,7 @@
       <c r="M38" s="3">
         <v>2</v>
       </c>
-      <c r="N38" s="23">
+      <c r="N38" s="26">
         <f t="shared" ref="N38" si="4">SUM(O38,P39)/SUM(O38:P39)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2203,35 +2220,35 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="4">
         <v>13</v>
       </c>
       <c r="D39" s="5">
         <v>27</v>
       </c>
-      <c r="E39" s="20"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="4">
         <v>4</v>
       </c>
       <c r="G39" s="5">
         <v>35</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="4">
         <v>7</v>
       </c>
       <c r="J39" s="5">
         <v>33</v>
       </c>
-      <c r="K39" s="20"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="4">
         <v>4</v>
       </c>
       <c r="M39" s="5">
         <v>36</v>
       </c>
-      <c r="N39" s="24"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="9">
         <v>2</v>
       </c>
@@ -2243,7 +2260,7 @@
       <c r="A40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="22">
         <f t="shared" ref="B40" si="5">SUM(C40,D41)/SUM(C40:D41)</f>
         <v>0.77500000000000002</v>
       </c>
@@ -2253,7 +2270,7 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="22">
         <f t="shared" ref="E40" si="6">SUM(F40,G41)/SUM(F40:G41)</f>
         <v>0.67088607594936711</v>
       </c>
@@ -2263,7 +2280,7 @@
       <c r="G40" s="3">
         <v>21</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="22">
         <f t="shared" ref="H40" si="7">SUM(I40,J41)/SUM(I40:J41)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2273,7 +2290,7 @@
       <c r="J40" s="3">
         <v>3</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="26">
         <f t="shared" ref="K40" si="8">SUM(L40,M41)/SUM(L40:M41)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2283,7 +2300,7 @@
       <c r="M40" s="8">
         <v>1</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="22">
         <f t="shared" ref="N40" si="9">SUM(O40,P41)/SUM(O40:P41)</f>
         <v>0.95</v>
       </c>
@@ -2296,35 +2313,35 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="4">
         <v>12</v>
       </c>
       <c r="D41" s="5">
         <v>28</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="4">
         <v>5</v>
       </c>
       <c r="G41" s="5">
         <v>35</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="4">
         <v>8</v>
       </c>
       <c r="J41" s="5">
         <v>32</v>
       </c>
-      <c r="K41" s="24"/>
+      <c r="K41" s="27"/>
       <c r="L41" s="9">
         <v>4</v>
       </c>
       <c r="M41" s="10">
         <v>35</v>
       </c>
-      <c r="N41" s="20"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="4">
         <v>1</v>
       </c>
@@ -2336,7 +2353,7 @@
       <c r="A42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="22">
         <f t="shared" ref="B42" si="10">SUM(C42,D43)/SUM(C42:D43)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2346,7 +2363,7 @@
       <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="22">
         <f t="shared" ref="E42" si="11">SUM(F42,G43)/SUM(F42:G43)</f>
         <v>0.65</v>
       </c>
@@ -2356,7 +2373,7 @@
       <c r="G42" s="3">
         <v>22</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="26">
         <f t="shared" ref="H42" si="12">SUM(I42,J43)/SUM(I42:J43)</f>
         <v>0.875</v>
       </c>
@@ -2366,7 +2383,7 @@
       <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="22">
         <f t="shared" ref="K42" si="13">SUM(L42,M43)/SUM(L42:M43)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2376,7 +2393,7 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="22">
         <f t="shared" ref="N42" si="14">SUM(O42,P43)/SUM(O42:P43)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2389,35 +2406,35 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="4">
         <v>7</v>
       </c>
       <c r="D43" s="5">
         <v>33</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="4">
         <v>6</v>
       </c>
       <c r="G43" s="5">
         <v>34</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="9">
         <v>8</v>
       </c>
       <c r="J43" s="10">
         <v>32</v>
       </c>
-      <c r="K43" s="20"/>
+      <c r="K43" s="23"/>
       <c r="L43" s="4">
         <v>5</v>
       </c>
       <c r="M43" s="5">
         <v>35</v>
       </c>
-      <c r="N43" s="20"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="4">
         <v>0</v>
       </c>
@@ -2429,7 +2446,7 @@
       <c r="A44" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="22">
         <f t="shared" ref="B44" si="15">SUM(C44,D45)/SUM(C44:D45)</f>
         <v>0.85897435897435892</v>
       </c>
@@ -2439,7 +2456,7 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="22">
         <f t="shared" ref="E44" si="16">SUM(F44,G45)/SUM(F44:G45)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2449,7 +2466,7 @@
       <c r="G44" s="3">
         <v>22</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="22">
         <f t="shared" ref="H44" si="17">SUM(I44,J45)/SUM(I44:J45)</f>
         <v>0.875</v>
       </c>
@@ -2459,7 +2476,7 @@
       <c r="J44" s="3">
         <v>3</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="22">
         <f t="shared" ref="K44" si="18">SUM(L44,M45)/SUM(L44:M45)</f>
         <v>0.92500000000000004</v>
       </c>
@@ -2469,7 +2486,7 @@
       <c r="M44" s="3">
         <v>2</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="22">
         <f t="shared" ref="N44" si="19">SUM(O44,P45)/SUM(O44:P45)</f>
         <v>0.95</v>
       </c>
@@ -2482,35 +2499,35 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="4">
         <v>7</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="4">
         <v>5</v>
       </c>
       <c r="G45" s="5">
         <v>34</v>
       </c>
-      <c r="H45" s="20"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="4">
         <v>7</v>
       </c>
       <c r="J45" s="5">
         <v>33</v>
       </c>
-      <c r="K45" s="20"/>
+      <c r="K45" s="23"/>
       <c r="L45" s="4">
         <v>4</v>
       </c>
       <c r="M45" s="5">
         <v>36</v>
       </c>
-      <c r="N45" s="20"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="4">
         <v>1</v>
       </c>
@@ -2522,7 +2539,7 @@
       <c r="A46" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="26">
         <f t="shared" ref="B46" si="20">SUM(C46,D47)/SUM(C46:D47)</f>
         <v>0.875</v>
       </c>
@@ -2532,7 +2549,7 @@
       <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="22">
         <f t="shared" ref="E46" si="21">SUM(F46,G47)/SUM(F46:G47)</f>
         <v>0.65</v>
       </c>
@@ -2542,7 +2559,7 @@
       <c r="G46" s="3">
         <v>22</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="22">
         <f t="shared" ref="H46" si="22">SUM(I46,J47)/SUM(I46:J47)</f>
         <v>0.85</v>
       </c>
@@ -2552,7 +2569,7 @@
       <c r="J46" s="3">
         <v>4</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="22">
         <f t="shared" ref="K46" si="23">SUM(L46,M47)/SUM(L46:M47)</f>
         <v>0.9358974358974359</v>
       </c>
@@ -2562,7 +2579,7 @@
       <c r="M46" s="3">
         <v>2</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="22">
         <f t="shared" ref="N46" si="24">SUM(O46,P47)/SUM(O46:P47)</f>
         <v>0.96153846153846156</v>
       </c>
@@ -2575,35 +2592,35 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="9">
         <v>6</v>
       </c>
       <c r="D47" s="10">
         <v>34</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="4">
         <v>6</v>
       </c>
       <c r="G47" s="5">
         <v>34</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="4">
         <v>8</v>
       </c>
       <c r="J47" s="5">
         <v>32</v>
       </c>
-      <c r="K47" s="20"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="4">
         <v>3</v>
       </c>
       <c r="M47" s="5">
         <v>36</v>
       </c>
-      <c r="N47" s="20"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="4">
         <v>0</v>
       </c>
@@ -2615,7 +2632,7 @@
       <c r="A48" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="22">
         <f t="shared" ref="B48" si="25">SUM(C48,D49)/SUM(C48:D49)</f>
         <v>0.85</v>
       </c>
@@ -2625,7 +2642,7 @@
       <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="22">
         <f t="shared" ref="E48" si="26">SUM(F48,G49)/SUM(F48:G49)</f>
         <v>0.65822784810126578</v>
       </c>
@@ -2635,7 +2652,7 @@
       <c r="G48" s="3">
         <v>22</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="22">
         <f t="shared" ref="H48" si="27">SUM(I48,J49)/SUM(I48:J49)</f>
         <v>0.875</v>
       </c>
@@ -2645,7 +2662,7 @@
       <c r="J48" s="3">
         <v>3</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="22">
         <f t="shared" ref="K48" si="28">SUM(L48,M49)/SUM(L48:M49)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -2655,7 +2672,7 @@
       <c r="M48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="22">
         <f t="shared" ref="N48" si="29">SUM(O48,P49)/SUM(O48:P49)</f>
         <v>0.94936708860759489</v>
       </c>
@@ -2668,35 +2685,35 @@
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="4">
         <v>7</v>
       </c>
       <c r="D49" s="5">
         <v>33</v>
       </c>
-      <c r="E49" s="20"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="5">
         <v>34</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="5">
         <v>33</v>
       </c>
-      <c r="K49" s="20"/>
+      <c r="K49" s="23"/>
       <c r="L49" s="4">
         <v>5</v>
       </c>
       <c r="M49" s="5">
         <v>35</v>
       </c>
-      <c r="N49" s="20"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="4">
         <v>1</v>
       </c>
@@ -2705,24 +2722,24 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -2731,32 +2748,32 @@
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22" t="s">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22" t="s">
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22" t="s">
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="22">
         <f>SUM(C53,D54)/SUM(C53:D54)</f>
         <v>0.875</v>
       </c>
@@ -2766,7 +2783,7 @@
       <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="26">
         <f>SUM(F53,G54)/SUM(F53:G54)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2776,7 +2793,7 @@
       <c r="G53" s="8">
         <v>10</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="22">
         <f>SUM(I53,J54)/SUM(I53:J54)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2786,7 +2803,7 @@
       <c r="J53" s="3">
         <v>3</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="26">
         <f>SUM(L53,M54)/SUM(L53:M54)</f>
         <v>0.92405063291139244</v>
       </c>
@@ -2796,7 +2813,7 @@
       <c r="M53" s="8">
         <v>3</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="22">
         <f>SUM(O53,P54)/SUM(O53:P54)</f>
         <v>0.93670886075949367</v>
       </c>
@@ -2809,35 +2826,35 @@
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="4">
         <v>8</v>
       </c>
       <c r="D54" s="5">
         <v>32</v>
       </c>
-      <c r="E54" s="24"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="9">
         <v>11</v>
       </c>
       <c r="G54" s="10">
         <v>29</v>
       </c>
-      <c r="H54" s="20"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="4">
         <v>9</v>
       </c>
       <c r="J54" s="5">
         <v>31</v>
       </c>
-      <c r="K54" s="24"/>
+      <c r="K54" s="27"/>
       <c r="L54" s="9">
         <v>3</v>
       </c>
       <c r="M54" s="10">
         <v>37</v>
       </c>
-      <c r="N54" s="20"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="4">
         <v>1</v>
       </c>
@@ -2849,7 +2866,7 @@
       <c r="A55" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="22">
         <f>SUM(C55,D56)/SUM(C55:D56)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -2859,7 +2876,7 @@
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="22">
         <f>SUM(F55,G56)/SUM(F55:G56)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -2869,7 +2886,7 @@
       <c r="G55" s="3">
         <v>11</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="22">
         <f>SUM(I55,J56)/SUM(I55:J56)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -2879,7 +2896,7 @@
       <c r="J55" s="3">
         <v>3</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="22">
         <f>SUM(L55,M56)/SUM(L55:M56)</f>
         <v>0.91139240506329111</v>
       </c>
@@ -2889,7 +2906,7 @@
       <c r="M55" s="3">
         <v>4</v>
       </c>
-      <c r="N55" s="23">
+      <c r="N55" s="26">
         <f>SUM(O55,P56)/SUM(O55:P56)</f>
         <v>0.96202531645569622</v>
       </c>
@@ -2903,35 +2920,35 @@
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="4">
         <v>8</v>
       </c>
       <c r="D56" s="5">
         <v>32</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="4">
         <v>10</v>
       </c>
       <c r="G56" s="5">
         <v>29</v>
       </c>
-      <c r="H56" s="20"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="4">
         <v>9</v>
       </c>
       <c r="J56" s="5">
         <v>31</v>
       </c>
-      <c r="K56" s="20"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="4">
         <v>3</v>
       </c>
       <c r="M56" s="5">
         <v>37</v>
       </c>
-      <c r="N56" s="24"/>
+      <c r="N56" s="27"/>
       <c r="O56" s="9">
         <v>1</v>
       </c>
@@ -2943,7 +2960,7 @@
       <c r="A57" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="26">
         <f>SUM(C57,D58)/SUM(C57:D58)</f>
         <v>0.90666666666666662</v>
       </c>
@@ -2953,7 +2970,7 @@
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="22">
         <f>SUM(F57,G58)/SUM(F57:G58)</f>
         <v>0.7466666666666667</v>
       </c>
@@ -2963,7 +2980,7 @@
       <c r="G57" s="3">
         <v>10</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="22">
         <f>SUM(I57,J58)/SUM(I57:J58)</f>
         <v>0.83783783783783783</v>
       </c>
@@ -2973,7 +2990,7 @@
       <c r="J57" s="3">
         <v>4</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="22">
         <f>SUM(L57,M58)/SUM(L57:M58)</f>
         <v>0.93333333333333335</v>
       </c>
@@ -2983,7 +3000,7 @@
       <c r="M57" s="3">
         <v>3</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N57" s="22">
         <f>SUM(O57,P58)/SUM(O57:P58)</f>
         <v>0.94666666666666666</v>
       </c>
@@ -2996,35 +3013,35 @@
     </row>
     <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="9">
         <v>5</v>
       </c>
       <c r="D58" s="10">
         <v>33</v>
       </c>
-      <c r="E58" s="20"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="4">
         <v>9</v>
       </c>
       <c r="G58" s="5">
         <v>28</v>
       </c>
-      <c r="H58" s="20"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="4">
         <v>8</v>
       </c>
       <c r="J58" s="5">
         <v>30</v>
       </c>
-      <c r="K58" s="20"/>
+      <c r="K58" s="23"/>
       <c r="L58" s="4">
         <v>2</v>
       </c>
       <c r="M58" s="5">
         <v>36</v>
       </c>
-      <c r="N58" s="20"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="4">
         <v>2</v>
       </c>
@@ -3036,7 +3053,7 @@
       <c r="A59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="22">
         <f>SUM(C59,D60)/SUM(C59:D60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3046,7 +3063,7 @@
       <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="22">
         <f>SUM(F59,G60)/SUM(F59:G60)</f>
         <v>0.73239436619718312</v>
       </c>
@@ -3056,7 +3073,7 @@
       <c r="G59" s="3">
         <v>9</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="22">
         <f>SUM(I59,J60)/SUM(I59:J60)</f>
         <v>0.87323943661971826</v>
       </c>
@@ -3066,7 +3083,7 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K59" s="22">
         <f>SUM(L59,M60)/SUM(L59:M60)</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3076,7 +3093,7 @@
       <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N59" s="22">
         <f>SUM(O59,P60)/SUM(O59:P60)</f>
         <v>0.95774647887323938</v>
       </c>
@@ -3089,35 +3106,35 @@
     </row>
     <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="4">
         <v>6</v>
       </c>
       <c r="D60" s="5">
         <v>31</v>
       </c>
-      <c r="E60" s="20"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="4">
         <v>10</v>
       </c>
       <c r="G60" s="5">
         <v>26</v>
       </c>
-      <c r="H60" s="20"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="4">
         <v>8</v>
       </c>
       <c r="J60" s="5">
         <v>29</v>
       </c>
-      <c r="K60" s="20"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="4">
         <v>4</v>
       </c>
       <c r="M60" s="5">
         <v>33</v>
       </c>
-      <c r="N60" s="20"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="4">
         <v>1</v>
       </c>
@@ -3126,10 +3143,10 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="22">
         <f>SUM(C61,D62)/SUM(C61:D62)</f>
         <v>0.84810126582278478</v>
       </c>
@@ -3139,7 +3156,7 @@
       <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="22">
         <f>SUM(F61,G62)/SUM(F61:G62)</f>
         <v>0.73417721518987344</v>
       </c>
@@ -3149,7 +3166,7 @@
       <c r="G61" s="3">
         <v>10</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H61" s="22">
         <f>SUM(I61,J62)/SUM(I61:J62)</f>
         <v>0.87341772151898733</v>
       </c>
@@ -3159,7 +3176,7 @@
       <c r="J61" s="3">
         <v>2</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K61" s="22">
         <f>SUM(L61,M62)/SUM(L61:M62)</f>
         <v>0.92307692307692313</v>
       </c>
@@ -3169,7 +3186,7 @@
       <c r="M61" s="3">
         <v>4</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N61" s="22">
         <f>SUM(O61,P62)/SUM(O61:P62)</f>
         <v>0.96202531645569622</v>
       </c>
@@ -3182,35 +3199,35 @@
     </row>
     <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4">
         <v>8</v>
       </c>
       <c r="D62" s="5">
         <v>32</v>
       </c>
-      <c r="E62" s="20"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="4">
         <v>11</v>
       </c>
       <c r="G62" s="5">
         <v>28</v>
       </c>
-      <c r="H62" s="20"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="4">
         <v>8</v>
       </c>
       <c r="J62" s="5">
         <v>32</v>
       </c>
-      <c r="K62" s="20"/>
+      <c r="K62" s="23"/>
       <c r="L62" s="4">
         <v>2</v>
       </c>
       <c r="M62" s="5">
         <v>37</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="4">
         <v>1</v>
       </c>
@@ -3219,10 +3236,10 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="22">
         <f>SUM(C63,D64)/SUM(C63:D64)</f>
         <v>0.86842105263157898</v>
       </c>
@@ -3232,7 +3249,7 @@
       <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="22">
         <f>SUM(F63,G64)/SUM(F63:G64)</f>
         <v>0.72</v>
       </c>
@@ -3242,7 +3259,7 @@
       <c r="G63" s="3">
         <v>10</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H63" s="22">
         <f>SUM(I63,J64)/SUM(I63:J64)</f>
         <v>0.8783783783783784</v>
       </c>
@@ -3252,7 +3269,7 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K63" s="22">
         <f>SUM(L63,M64)/SUM(L63:M64)</f>
         <v>0.91891891891891897</v>
       </c>
@@ -3262,7 +3279,7 @@
       <c r="M63" s="3">
         <v>3</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N63" s="22">
         <f>SUM(O63,P64)/SUM(O63:P64)</f>
         <v>0.92</v>
       </c>
@@ -3275,35 +3292,35 @@
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="4">
         <v>6</v>
       </c>
       <c r="D64" s="5">
         <v>33</v>
       </c>
-      <c r="E64" s="20"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="4">
         <v>11</v>
       </c>
       <c r="G64" s="5">
         <v>28</v>
       </c>
-      <c r="H64" s="20"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="4">
         <v>8</v>
       </c>
       <c r="J64" s="5">
         <v>31</v>
       </c>
-      <c r="K64" s="20"/>
+      <c r="K64" s="23"/>
       <c r="L64" s="4">
         <v>3</v>
       </c>
       <c r="M64" s="5">
         <v>36</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="4">
         <v>2</v>
       </c>
@@ -3315,7 +3332,7 @@
       <c r="A65" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="22">
         <f>SUM(C65,D66)/SUM(C65:D66)</f>
         <v>0.90140845070422537</v>
       </c>
@@ -3325,7 +3342,7 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="22">
         <f>SUM(F65,G66)/SUM(F65:G66)</f>
         <v>0.74647887323943662</v>
       </c>
@@ -3335,7 +3352,7 @@
       <c r="G65" s="3">
         <v>9</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H65" s="22">
         <f>SUM(I65,J66)/SUM(I65:J66)</f>
         <v>0.84722222222222221</v>
       </c>
@@ -3345,7 +3362,7 @@
       <c r="J65" s="3">
         <v>4</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K65" s="22">
         <f>SUM(L65,M66)/SUM(L65:M66)</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3355,7 +3372,7 @@
       <c r="M65" s="3">
         <v>3</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N65" s="22">
         <f>SUM(O65,P66)/SUM(O65:P66)</f>
         <v>0.95833333333333337</v>
       </c>
@@ -3368,35 +3385,35 @@
     </row>
     <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="4">
         <v>5</v>
       </c>
       <c r="D66" s="5">
         <v>32</v>
       </c>
-      <c r="E66" s="20"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="4">
         <v>9</v>
       </c>
       <c r="G66" s="5">
         <v>27</v>
       </c>
-      <c r="H66" s="20"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="5">
         <v>31</v>
       </c>
-      <c r="K66" s="20"/>
+      <c r="K66" s="23"/>
       <c r="L66" s="4">
         <v>3</v>
       </c>
       <c r="M66" s="5">
         <v>35</v>
       </c>
-      <c r="N66" s="20"/>
+      <c r="N66" s="23"/>
       <c r="O66" s="4">
         <v>1</v>
       </c>
@@ -3408,7 +3425,7 @@
       <c r="A67" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="22">
         <f>SUM(C67,D68)/SUM(C67:D68)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3418,7 +3435,7 @@
       <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="24">
         <f>SUM(F67,G68)/SUM(F67:G68)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3428,7 +3445,7 @@
       <c r="G67" s="13">
         <v>10</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H67" s="22">
         <f>SUM(I67,J68)/SUM(I67:J68)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3438,7 +3455,7 @@
       <c r="J67" s="3">
         <v>1</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K67" s="22">
         <f>SUM(L67,M68)/SUM(L67:M68)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3448,7 +3465,7 @@
       <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N67" s="22">
         <f>SUM(O67,P68)/SUM(O67:P68)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3461,35 +3478,35 @@
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="4">
         <v>7</v>
       </c>
       <c r="D68" s="5">
         <v>31</v>
       </c>
-      <c r="E68" s="28"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="14">
         <v>10</v>
       </c>
       <c r="G68" s="15">
         <v>29</v>
       </c>
-      <c r="H68" s="20"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="4">
         <v>7</v>
       </c>
       <c r="J68" s="5">
         <v>27</v>
       </c>
-      <c r="K68" s="20"/>
+      <c r="K68" s="23"/>
       <c r="L68" s="4">
         <v>3</v>
       </c>
       <c r="M68" s="5">
         <v>32</v>
       </c>
-      <c r="N68" s="20"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="4">
         <v>1</v>
       </c>
@@ -3501,7 +3518,7 @@
       <c r="A69" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="22">
         <f>SUM(C69,D70)/SUM(C69:D70)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3511,7 +3528,7 @@
       <c r="D69" s="3">
         <v>4</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="22">
         <f>SUM(F69,G70)/SUM(F69:G70)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3521,7 +3538,7 @@
       <c r="G69" s="3">
         <v>10</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="22">
         <f>SUM(I69,J70)/SUM(I69:J70)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3531,7 +3548,7 @@
       <c r="J69" s="3">
         <v>1</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="22">
         <f>SUM(L69,M70)/SUM(L69:M70)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3541,7 +3558,7 @@
       <c r="M69" s="3">
         <v>2</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N69" s="22">
         <f>SUM(O69,P70)/SUM(O69:P70)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3554,35 +3571,35 @@
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="4">
         <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>31</v>
       </c>
-      <c r="E70" s="20"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="4">
         <v>10</v>
       </c>
       <c r="G70" s="5">
         <v>29</v>
       </c>
-      <c r="H70" s="20"/>
+      <c r="H70" s="23"/>
       <c r="I70" s="4">
         <v>7</v>
       </c>
       <c r="J70" s="5">
         <v>27</v>
       </c>
-      <c r="K70" s="20"/>
+      <c r="K70" s="23"/>
       <c r="L70" s="4">
         <v>3</v>
       </c>
       <c r="M70" s="5">
         <v>32</v>
       </c>
-      <c r="N70" s="20"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="4">
         <v>1</v>
       </c>
@@ -3591,10 +3608,10 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="22">
         <f>SUM(C71,D72)/SUM(C71:D72)</f>
         <v>0.85135135135135132</v>
       </c>
@@ -3604,7 +3621,7 @@
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="24">
         <f>SUM(F71,G72)/SUM(F71:G72)</f>
         <v>0.74358974358974361</v>
       </c>
@@ -3614,7 +3631,7 @@
       <c r="G71" s="13">
         <v>10</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="26">
         <f>SUM(I71,J72)/SUM(I71:J72)</f>
         <v>0.88059701492537312</v>
       </c>
@@ -3624,7 +3641,7 @@
       <c r="J71" s="8">
         <v>1</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K71" s="22">
         <f>SUM(L71,M72)/SUM(L71:M72)</f>
         <v>0.92957746478873238</v>
       </c>
@@ -3634,7 +3651,7 @@
       <c r="M71" s="3">
         <v>2</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N71" s="22">
         <f>SUM(O71,P72)/SUM(O71:P72)</f>
         <v>0.9538461538461539</v>
       </c>
@@ -3647,35 +3664,35 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="4">
         <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>31</v>
       </c>
-      <c r="E72" s="28"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="14">
         <v>10</v>
       </c>
       <c r="G72" s="15">
         <v>29</v>
       </c>
-      <c r="H72" s="24"/>
+      <c r="H72" s="27"/>
       <c r="I72" s="9">
         <v>7</v>
       </c>
       <c r="J72" s="10">
         <v>27</v>
       </c>
-      <c r="K72" s="20"/>
+      <c r="K72" s="23"/>
       <c r="L72" s="4">
         <v>3</v>
       </c>
       <c r="M72" s="5">
         <v>32</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="4">
         <v>1</v>
       </c>
@@ -3685,6 +3702,186 @@
     </row>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="N61:N62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
@@ -3709,186 +3906,6 @@
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3896,10 +3913,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+    <sheetView topLeftCell="D25" workbookViewId="0">
       <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
@@ -3911,58 +3928,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="24">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -3972,7 +3989,7 @@
       <c r="D3" s="13">
         <v>124</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <f>SUM(F3,G4)/SUM(F3:G4)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -3982,7 +3999,7 @@
       <c r="G3" s="13">
         <v>534</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="24">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -3992,7 +4009,7 @@
       <c r="J3" s="13">
         <v>145</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="24">
         <f>SUM(L3,M4)/SUM(L3:M4)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -4002,7 +4019,7 @@
       <c r="M3" s="13">
         <v>127</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="24">
         <f>SUM(O3,P4)/SUM(O3:P4)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -4014,36 +4031,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="14">
         <v>36</v>
       </c>
       <c r="D4" s="15">
         <v>2440</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="14">
         <v>59</v>
       </c>
       <c r="G4" s="15">
         <v>163</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="14">
         <v>49</v>
       </c>
       <c r="J4" s="15">
         <v>2427</v>
       </c>
-      <c r="K4" s="28"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="14">
         <v>26</v>
       </c>
       <c r="M4" s="15">
         <v>2450</v>
       </c>
-      <c r="N4" s="28"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="14">
         <v>37</v>
       </c>
@@ -4052,10 +4069,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="24">
         <f>SUM(C5,D6)/SUM(C5:D6)</f>
         <v>0.80449438202247192</v>
       </c>
@@ -4065,7 +4082,7 @@
       <c r="D5" s="13">
         <v>41</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <f>SUM(F5,G6)/SUM(F5:G6)</f>
         <v>0.7191011235955056</v>
       </c>
@@ -4075,7 +4092,7 @@
       <c r="G5" s="13">
         <v>40</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="24">
         <f>SUM(I5,J6)/SUM(I5:J6)</f>
         <v>0.77303370786516856</v>
       </c>
@@ -4085,7 +4102,7 @@
       <c r="J5" s="13">
         <v>61</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="24">
         <f>SUM(L5,M6)/SUM(L5:M6)</f>
         <v>0.84943820224719102</v>
       </c>
@@ -4095,7 +4112,7 @@
       <c r="M5" s="13">
         <v>37</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="24">
         <f>SUM(O5,P6)/SUM(O5:P6)</f>
         <v>0.83595505617977528</v>
       </c>
@@ -4107,36 +4124,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="14">
         <v>46</v>
       </c>
       <c r="D6" s="15">
         <v>177</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="14">
         <v>85</v>
       </c>
       <c r="G6" s="15">
         <v>138</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="14">
         <v>40</v>
       </c>
       <c r="J6" s="15">
         <v>183</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="14">
         <v>30</v>
       </c>
       <c r="M6" s="15">
         <v>193</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="14">
         <v>37</v>
       </c>
@@ -4145,10 +4162,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="26">
         <f>SUM(C7,D8)/SUM(C7:D8)</f>
         <v>0.97475257523732584</v>
       </c>
@@ -4158,7 +4175,7 @@
       <c r="D7" s="8">
         <v>118</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <f>SUM(F7,G8)/SUM(F7:G8)</f>
         <v>0.75398909311250251</v>
       </c>
@@ -4168,7 +4185,7 @@
       <c r="G7" s="8">
         <v>649</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="26">
         <f>SUM(I7,J8)/SUM(I7:J8)</f>
         <v>0.91920824075944252</v>
       </c>
@@ -4178,7 +4195,7 @@
       <c r="J7" s="8">
         <v>355</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="26">
         <f>SUM(L7,M8)/SUM(L7:M8)</f>
         <v>0.98121591597657043</v>
       </c>
@@ -4188,7 +4205,7 @@
       <c r="M7" s="8">
         <v>93</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="26">
         <f>SUM(O7,P8)/SUM(O7:P8)</f>
         <v>0.99353665926075541</v>
       </c>
@@ -4200,36 +4217,36 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="10">
         <v>2468</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="9">
         <v>569</v>
       </c>
       <c r="G8" s="10">
         <v>1906</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="9">
         <v>45</v>
       </c>
       <c r="J8" s="10">
         <v>2430</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="9">
         <v>0</v>
       </c>
       <c r="M8" s="10">
         <v>2475</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="9">
         <v>0</v>
       </c>
@@ -4238,10 +4255,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="24">
         <f>SUM(C9,D10)/SUM(C9:D10)</f>
         <v>0.94069681245366943</v>
       </c>
@@ -4251,7 +4268,7 @@
       <c r="D9" s="13">
         <v>36</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <f>SUM(F9,G10)/SUM(F9:G10)</f>
         <v>0.78020756115641221</v>
       </c>
@@ -4261,7 +4278,7 @@
       <c r="G9" s="13">
         <v>534</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="24">
         <f>SUM(I9,J10)/SUM(I9:J10)</f>
         <v>0.9280948851000741</v>
       </c>
@@ -4271,7 +4288,7 @@
       <c r="J9" s="13">
         <v>49</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="24">
         <f>SUM(L9,M10)/SUM(L9:M10)</f>
         <v>0.94329132690882134</v>
       </c>
@@ -4281,7 +4298,7 @@
       <c r="M9" s="13">
         <v>26</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="24">
         <f>SUM(O9,P10)/SUM(O9:P10)</f>
         <v>0.94440326167531508</v>
       </c>
@@ -4293,36 +4310,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="14">
         <v>124</v>
       </c>
       <c r="D10" s="15">
         <v>98</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="14">
         <v>59</v>
       </c>
       <c r="G10" s="15">
         <v>163</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="14">
         <v>145</v>
       </c>
       <c r="J10" s="15">
         <v>77</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="14">
         <v>127</v>
       </c>
       <c r="M10" s="15">
         <v>95</v>
       </c>
-      <c r="N10" s="28"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="14">
         <v>113</v>
       </c>
@@ -4349,58 +4366,58 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32" t="s">
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <f>SUM(C14,D15)/SUM(C14:D15)</f>
         <v>0.97515653403352853</v>
       </c>
@@ -4410,7 +4427,7 @@
       <c r="D14" s="13">
         <v>121</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <f>SUM(F14,G15)/SUM(F14:G15)</f>
         <v>0.76126035144415272</v>
       </c>
@@ -4420,7 +4437,7 @@
       <c r="G14" s="13">
         <v>654</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="24">
         <f>SUM(I14,J15)/SUM(I14:J15)</f>
         <v>0.93334679862654013</v>
       </c>
@@ -4430,7 +4447,7 @@
       <c r="J14" s="13">
         <v>308</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="24">
         <f>SUM(L14,M15)/SUM(L14:M15)</f>
         <v>0.98182185417087453</v>
       </c>
@@ -4440,7 +4457,7 @@
       <c r="M14" s="13">
         <v>90</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="24">
         <f>SUM(O14,P15)/SUM(O14:P15)</f>
         <v>0.99474853564936372</v>
       </c>
@@ -4452,36 +4469,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="14">
         <v>2</v>
       </c>
       <c r="D15" s="15">
         <v>2473</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="14">
         <v>528</v>
       </c>
       <c r="G15" s="15">
         <v>1947</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="14">
         <v>22</v>
       </c>
       <c r="J15" s="15">
         <v>2453</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="15">
         <v>2475</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="14">
         <v>0</v>
       </c>
@@ -4490,10 +4507,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="24">
         <f>SUM(C16,D17)/SUM(C16:D17)</f>
         <v>0.70167642900424154</v>
       </c>
@@ -4503,7 +4520,7 @@
       <c r="D16" s="13">
         <v>365</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="24">
         <f>SUM(F16,G17)/SUM(F16:G17)</f>
         <v>0.68026661280549383</v>
       </c>
@@ -4513,7 +4530,7 @@
       <c r="G16" s="13">
         <v>385</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="24">
         <f>SUM(I16,J17)/SUM(I16:J17)</f>
         <v>0.69117350030296909</v>
       </c>
@@ -4523,7 +4540,7 @@
       <c r="J16" s="13">
         <v>258</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="24">
         <f>SUM(L16,M17)/SUM(L16:M17)</f>
         <v>0.70248434659664716</v>
       </c>
@@ -4533,7 +4550,7 @@
       <c r="M16" s="13">
         <v>301</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="24">
         <f>SUM(O16,P17)/SUM(O16:P17)</f>
         <v>0.70288830539284997</v>
       </c>
@@ -4545,36 +4562,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="14">
         <v>1112</v>
       </c>
       <c r="D17" s="15">
         <v>1363</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="14">
         <v>1198</v>
       </c>
       <c r="G17" s="15">
         <v>1277</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="14">
         <v>1271</v>
       </c>
       <c r="J17" s="15">
         <v>1204</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="14">
         <v>1172</v>
       </c>
       <c r="M17" s="15">
         <v>1303</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="14">
         <v>1168</v>
       </c>
@@ -4583,10 +4600,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="24">
         <f>SUM(C18,D19)/SUM(C18:D19)</f>
         <v>0.7604524338517471</v>
       </c>
@@ -4596,7 +4613,7 @@
       <c r="D18" s="13">
         <v>429</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <f>SUM(F18,G19)/SUM(F18:G19)</f>
         <v>0.69238537669157751</v>
       </c>
@@ -4606,7 +4623,7 @@
       <c r="G18" s="13">
         <v>490</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="24">
         <f>SUM(I18,J19)/SUM(I18:J19)</f>
         <v>0.71056352252070287</v>
       </c>
@@ -4616,7 +4633,7 @@
       <c r="J18" s="13">
         <v>282</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="24">
         <f>SUM(L18,M19)/SUM(L18:M19)</f>
         <v>0.7402544940416077</v>
       </c>
@@ -4626,7 +4643,7 @@
       <c r="M18" s="13">
         <v>250</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="24">
         <f>SUM(O18,P19)/SUM(O18:P19)</f>
         <v>0.74288022621692584</v>
       </c>
@@ -4638,36 +4655,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="14">
         <v>757</v>
       </c>
       <c r="D19" s="15">
         <v>1718</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="14">
         <v>1033</v>
       </c>
       <c r="G19" s="15">
         <v>1442</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="14">
         <v>1151</v>
       </c>
       <c r="J19" s="15">
         <v>1324</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="14">
         <v>1036</v>
       </c>
       <c r="M19" s="15">
         <v>1439</v>
       </c>
-      <c r="N19" s="28"/>
+      <c r="N19" s="25"/>
       <c r="O19" s="14">
         <v>1046</v>
       </c>
@@ -4676,10 +4693,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="24">
         <f t="shared" ref="B20" si="0">SUM(C20,D21)/SUM(C20:D21)</f>
         <v>0.88567966067461124</v>
       </c>
@@ -4689,7 +4706,7 @@
       <c r="D20" s="13">
         <v>484</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <f t="shared" ref="E20" si="1">SUM(F20,G21)/SUM(F20:G21)</f>
         <v>0.70773581094728333</v>
       </c>
@@ -4699,7 +4716,7 @@
       <c r="G20" s="13">
         <v>393</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="24">
         <f t="shared" ref="H20" si="2">SUM(I20,J21)/SUM(I20:J21)</f>
         <v>0.78670975560492828</v>
       </c>
@@ -4709,7 +4726,7 @@
       <c r="J20" s="13">
         <v>240</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="24">
         <f t="shared" ref="K20" si="3">SUM(L20,M21)/SUM(L20:M21)</f>
         <v>0.88729549585942236</v>
       </c>
@@ -4719,7 +4736,7 @@
       <c r="M20" s="13">
         <v>175</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="24">
         <f t="shared" ref="N20" si="4">SUM(O20,P21)/SUM(O20:P21)</f>
         <v>0.90224197131892547</v>
       </c>
@@ -4731,36 +4748,36 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="14">
         <v>82</v>
       </c>
       <c r="D21" s="15">
         <v>2393</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="14">
         <v>1054</v>
       </c>
       <c r="G21" s="15">
         <v>1421</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="14">
         <v>816</v>
       </c>
       <c r="J21" s="15">
         <v>1659</v>
       </c>
-      <c r="K21" s="28"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="14">
         <v>383</v>
       </c>
       <c r="M21" s="15">
         <v>2092</v>
       </c>
-      <c r="N21" s="28"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="14">
         <v>321</v>
       </c>
@@ -4769,10 +4786,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="24">
         <f t="shared" ref="B22" si="5">SUM(C22,D23)/SUM(C22:D23)</f>
         <v>0.94001211876388613</v>
       </c>
@@ -4782,7 +4799,7 @@
       <c r="D22" s="13">
         <v>283</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="24">
         <f t="shared" ref="E22" si="6">SUM(F22,G23)/SUM(F22:G23)</f>
         <v>0.73156937992324778</v>
       </c>
@@ -4792,7 +4809,7 @@
       <c r="G22" s="13">
         <v>400</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="24">
         <f t="shared" ref="H22" si="7">SUM(I22,J23)/SUM(I22:J23)</f>
         <v>0.86265400929105229</v>
       </c>
@@ -4802,7 +4819,7 @@
       <c r="J22" s="13">
         <v>405</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="24">
         <f t="shared" ref="K22" si="8">SUM(L22,M23)/SUM(L22:M23)</f>
         <v>0.9654615229246617</v>
       </c>
@@ -4812,7 +4829,7 @@
       <c r="M22" s="13">
         <v>130</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="24">
         <f t="shared" ref="N22" si="9">SUM(O22,P23)/SUM(O22:P23)</f>
         <v>0.98161987477277313</v>
       </c>
@@ -4824,36 +4841,36 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="14">
         <v>14</v>
       </c>
       <c r="D23" s="15">
         <v>2461</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="14">
         <v>929</v>
       </c>
       <c r="G23" s="15">
         <v>1546</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="14">
         <v>275</v>
       </c>
       <c r="J23" s="15">
         <v>2200</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="14">
         <v>41</v>
       </c>
       <c r="M23" s="15">
         <v>2434</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="14">
         <v>10</v>
       </c>
@@ -4862,10 +4879,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="26">
         <f t="shared" ref="B24" si="10">SUM(C24,D25)/SUM(C24:D25)</f>
         <v>0.96384568773985058</v>
       </c>
@@ -4875,7 +4892,7 @@
       <c r="D24" s="8">
         <v>171</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="24">
         <f t="shared" ref="E24" si="11">SUM(F24,G25)/SUM(F24:G25)</f>
         <v>0.73399313270046451</v>
       </c>
@@ -4885,7 +4902,7 @@
       <c r="G24" s="13">
         <v>485</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="24">
         <f t="shared" ref="H24" si="12">SUM(I24,J25)/SUM(I24:J25)</f>
         <v>0.88305392849929309</v>
       </c>
@@ -4895,7 +4912,7 @@
       <c r="J24" s="13">
         <v>424</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="24">
         <f t="shared" ref="K24" si="13">SUM(L24,M25)/SUM(L24:M25)</f>
         <v>0.97394465764492022</v>
       </c>
@@ -4905,7 +4922,7 @@
       <c r="M24" s="13">
         <v>102</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="26">
         <f t="shared" ref="N24" si="14">SUM(O24,P25)/SUM(O24:P25)</f>
         <v>0.99232478287214709</v>
       </c>
@@ -4917,36 +4934,36 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="9">
         <v>8</v>
       </c>
       <c r="D25" s="10">
         <v>2467</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="14">
         <v>832</v>
       </c>
       <c r="G25" s="15">
         <v>1643</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="14">
         <v>155</v>
       </c>
       <c r="J25" s="15">
         <v>2320</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="14">
         <v>27</v>
       </c>
       <c r="M25" s="15">
         <v>2448</v>
       </c>
-      <c r="N25" s="24"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
@@ -4955,10 +4972,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="24">
         <f t="shared" ref="B26" si="15">SUM(C26,D27)/SUM(C26:D27)</f>
         <v>0.96849121389618253</v>
       </c>
@@ -4968,7 +4985,7 @@
       <c r="D26" s="13">
         <v>151</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="26">
         <f t="shared" ref="E26" si="16">SUM(F26,G27)/SUM(F26:G27)</f>
         <v>0.75035346394667746</v>
       </c>
@@ -4978,7 +4995,7 @@
       <c r="G26" s="8">
         <v>616</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="26">
         <f t="shared" ref="H26" si="17">SUM(I26,J27)/SUM(I26:J27)</f>
         <v>0.90708947687335895</v>
       </c>
@@ -4988,7 +5005,7 @@
       <c r="J26" s="8">
         <v>367</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="26">
         <f t="shared" ref="K26" si="18">SUM(L26,M27)/SUM(L26:M27)</f>
         <v>0.98141789537467183</v>
       </c>
@@ -4998,7 +5015,7 @@
       <c r="M26" s="8">
         <v>90</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="24">
         <f t="shared" ref="N26" si="19">SUM(O26,P27)/SUM(O26:P27)</f>
         <v>0.99414259745505962</v>
       </c>
@@ -5010,36 +5027,36 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="14">
         <v>5</v>
       </c>
       <c r="D27" s="15">
         <v>2470</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="9">
         <v>620</v>
       </c>
       <c r="G27" s="10">
         <v>1855</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="9">
         <v>93</v>
       </c>
       <c r="J27" s="10">
         <v>2382</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="9">
         <v>2</v>
       </c>
       <c r="M27" s="10">
         <v>2473</v>
       </c>
-      <c r="N27" s="28"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="14">
         <v>0</v>
       </c>
@@ -5066,58 +5083,58 @@
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="32" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32" t="s">
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32" t="s">
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="24">
         <f>SUM(C31,D32)/SUM(C31:D32)</f>
         <v>0.96465360533225608</v>
       </c>
@@ -5127,7 +5144,7 @@
       <c r="D31" s="13">
         <v>163</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="24">
         <f>SUM(F31,G32)/SUM(F31:G32)</f>
         <v>0.7535851343162997</v>
       </c>
@@ -5137,7 +5154,7 @@
       <c r="G31" s="13">
         <v>555</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="24">
         <f>SUM(I31,J32)/SUM(I31:J32)</f>
         <v>0.90062613613411435</v>
       </c>
@@ -5147,7 +5164,7 @@
       <c r="J31" s="13">
         <v>353</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="24">
         <f>SUM(L31,M32)/SUM(L31:M32)</f>
         <v>0.9798020601898606</v>
       </c>
@@ -5157,7 +5174,7 @@
       <c r="M31" s="13">
         <v>97</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="24">
         <f>SUM(O31,P32)/SUM(O31:P32)</f>
         <v>0.99192082407594429</v>
       </c>
@@ -5169,36 +5186,36 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="14">
         <v>12</v>
       </c>
       <c r="D32" s="15">
         <v>2463</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="14">
         <v>665</v>
       </c>
       <c r="G32" s="15">
         <v>1810</v>
       </c>
-      <c r="H32" s="28"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="14">
         <v>139</v>
       </c>
       <c r="J32" s="15">
         <v>2336</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="14">
         <v>3</v>
       </c>
       <c r="M32" s="15">
         <v>2472</v>
       </c>
-      <c r="N32" s="28"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="14">
         <v>0</v>
       </c>
@@ -5207,10 +5224,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="24">
         <f>SUM(C33,D34)/SUM(C33:D34)</f>
         <v>0.96816976127320953</v>
       </c>
@@ -5220,7 +5237,7 @@
       <c r="D33" s="13">
         <v>154</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="24">
         <f>SUM(F33,G34)/SUM(F33:G34)</f>
         <v>0.75319407828026774</v>
       </c>
@@ -5230,7 +5247,7 @@
       <c r="G33" s="13">
         <v>554</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="24">
         <f>SUM(I33,J34)/SUM(I33:J34)</f>
         <v>0.88798204448071827</v>
       </c>
@@ -5240,7 +5257,7 @@
       <c r="J33" s="13">
         <v>334</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="24">
         <f>SUM(L33,M34)/SUM(L33:M34)</f>
         <v>0.98388084064476633</v>
       </c>
@@ -5250,7 +5267,7 @@
       <c r="M33" s="13">
         <v>71</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="24">
         <f>SUM(O33,P34)/SUM(O33:P34)</f>
         <v>0.99224648031014073</v>
       </c>
@@ -5262,36 +5279,36 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="14">
         <v>2</v>
       </c>
       <c r="D34" s="15">
         <v>2448</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="14">
         <v>663</v>
       </c>
       <c r="G34" s="15">
         <v>1817</v>
       </c>
-      <c r="H34" s="28"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="14">
         <v>215</v>
       </c>
       <c r="J34" s="15">
         <v>2235</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="25"/>
       <c r="L34" s="14">
         <v>8</v>
       </c>
       <c r="M34" s="15">
         <v>2442</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="14">
         <v>3</v>
       </c>
@@ -5300,10 +5317,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="24">
         <f>SUM(C35,D36)/SUM(C35:D36)</f>
         <v>0.96215181798851801</v>
       </c>
@@ -5313,7 +5330,7 @@
       <c r="D35" s="13">
         <v>167</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="24">
         <f>SUM(F35,G36)/SUM(F35:G36)</f>
         <v>0.76344314558979809</v>
       </c>
@@ -5323,7 +5340,7 @@
       <c r="G35" s="13">
         <v>518</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="24">
         <f>SUM(I35,J36)/SUM(I35:J36)</f>
         <v>0.91625929861849098</v>
       </c>
@@ -5333,7 +5350,7 @@
       <c r="J35" s="13">
         <v>362</v>
       </c>
-      <c r="K35" s="27">
+      <c r="K35" s="24">
         <f>SUM(L35,M36)/SUM(L35:M36)</f>
         <v>0.9808714133900106</v>
       </c>
@@ -5343,7 +5360,7 @@
       <c r="M35" s="13">
         <v>89</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="24">
         <f>SUM(O35,P36)/SUM(O35:P36)</f>
         <v>0.99043367346938771</v>
       </c>
@@ -5355,36 +5372,36 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="14">
         <v>11</v>
       </c>
       <c r="D36" s="15">
         <v>2363</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="14">
         <v>595</v>
       </c>
       <c r="G36" s="15">
         <v>1757</v>
       </c>
-      <c r="H36" s="28"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="14">
         <v>32</v>
       </c>
       <c r="J36" s="15">
         <v>2320</v>
       </c>
-      <c r="K36" s="28"/>
+      <c r="K36" s="25"/>
       <c r="L36" s="14">
         <v>1</v>
       </c>
       <c r="M36" s="15">
         <v>2351</v>
       </c>
-      <c r="N36" s="28"/>
+      <c r="N36" s="25"/>
       <c r="O36" s="14">
         <v>0</v>
       </c>
@@ -5393,10 +5410,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="24">
         <f>SUM(C37,D38)/SUM(C37:D38)</f>
         <v>0.9591561938958707</v>
       </c>
@@ -5406,7 +5423,7 @@
       <c r="D37" s="13">
         <v>174</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="24">
         <f>SUM(F37,G38)/SUM(F37:G38)</f>
         <v>0.76705565529622977</v>
       </c>
@@ -5416,7 +5433,7 @@
       <c r="G37" s="13">
         <v>465</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="24">
         <f>SUM(I37,J38)/SUM(I37:J38)</f>
         <v>0.88487432675044886</v>
       </c>
@@ -5426,7 +5443,7 @@
       <c r="J37" s="13">
         <v>405</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="24">
         <f>SUM(L37,M38)/SUM(L37:M38)</f>
         <v>0.97935368043087967</v>
       </c>
@@ -5436,7 +5453,7 @@
       <c r="M37" s="13">
         <v>90</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="24">
         <f>SUM(O37,P38)/SUM(O37:P38)</f>
         <v>0.99304308797127472</v>
       </c>
@@ -5448,36 +5465,36 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="14">
         <v>8</v>
       </c>
       <c r="D38" s="15">
         <v>2253</v>
       </c>
-      <c r="E38" s="28"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="14">
         <v>573</v>
       </c>
       <c r="G38" s="15">
         <v>1600</v>
       </c>
-      <c r="H38" s="28"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="14">
         <v>108</v>
       </c>
       <c r="J38" s="15">
         <v>2175</v>
       </c>
-      <c r="K38" s="28"/>
+      <c r="K38" s="25"/>
       <c r="L38" s="14">
         <v>2</v>
       </c>
       <c r="M38" s="15">
         <v>2281</v>
       </c>
-      <c r="N38" s="28"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="14">
         <v>0</v>
       </c>
@@ -5486,10 +5503,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="24">
         <f>SUM(C39,D40)/SUM(C39:D40)</f>
         <v>0.96143644154254237</v>
       </c>
@@ -5499,7 +5516,7 @@
       <c r="D39" s="13">
         <v>179</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="24">
         <f>SUM(F39,G40)/SUM(F39:G40)</f>
         <v>0.76083401471790679</v>
       </c>
@@ -5509,7 +5526,7 @@
       <c r="G39" s="13">
         <v>628</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="24">
         <f>SUM(I39,J40)/SUM(I39:J40)</f>
         <v>0.90348908386043669</v>
       </c>
@@ -5519,7 +5536,7 @@
       <c r="J39" s="13">
         <v>387</v>
       </c>
-      <c r="K39" s="27">
+      <c r="K39" s="24">
         <f>SUM(L39,M40)/SUM(L39:M40)</f>
         <v>0.98265660069373595</v>
       </c>
@@ -5529,7 +5546,7 @@
       <c r="M39" s="13">
         <v>85</v>
       </c>
-      <c r="N39" s="27">
+      <c r="N39" s="24">
         <f>SUM(O39,P40)/SUM(O39:P40)</f>
         <v>0.99143032034278722</v>
       </c>
@@ -5541,36 +5558,36 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="14">
         <v>10</v>
       </c>
       <c r="D40" s="15">
         <v>2439</v>
       </c>
-      <c r="E40" s="28"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="14">
         <v>542</v>
       </c>
       <c r="G40" s="15">
         <v>1910</v>
       </c>
-      <c r="H40" s="28"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="14">
         <v>86</v>
       </c>
       <c r="J40" s="15">
         <v>2363</v>
       </c>
-      <c r="K40" s="28"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="14">
         <v>0</v>
       </c>
       <c r="M40" s="15">
         <v>2449</v>
       </c>
-      <c r="N40" s="28"/>
+      <c r="N40" s="25"/>
       <c r="O40" s="14">
         <v>0</v>
       </c>
@@ -5579,10 +5596,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="24">
         <f>SUM(C41,D42)/SUM(C41:D42)</f>
         <v>0.96364022964065488</v>
       </c>
@@ -5592,7 +5609,7 @@
       <c r="D41" s="13">
         <v>168</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="24">
         <f>SUM(F41,G42)/SUM(F41:G42)</f>
         <v>0.77014671486285347</v>
       </c>
@@ -5602,7 +5619,7 @@
       <c r="G41" s="13">
         <v>641</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="24">
         <f>SUM(I41,J42)/SUM(I41:J42)</f>
         <v>0.90219009143100148</v>
       </c>
@@ -5612,13 +5629,13 @@
       <c r="J41" s="13">
         <v>391</v>
       </c>
-      <c r="K41" s="27" t="e">
+      <c r="K41" s="24" t="e">
         <f>SUM(L41,M42)/SUM(L41:M42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="27">
+      <c r="N41" s="24">
         <f>SUM(O41,P42)/SUM(O41:P42)</f>
         <v>0.99340846268339356</v>
       </c>
@@ -5630,32 +5647,32 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="14">
         <v>3</v>
       </c>
       <c r="D42" s="15">
         <v>2397</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="14">
         <v>440</v>
       </c>
       <c r="G42" s="15">
         <v>1858</v>
       </c>
-      <c r="H42" s="28"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="14">
         <v>69</v>
       </c>
       <c r="J42" s="15">
         <v>2336</v>
       </c>
-      <c r="K42" s="28"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="28"/>
+      <c r="N42" s="25"/>
       <c r="O42" s="14">
         <v>5</v>
       </c>
@@ -5664,10 +5681,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="24">
         <f>SUM(C43,D44)/SUM(C43:D44)</f>
         <v>0.96140035906642729</v>
       </c>
@@ -5677,7 +5694,7 @@
       <c r="D43" s="13">
         <v>157</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="24">
         <f>SUM(F43,G44)/SUM(F43:G44)</f>
         <v>0.78164272890484743</v>
       </c>
@@ -5687,7 +5704,7 @@
       <c r="G43" s="13">
         <v>346</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="24">
         <f>SUM(I43,J44)/SUM(I43:J44)</f>
         <v>0.91629263913824055</v>
       </c>
@@ -5697,13 +5714,13 @@
       <c r="J43" s="13">
         <v>350</v>
       </c>
-      <c r="K43" s="27" t="e">
+      <c r="K43" s="24" t="e">
         <f>SUM(L43,M44)/SUM(L43:M44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="27">
+      <c r="N43" s="24">
         <f>SUM(O43,P44)/SUM(O43:P44)</f>
         <v>0.9914702581369248</v>
       </c>
@@ -5715,32 +5732,32 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="14">
         <v>15</v>
       </c>
       <c r="D44" s="15">
         <v>2305</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="14">
         <v>627</v>
       </c>
       <c r="G44" s="15">
         <v>1670</v>
       </c>
-      <c r="H44" s="28"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="14">
         <v>23</v>
       </c>
       <c r="J44" s="15">
         <v>2274</v>
       </c>
-      <c r="K44" s="28"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="14"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="14">
         <v>0</v>
       </c>
@@ -5749,10 +5766,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="24">
         <f>SUM(C45,D46)/SUM(C45:D46)</f>
         <v>0.97306629834254144</v>
       </c>
@@ -5762,7 +5779,7 @@
       <c r="D45" s="13">
         <v>115</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="24">
         <f>SUM(F45,G46)/SUM(F45:G46)</f>
         <v>0.76606007454505587</v>
       </c>
@@ -5772,7 +5789,7 @@
       <c r="G45" s="13">
         <v>394</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="24">
         <f>SUM(I45,J46)/SUM(I45:J46)</f>
         <v>0.90506467879850905</v>
       </c>
@@ -5782,13 +5799,13 @@
       <c r="J45" s="13">
         <v>369</v>
       </c>
-      <c r="K45" s="27" t="e">
+      <c r="K45" s="24" t="e">
         <f>SUM(L45,M46)/SUM(L45:M46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="27">
+      <c r="N45" s="24">
         <f>SUM(O45,P46)/SUM(O45:P46)</f>
         <v>0.99120829576194769</v>
       </c>
@@ -5800,32 +5817,32 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="14">
         <v>2</v>
       </c>
       <c r="D46" s="15">
         <v>2226</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="14">
         <v>673</v>
       </c>
       <c r="G46" s="15">
         <v>1681</v>
       </c>
-      <c r="H46" s="28"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="14">
         <v>64</v>
       </c>
       <c r="J46" s="15">
         <v>2290</v>
       </c>
-      <c r="K46" s="28"/>
+      <c r="K46" s="25"/>
       <c r="L46" s="14"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="25"/>
       <c r="O46" s="14">
         <v>0</v>
       </c>
@@ -5834,10 +5851,10 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="24">
         <f>SUM(C47,D48)/SUM(C47:D48)</f>
         <v>0.97306629834254144</v>
       </c>
@@ -5847,7 +5864,7 @@
       <c r="D47" s="13">
         <v>115</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="24">
         <f>SUM(F47,G48)/SUM(F47:G48)</f>
         <v>0.76606007454505587</v>
       </c>
@@ -5857,7 +5874,7 @@
       <c r="G47" s="13">
         <v>394</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="24">
         <f>SUM(I47,J48)/SUM(I47:J48)</f>
         <v>0.90506467879850905</v>
       </c>
@@ -5867,13 +5884,13 @@
       <c r="J47" s="13">
         <v>369</v>
       </c>
-      <c r="K47" s="27" t="e">
+      <c r="K47" s="24" t="e">
         <f>SUM(L47,M48)/SUM(L47:M48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="27">
+      <c r="N47" s="24">
         <f>SUM(O47,P48)/SUM(O47:P48)</f>
         <v>0.99120829576194769</v>
       </c>
@@ -5885,32 +5902,32 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="14">
         <v>2</v>
       </c>
       <c r="D48" s="15">
         <v>2226</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="14">
         <v>673</v>
       </c>
       <c r="G48" s="15">
         <v>1681</v>
       </c>
-      <c r="H48" s="28"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="14">
         <v>64</v>
       </c>
       <c r="J48" s="15">
         <v>2290</v>
       </c>
-      <c r="K48" s="28"/>
+      <c r="K48" s="25"/>
       <c r="L48" s="14"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="28"/>
+      <c r="N48" s="25"/>
       <c r="O48" s="14">
         <v>0</v>
       </c>
@@ -5919,10 +5936,10 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="24">
         <f>SUM(C49,D50)/SUM(C49:D50)</f>
         <v>0.97306629834254144</v>
       </c>
@@ -5932,7 +5949,7 @@
       <c r="D49" s="13">
         <v>115</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="24">
         <f>SUM(F49,G50)/SUM(F49:G50)</f>
         <v>0.76606007454505587</v>
       </c>
@@ -5942,7 +5959,7 @@
       <c r="G49" s="13">
         <v>394</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H49" s="24">
         <f>SUM(I49,J50)/SUM(I49:J50)</f>
         <v>0.90506467879850905</v>
       </c>
@@ -5952,13 +5969,13 @@
       <c r="J49" s="13">
         <v>369</v>
       </c>
-      <c r="K49" s="27" t="e">
+      <c r="K49" s="24" t="e">
         <f>SUM(L49,M50)/SUM(L49:M50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="27">
+      <c r="N49" s="24">
         <f>SUM(O49,P50)/SUM(O49:P50)</f>
         <v>0.99120829576194769</v>
       </c>
@@ -5970,32 +5987,32 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="14">
         <v>2</v>
       </c>
       <c r="D50" s="15">
         <v>2226</v>
       </c>
-      <c r="E50" s="28"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="14">
         <v>673</v>
       </c>
       <c r="G50" s="15">
         <v>1681</v>
       </c>
-      <c r="H50" s="28"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="14">
         <v>64</v>
       </c>
       <c r="J50" s="15">
         <v>2290</v>
       </c>
-      <c r="K50" s="28"/>
+      <c r="K50" s="25"/>
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="25"/>
       <c r="O50" s="14">
         <v>0</v>
       </c>
@@ -6005,18 +6022,120 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="K9:K10"/>
@@ -6035,121 +6154,110 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="33"/>
+    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>